--- a/api/1/clv3/xlsx/pt/HumanitarianPlan.xlsx
+++ b/api/1/clv3/xlsx/pt/HumanitarianPlan.xlsx
@@ -22,15 +22,15 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:plan-start-date</t>
+  </si>
+  <si>
+    <t>codeforiati:plan-year</t>
+  </si>
+  <si>
     <t>codeforiati:plan-end-date</t>
   </si>
   <si>
-    <t>codeforiati:plan-start-date</t>
-  </si>
-  <si>
-    <t>codeforiati:plan-year</t>
-  </si>
-  <si>
     <t>codeforiati:plan-type</t>
   </si>
   <si>
@@ -40,15 +40,15 @@
     <t>active</t>
   </si>
   <si>
+    <t>2025-01-01</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
     <t>2025-12-31</t>
   </si>
   <si>
-    <t>2025-01-01</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
     <t>Humanitarian needs and response plan</t>
   </si>
   <si>
@@ -211,15 +211,15 @@
     <t>HAFG24</t>
   </si>
   <si>
+    <t>2024-01-01</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
     <t>2024-12-31</t>
   </si>
   <si>
-    <t>2024-01-01</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>RAFG_RRP24</t>
   </si>
   <si>
@@ -415,15 +415,15 @@
     <t>HAFG23</t>
   </si>
   <si>
+    <t>2023-01-01</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
     <t>2023-12-31</t>
   </si>
   <si>
-    <t>2023-01-01</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
     <t>RAFG23</t>
   </si>
   <si>
@@ -487,21 +487,21 @@
     <t>OMNG2223</t>
   </si>
   <si>
+    <t>2022-12-01</t>
+  </si>
+  <si>
     <t>2023-05-31</t>
   </si>
   <si>
-    <t>2022-12-01</t>
-  </si>
-  <si>
     <t>OMOZ23</t>
   </si>
   <si>
+    <t>2023-03-01</t>
+  </si>
+  <si>
     <t>2023-09-30</t>
   </si>
   <si>
-    <t>2023-03-01</t>
-  </si>
-  <si>
     <t>HMOZ23</t>
   </si>
   <si>
@@ -547,12 +547,12 @@
     <t>RRSDN23</t>
   </si>
   <si>
+    <t>2023-05-01</t>
+  </si>
+  <si>
     <t>2023-10-31</t>
   </si>
   <si>
-    <t>2023-05-01</t>
-  </si>
-  <si>
     <t>HSDN23</t>
   </si>
   <si>
@@ -595,15 +595,15 @@
     <t>HAFG22</t>
   </si>
   <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>2022-12-31</t>
   </si>
   <si>
-    <t>2022-01-01</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>RAFG22</t>
   </si>
   <si>
@@ -625,12 +625,12 @@
     <t>OCUB2223</t>
   </si>
   <si>
+    <t>2022-10-20</t>
+  </si>
+  <si>
     <t>2023-03-31</t>
   </si>
   <si>
-    <t>2022-10-20</t>
-  </si>
-  <si>
     <t>RDRCRRP22</t>
   </si>
   <si>
@@ -646,12 +646,12 @@
     <t>FHTI2223</t>
   </si>
   <si>
+    <t>2022-10-16</t>
+  </si>
+  <si>
     <t>2023-04-15</t>
   </si>
   <si>
-    <t>2022-10-16</t>
-  </si>
-  <si>
     <t>FHTI22</t>
   </si>
   <si>
@@ -682,24 +682,24 @@
     <t>FMWI22</t>
   </si>
   <si>
+    <t>2022-02-26</t>
+  </si>
+  <si>
     <t>2022-05-31</t>
   </si>
   <si>
-    <t>2022-02-26</t>
-  </si>
-  <si>
     <t>HMLI22</t>
   </si>
   <si>
     <t>FMOZ22</t>
   </si>
   <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
     <t>2022-09-30</t>
   </si>
   <si>
-    <t>2022-04-01</t>
-  </si>
-  <si>
     <t>HMOZ22</t>
   </si>
   <si>
@@ -730,12 +730,12 @@
     <t>OPHL2122</t>
   </si>
   <si>
+    <t>2021-12-24</t>
+  </si>
+  <si>
     <t>2022-06-30</t>
   </si>
   <si>
-    <t>2021-12-24</t>
-  </si>
-  <si>
     <t>RREG22</t>
   </si>
   <si>
@@ -799,15 +799,15 @@
     <t>FAFG21</t>
   </si>
   <si>
+    <t>2021-09-01</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
     <t>2021-12-31</t>
   </si>
   <si>
-    <t>2021-09-01</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
     <t>HAFG21</t>
   </si>
   <si>
@@ -856,12 +856,12 @@
     <t>FPSE21</t>
   </si>
   <si>
+    <t>2021-05-27</t>
+  </si>
+  <si>
     <t>2021-08-27</t>
   </si>
   <si>
-    <t>2021-05-27</t>
-  </si>
-  <si>
     <t>HETH21</t>
   </si>
   <si>
@@ -874,24 +874,24 @@
     <t>FHTI2122</t>
   </si>
   <si>
+    <t>2021-08-16</t>
+  </si>
+  <si>
     <t>2022-02-15</t>
   </si>
   <si>
-    <t>2021-08-16</t>
-  </si>
-  <si>
     <t>HHTI21</t>
   </si>
   <si>
     <t>FHND2021</t>
   </si>
   <si>
+    <t>2020-11-15</t>
+  </si>
+  <si>
     <t>2021-06-30</t>
   </si>
   <si>
-    <t>2020-11-15</t>
-  </si>
-  <si>
     <t>HHND21</t>
   </si>
   <si>
@@ -910,12 +910,12 @@
     <t>OLBN2122</t>
   </si>
   <si>
+    <t>2021-08-03</t>
+  </si>
+  <si>
     <t>2022-07-31</t>
   </si>
   <si>
-    <t>2021-08-03</t>
-  </si>
-  <si>
     <t>HLBY21</t>
   </si>
   <si>
@@ -1003,15 +1003,15 @@
     <t>HAFG20</t>
   </si>
   <si>
+    <t>2020-01-01</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
     <t>2020-12-31</t>
   </si>
   <si>
-    <t>2020-01-01</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
     <t>OBGD20</t>
   </si>
   <si>
@@ -1075,12 +1075,12 @@
     <t>FDJI1920</t>
   </si>
   <si>
+    <t>2019-12-17</t>
+  </si>
+  <si>
     <t>2020-03-31</t>
   </si>
   <si>
-    <t>2019-12-17</t>
-  </si>
-  <si>
     <t>ODJI20</t>
   </si>
   <si>
@@ -1129,24 +1129,24 @@
     <t>FLBN20</t>
   </si>
   <si>
+    <t>2020-08-05</t>
+  </si>
+  <si>
     <t>2020-11-13</t>
   </si>
   <si>
-    <t>2020-08-05</t>
-  </si>
-  <si>
     <t>OLBN20</t>
   </si>
   <si>
     <t>FLSO1920</t>
   </si>
   <si>
+    <t>2019-11-01</t>
+  </si>
+  <si>
     <t>2020-04-30</t>
   </si>
   <si>
-    <t>2019-11-01</t>
-  </si>
-  <si>
     <t>OLBR20</t>
   </si>
   <si>
@@ -1243,15 +1243,15 @@
     <t>HAFG19</t>
   </si>
   <si>
+    <t>2019-01-01</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
     <t>2019-12-31</t>
   </si>
   <si>
-    <t>2019-01-01</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
     <t>RBGD19</t>
   </si>
   <si>
@@ -1360,12 +1360,12 @@
     <t>FZWE1920</t>
   </si>
   <si>
+    <t>2019-02-01</t>
+  </si>
+  <si>
     <t>2020-04-29</t>
   </si>
   <si>
-    <t>2019-02-01</t>
-  </si>
-  <si>
     <t>FZWE1820</t>
   </si>
   <si>
@@ -1375,15 +1375,15 @@
     <t>HAFG18</t>
   </si>
   <si>
+    <t>2018-01-01</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
     <t>2018-12-31</t>
   </si>
   <si>
-    <t>2018-01-01</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
     <t>OBGD18</t>
   </si>
   <si>
@@ -1477,12 +1477,12 @@
     <t>HSYR18</t>
   </si>
   <si>
+    <t>2018-11-30</t>
+  </si>
+  <si>
     <t>2018-12-30</t>
   </si>
   <si>
-    <t>2018-11-30</t>
-  </si>
-  <si>
     <t>RSYR18</t>
   </si>
   <si>
@@ -1501,15 +1501,15 @@
     <t>OEUR17</t>
   </si>
   <si>
+    <t>2017-01-01</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
     <t>2017-12-31</t>
   </si>
   <si>
-    <t>2017-01-01</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
     <t>HAFG17</t>
   </si>
   <si>
@@ -1552,12 +1552,12 @@
     <t>FDMA17</t>
   </si>
   <si>
+    <t>2017-09-28</t>
+  </si>
+  <si>
     <t>2017-12-29</t>
   </si>
   <si>
-    <t>2017-09-28</t>
-  </si>
-  <si>
     <t>OPRK17</t>
   </si>
   <si>
@@ -1579,24 +1579,24 @@
     <t>FKEN17</t>
   </si>
   <si>
+    <t>2017-02-10</t>
+  </si>
+  <si>
     <t>2017-11-30</t>
   </si>
   <si>
-    <t>2017-02-10</t>
-  </si>
-  <si>
     <t>HLBY17</t>
   </si>
   <si>
     <t>FMDG17</t>
   </si>
   <si>
+    <t>2017-03-20</t>
+  </si>
+  <si>
     <t>2017-06-20</t>
   </si>
   <si>
-    <t>2017-03-20</t>
-  </si>
-  <si>
     <t>HMLI17</t>
   </si>
   <si>
@@ -1606,12 +1606,12 @@
     <t>FMOZ17</t>
   </si>
   <si>
+    <t>2017-02-28</t>
+  </si>
+  <si>
     <t>2017-05-31</t>
   </si>
   <si>
-    <t>2017-02-28</t>
-  </si>
-  <si>
     <t>HMMR17</t>
   </si>
   <si>
@@ -1630,12 +1630,12 @@
     <t>FPER17</t>
   </si>
   <si>
+    <t>2017-04-01</t>
+  </si>
+  <si>
     <t>2017-10-31</t>
   </si>
   <si>
-    <t>2017-04-01</t>
-  </si>
-  <si>
     <t>HCOG17</t>
   </si>
   <si>
@@ -1672,15 +1672,15 @@
     <t>OEUR16</t>
   </si>
   <si>
+    <t>2016-01-01</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
     <t>2016-12-31</t>
   </si>
   <si>
-    <t>2016-01-01</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
     <t>HAFG16</t>
   </si>
   <si>
@@ -1720,21 +1720,21 @@
     <t>FECU16</t>
   </si>
   <si>
+    <t>2016-04-16</t>
+  </si>
+  <si>
     <t>2016-10-31</t>
   </si>
   <si>
-    <t>2016-04-16</t>
-  </si>
-  <si>
     <t>FFJI16</t>
   </si>
   <si>
+    <t>2016-02-20</t>
+  </si>
+  <si>
     <t>2016-05-30</t>
   </si>
   <si>
-    <t>2016-02-20</t>
-  </si>
-  <si>
     <t>HGMB16</t>
   </si>
   <si>
@@ -1777,12 +1777,12 @@
     <t>FIRQ16</t>
   </si>
   <si>
+    <t>2016-07-20</t>
+  </si>
+  <si>
     <t>2016-10-01</t>
   </si>
   <si>
-    <t>2016-07-20</t>
-  </si>
-  <si>
     <t>HMMR16</t>
   </si>
   <si>
@@ -1825,24 +1825,24 @@
     <t>HZWE1617</t>
   </si>
   <si>
+    <t>2016-04-01</t>
+  </si>
+  <si>
     <t>2017-03-31</t>
   </si>
   <si>
-    <t>2016-04-01</t>
-  </si>
-  <si>
     <t>HAFG15</t>
   </si>
   <si>
+    <t>2015-01-01</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
     <t>2015-12-31</t>
   </si>
   <si>
-    <t>2015-01-01</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
     <t>Strategic response plan</t>
   </si>
   <si>
@@ -1873,12 +1873,12 @@
     <t>FGTM1415</t>
   </si>
   <si>
+    <t>2014-11-03</t>
+  </si>
+  <si>
     <t>2015-09-30</t>
   </si>
   <si>
-    <t>2014-11-03</t>
-  </si>
-  <si>
     <t>FHTI15</t>
   </si>
   <si>
@@ -1894,24 +1894,24 @@
     <t>FVUT15</t>
   </si>
   <si>
+    <t>2015-03-24</t>
+  </si>
+  <si>
     <t>2015-10-31</t>
   </si>
   <si>
-    <t>2015-03-24</t>
-  </si>
-  <si>
     <t>HIRQ15</t>
   </si>
   <si>
     <t>HLBY1415</t>
   </si>
   <si>
+    <t>2014-10-01</t>
+  </si>
+  <si>
     <t>2015-05-31</t>
   </si>
   <si>
-    <t>2014-10-01</t>
-  </si>
-  <si>
     <t>HMLI15</t>
   </si>
   <si>
@@ -1969,15 +1969,15 @@
     <t>HAFG14</t>
   </si>
   <si>
+    <t>2014-01-01</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
     <t>2014-12-31</t>
   </si>
   <si>
-    <t>2014-01-01</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
     <t>HBFA1314</t>
   </si>
   <si>
@@ -2053,21 +2053,21 @@
     <t>FPHL1314</t>
   </si>
   <si>
+    <t>2013-10-22</t>
+  </si>
+  <si>
     <t>2014-04-22</t>
   </si>
   <si>
-    <t>2013-10-22</t>
-  </si>
-  <si>
     <t>SPHL1314</t>
   </si>
   <si>
+    <t>2013-11-08</t>
+  </si>
+  <si>
     <t>2014-11-07</t>
   </si>
   <si>
-    <t>2013-11-08</t>
-  </si>
-  <si>
     <t>HPHL1314</t>
   </si>
   <si>
@@ -2077,12 +2077,12 @@
     <t>HPHL1314a</t>
   </si>
   <si>
+    <t>2013-10-01</t>
+  </si>
+  <si>
     <t>2014-08-31</t>
   </si>
   <si>
-    <t>2013-10-01</t>
-  </si>
-  <si>
     <t>SCOD14</t>
   </si>
   <si>
@@ -2143,12 +2143,12 @@
     <t>CAFG13</t>
   </si>
   <si>
+    <t>2013</t>
+  </si>
+  <si>
     <t>2013-12-31</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
     <t>Consolidated appeals process</t>
   </si>
   <si>
@@ -2236,15 +2236,15 @@
     <t>CKEN12</t>
   </si>
   <si>
+    <t>2012-01-01</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
     <t>2012-12-31</t>
   </si>
   <si>
-    <t>2012-01-01</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
     <t>CAFG1112</t>
   </si>
   <si>
@@ -2284,12 +2284,12 @@
     <t>FLSO1213</t>
   </si>
   <si>
+    <t>2012-09-18</t>
+  </si>
+  <si>
     <t>2013-03-25</t>
   </si>
   <si>
-    <t>2012-09-18</t>
-  </si>
-  <si>
     <t>CLBR12</t>
   </si>
   <si>
@@ -2329,12 +2329,12 @@
     <t>CSYR12</t>
   </si>
   <si>
+    <t>2012-06-05</t>
+  </si>
+  <si>
     <t>2012-12-05</t>
   </si>
   <si>
-    <t>2012-06-05</t>
-  </si>
-  <si>
     <t>CYEM12</t>
   </si>
   <si>
@@ -2377,12 +2377,12 @@
     <t>FSLV1112</t>
   </si>
   <si>
+    <t>2011-10-25</t>
+  </si>
+  <si>
     <t>2012-04-25</t>
   </si>
   <si>
-    <t>2011-10-25</t>
-  </si>
-  <si>
     <t>CHTI1011</t>
   </si>
   <si>
@@ -2401,33 +2401,33 @@
     <t>FNAM11</t>
   </si>
   <si>
+    <t>2011-04-11</t>
+  </si>
+  <si>
     <t>2011-10-11</t>
   </si>
   <si>
-    <t>2011-04-11</t>
-  </si>
-  <si>
     <t>FNIC1112</t>
   </si>
   <si>
+    <t>2011-10-27</t>
+  </si>
+  <si>
     <t>2012-04-26</t>
   </si>
   <si>
-    <t>2011-10-27</t>
-  </si>
-  <si>
     <t>CNER11</t>
   </si>
   <si>
     <t>FPAK1112</t>
   </si>
   <si>
+    <t>2011-09-15</t>
+  </si>
+  <si>
     <t>2012-06-30</t>
   </si>
   <si>
-    <t>2011-09-15</t>
-  </si>
-  <si>
     <t>FXLBYREG11</t>
   </si>
   <si>
@@ -2470,24 +2470,24 @@
     <t>CAFG10</t>
   </si>
   <si>
+    <t>2010-01-01</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
     <t>2010-12-31</t>
   </si>
   <si>
-    <t>2010-01-01</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
     <t>OBFA1011</t>
   </si>
   <si>
+    <t>2010-08-01</t>
+  </si>
+  <si>
     <t>2011-01-31</t>
   </si>
   <si>
-    <t>2010-08-01</t>
-  </si>
-  <si>
     <t>CCAF10</t>
   </si>
   <si>
@@ -2500,30 +2500,30 @@
     <t>FSLV0910</t>
   </si>
   <si>
+    <t>2009-11-01</t>
+  </si>
+  <si>
     <t>2010-05-31</t>
   </si>
   <si>
-    <t>2009-11-01</t>
-  </si>
-  <si>
     <t>FGTM10</t>
   </si>
   <si>
+    <t>2010-06-10</t>
+  </si>
+  <si>
     <t>2010-12-09</t>
   </si>
   <si>
-    <t>2010-06-10</t>
-  </si>
-  <si>
     <t>CGTM10</t>
   </si>
   <si>
+    <t>2010-02-12</t>
+  </si>
+  <si>
     <t>2010-08-11</t>
   </si>
   <si>
-    <t>2010-02-12</t>
-  </si>
-  <si>
     <t>FHTI10</t>
   </si>
   <si>
@@ -2539,12 +2539,12 @@
     <t>FKGZ1011</t>
   </si>
   <si>
+    <t>2010-06-01</t>
+  </si>
+  <si>
     <t>2011-06-30</t>
   </si>
   <si>
-    <t>2010-06-01</t>
-  </si>
-  <si>
     <t>CMNG1011</t>
   </si>
   <si>
@@ -2602,24 +2602,24 @@
     <t>CAFG09</t>
   </si>
   <si>
+    <t>2009-01-01</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
     <t>2009-12-31</t>
   </si>
   <si>
-    <t>2009-01-01</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
     <t>FBFA0910</t>
   </si>
   <si>
+    <t>2009-09-10</t>
+  </si>
+  <si>
     <t>2010-03-09</t>
   </si>
   <si>
-    <t>2009-09-10</t>
-  </si>
-  <si>
     <t>CCAF09</t>
   </si>
   <si>
@@ -2656,21 +2656,21 @@
     <t>FMDG09</t>
   </si>
   <si>
+    <t>2009-04-01</t>
+  </si>
+  <si>
     <t>2009-10-31</t>
   </si>
   <si>
-    <t>2009-04-01</t>
-  </si>
-  <si>
     <t>FNAM09</t>
   </si>
   <si>
+    <t>2009-03-20</t>
+  </si>
+  <si>
     <t>2009-09-30</t>
   </si>
   <si>
-    <t>2009-03-20</t>
-  </si>
-  <si>
     <t>ONPL09</t>
   </si>
   <si>
@@ -2683,12 +2683,12 @@
     <t>FPHL0910</t>
   </si>
   <si>
+    <t>2009-10-03</t>
+  </si>
+  <si>
     <t>2010-03-31</t>
   </si>
   <si>
-    <t>2009-10-03</t>
-  </si>
-  <si>
     <t>CSOM09</t>
   </si>
   <si>
@@ -2701,12 +2701,12 @@
     <t>OSYR0910</t>
   </si>
   <si>
+    <t>2009-07-15</t>
+  </si>
+  <si>
     <t>2010-06-14</t>
   </si>
   <si>
-    <t>2009-07-15</t>
-  </si>
-  <si>
     <t>OTJK09</t>
   </si>
   <si>
@@ -2740,24 +2740,24 @@
     <t>OAFG08</t>
   </si>
   <si>
+    <t>2008-02-01</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
     <t>2008-06-30</t>
   </si>
   <si>
-    <t>2008-02-01</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
     <t>OAFG0809</t>
   </si>
   <si>
+    <t>2008-07-01</t>
+  </si>
+  <si>
     <t>2009-06-30</t>
   </si>
   <si>
-    <t>2008-07-01</t>
-  </si>
-  <si>
     <t>FBOL08</t>
   </si>
   <si>
@@ -2767,12 +2767,12 @@
     <t>CCAF08</t>
   </si>
   <si>
+    <t>2008-01-01</t>
+  </si>
+  <si>
     <t>2008-12-31</t>
   </si>
   <si>
-    <t>2008-01-01</t>
-  </si>
-  <si>
     <t>CTCD08</t>
   </si>
   <si>
@@ -2788,21 +2788,21 @@
     <t>ODJI0809</t>
   </si>
   <si>
+    <t>2008-08-01</t>
+  </si>
+  <si>
     <t>2009-02-28</t>
   </si>
   <si>
-    <t>2008-08-01</t>
-  </si>
-  <si>
     <t>FGEO0809</t>
   </si>
   <si>
+    <t>2008-08-09</t>
+  </si>
+  <si>
     <t>2009-02-09</t>
   </si>
   <si>
-    <t>2008-08-09</t>
-  </si>
-  <si>
     <t>FHTI0809</t>
   </si>
   <si>
@@ -2812,12 +2812,12 @@
     <t>FHND0809</t>
   </si>
   <si>
+    <t>2008-11-01</t>
+  </si>
+  <si>
     <t>2009-04-30</t>
   </si>
   <si>
-    <t>2008-11-01</t>
-  </si>
-  <si>
     <t>CIRQ08</t>
   </si>
   <si>
@@ -2827,12 +2827,12 @@
     <t>FKGZ0809</t>
   </si>
   <si>
+    <t>2008-12-01</t>
+  </si>
+  <si>
     <t>2009-05-31</t>
   </si>
   <si>
-    <t>2008-12-01</t>
-  </si>
-  <si>
     <t>OLAO0809</t>
   </si>
   <si>
@@ -2851,12 +2851,12 @@
     <t>FMMR08</t>
   </si>
   <si>
+    <t>2008-05-01</t>
+  </si>
+  <si>
     <t>2008-11-30</t>
   </si>
   <si>
-    <t>2008-05-01</t>
-  </si>
-  <si>
     <t>ONPL08</t>
   </si>
   <si>
@@ -2908,33 +2908,33 @@
     <t>FBOL07</t>
   </si>
   <si>
+    <t>2007-02-22</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
     <t>2007-08-21</t>
   </si>
   <si>
-    <t>2007-02-22</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
     <t>FBFA0708</t>
   </si>
   <si>
+    <t>2007-11-01</t>
+  </si>
+  <si>
     <t>2008-01-31</t>
   </si>
   <si>
-    <t>2007-11-01</t>
-  </si>
-  <si>
     <t>CBDI07</t>
   </si>
   <si>
+    <t>2007-01-01</t>
+  </si>
+  <si>
     <t>2007-12-31</t>
   </si>
   <si>
-    <t>2007-01-01</t>
-  </si>
-  <si>
     <t>CCAF07</t>
   </si>
   <si>
@@ -2956,12 +2956,12 @@
     <t>FGHA0708</t>
   </si>
   <si>
+    <t>2007-09-01</t>
+  </si>
+  <si>
     <t>2008-03-31</t>
   </si>
   <si>
-    <t>2007-09-01</t>
-  </si>
-  <si>
     <t>CXGLR07</t>
   </si>
   <si>
@@ -2974,75 +2974,75 @@
     <t>FPRK07</t>
   </si>
   <si>
+    <t>2007-08-28</t>
+  </si>
+  <si>
     <t>2007-11-30</t>
   </si>
   <si>
-    <t>2007-08-28</t>
-  </si>
-  <si>
     <t>OLBN07</t>
   </si>
   <si>
+    <t>2007-06-04</t>
+  </si>
+  <si>
     <t>2007-09-03</t>
   </si>
   <si>
-    <t>2007-06-04</t>
-  </si>
-  <si>
     <t>FLSO0708</t>
   </si>
   <si>
+    <t>2007-07-28</t>
+  </si>
+  <si>
     <t>2008-01-28</t>
   </si>
   <si>
-    <t>2007-07-28</t>
-  </si>
-  <si>
     <t>CLBR07</t>
   </si>
   <si>
     <t>FMDG07</t>
   </si>
   <si>
+    <t>2007-03-15</t>
+  </si>
+  <si>
     <t>2007-09-15</t>
   </si>
   <si>
-    <t>2007-03-15</t>
-  </si>
-  <si>
     <t>FMOZ07</t>
   </si>
   <si>
+    <t>2007-03-01</t>
+  </si>
+  <si>
     <t>2007-06-30</t>
   </si>
   <si>
-    <t>2007-03-01</t>
-  </si>
-  <si>
     <t>ONPL07</t>
   </si>
   <si>
     <t>FNIC0708</t>
   </si>
   <si>
+    <t>2007-09-07</t>
+  </si>
+  <si>
     <t>2008-02-28</t>
   </si>
   <si>
-    <t>2007-09-07</t>
-  </si>
-  <si>
     <t>ORUS07</t>
   </si>
   <si>
     <t>FPAK07</t>
   </si>
   <si>
+    <t>2007-07-15</t>
+  </si>
+  <si>
     <t>2007-10-31</t>
   </si>
   <si>
-    <t>2007-07-15</t>
-  </si>
-  <si>
     <t>FPER0708</t>
   </si>
   <si>
@@ -3076,12 +3076,12 @@
     <t>FSWZ0708</t>
   </si>
   <si>
+    <t>2007-07-20</t>
+  </si>
+  <si>
     <t>2008-01-20</t>
   </si>
   <si>
-    <t>2007-07-20</t>
-  </si>
-  <si>
     <t>CTLS07</t>
   </si>
   <si>
@@ -3106,15 +3106,15 @@
     <t>OAFG06</t>
   </si>
   <si>
+    <t>2006-07-01</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
     <t>2006-12-31</t>
   </si>
   <si>
-    <t>2006-07-01</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
     <t>CBDI06</t>
   </si>
   <si>
@@ -3139,21 +3139,21 @@
     <t>OETH06a</t>
   </si>
   <si>
+    <t>2006-08-25</t>
+  </si>
+  <si>
     <t>2006-11-25</t>
   </si>
   <si>
-    <t>2006-08-25</t>
-  </si>
-  <si>
     <t>OETH0607</t>
   </si>
   <si>
+    <t>2006-11-23</t>
+  </si>
+  <si>
     <t>2007-01-22</t>
   </si>
   <si>
-    <t>2006-11-23</t>
-  </si>
-  <si>
     <t>CXGLR06</t>
   </si>
   <si>
@@ -3163,12 +3163,12 @@
     <t>FGNB06</t>
   </si>
   <si>
+    <t>2006-05-01</t>
+  </si>
+  <si>
     <t>2006-11-30</t>
   </si>
   <si>
-    <t>2006-05-01</t>
-  </si>
-  <si>
     <t>CXHAF06</t>
   </si>
   <si>
@@ -3178,12 +3178,12 @@
     <t>FKEN0607</t>
   </si>
   <si>
+    <t>2006-10-16</t>
+  </si>
+  <si>
     <t>2007-04-15</t>
   </si>
   <si>
-    <t>2006-10-16</t>
-  </si>
-  <si>
     <t>FKEN06</t>
   </si>
   <si>
@@ -3193,12 +3193,12 @@
     <t>FLBN06</t>
   </si>
   <si>
+    <t>2006-07-24</t>
+  </si>
+  <si>
     <t>2006-10-23</t>
   </si>
   <si>
-    <t>2006-07-24</t>
-  </si>
-  <si>
     <t>CLBR06</t>
   </si>
   <si>
@@ -3226,12 +3226,12 @@
     <t>FSOM0607</t>
   </si>
   <si>
+    <t>2006-12-05</t>
+  </si>
+  <si>
     <t>2007-03-05</t>
   </si>
   <si>
-    <t>2006-12-05</t>
-  </si>
-  <si>
     <t>OLKA06</t>
   </si>
   <si>
@@ -3265,33 +3265,33 @@
     <t>FAGO05</t>
   </si>
   <si>
+    <t>2005-04-01</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
     <t>2005-06-30</t>
   </si>
   <si>
-    <t>2005-04-01</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
     <t>FBEN05</t>
   </si>
   <si>
+    <t>2005-05-01</t>
+  </si>
+  <si>
     <t>2005-10-31</t>
   </si>
   <si>
-    <t>2005-05-01</t>
-  </si>
-  <si>
     <t>CBDI05</t>
   </si>
   <si>
+    <t>2005-01-01</t>
+  </si>
+  <si>
     <t>2005-12-31</t>
   </si>
   <si>
-    <t>2005-01-01</t>
-  </si>
-  <si>
     <t>CCAF05</t>
   </si>
   <si>
@@ -3331,12 +3331,12 @@
     <t>FGUY05</t>
   </si>
   <si>
+    <t>2005-02-01</t>
+  </si>
+  <si>
     <t>2005-08-01</t>
   </si>
   <si>
-    <t>2005-02-01</t>
-  </si>
-  <si>
     <t>FXINDTSU05</t>
   </si>
   <si>
@@ -3349,12 +3349,12 @@
     <t>FNER05</t>
   </si>
   <si>
+    <t>2005-06-01</t>
+  </si>
+  <si>
     <t>2005-09-30</t>
   </si>
   <si>
-    <t>2005-06-01</t>
-  </si>
-  <si>
     <t>CCOG05</t>
   </si>
   <si>
@@ -3364,12 +3364,12 @@
     <t>FXSASIA0506</t>
   </si>
   <si>
+    <t>2005-10-11</t>
+  </si>
+  <si>
     <t>2006-04-10</t>
   </si>
   <si>
-    <t>2005-10-11</t>
-  </si>
-  <si>
     <t>CSDN05</t>
   </si>
   <si>
@@ -3382,27 +3382,27 @@
     <t>FXWAF0506</t>
   </si>
   <si>
+    <t>2005-11-01</t>
+  </si>
+  <si>
     <t>2006-05-31</t>
   </si>
   <si>
-    <t>2005-11-01</t>
-  </si>
-  <si>
     <t>CPSE05</t>
   </si>
   <si>
     <t>OAFG04</t>
   </si>
   <si>
+    <t>2004-09-01</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
     <t>2004-12-31</t>
   </si>
   <si>
-    <t>2004-09-01</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
     <t>CAGO04</t>
   </si>
   <si>
@@ -3412,21 +3412,21 @@
     <t>FBGD0405</t>
   </si>
   <si>
+    <t>2004-08-01</t>
+  </si>
+  <si>
     <t>2005-01-31</t>
   </si>
   <si>
-    <t>2004-08-01</t>
-  </si>
-  <si>
     <t>FBOL0405</t>
   </si>
   <si>
+    <t>2004-11-01</t>
+  </si>
+  <si>
     <t>2005-05-31</t>
   </si>
   <si>
-    <t>2004-11-01</t>
-  </si>
-  <si>
     <t>CBDI04</t>
   </si>
   <si>
@@ -3499,21 +3499,21 @@
     <t>FMDG04</t>
   </si>
   <si>
+    <t>2004-03-19</t>
+  </si>
+  <si>
     <t>2004-06-19</t>
   </si>
   <si>
-    <t>2004-03-19</t>
-  </si>
-  <si>
     <t>FPHL0405</t>
   </si>
   <si>
+    <t>2004-12-15</t>
+  </si>
+  <si>
     <t>2005-03-15</t>
   </si>
   <si>
-    <t>2004-12-15</t>
-  </si>
-  <si>
     <t>CSLE04</t>
   </si>
   <si>
@@ -3544,15 +3544,15 @@
     <t>OAFG03</t>
   </si>
   <si>
+    <t>2003-01-01</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
     <t>2003-12-31</t>
   </si>
   <si>
-    <t>2003-01-01</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
     <t>CAGO03</t>
   </si>
   <si>
@@ -3562,12 +3562,12 @@
     <t>FCAF03</t>
   </si>
   <si>
+    <t>2003-04-01</t>
+  </si>
+  <si>
     <t>2003-06-30</t>
   </si>
   <si>
-    <t>2003-04-01</t>
-  </si>
-  <si>
     <t>CRUS03</t>
   </si>
   <si>
@@ -3580,12 +3580,12 @@
     <t>FCIV0203</t>
   </si>
   <si>
+    <t>2002-11-01</t>
+  </si>
+  <si>
     <t>2003-01-31</t>
   </si>
   <si>
-    <t>2002-11-01</t>
-  </si>
-  <si>
     <t>CPRK03</t>
   </si>
   <si>
@@ -3604,21 +3604,21 @@
     <t>OHTI03</t>
   </si>
   <si>
+    <t>2003-03-01</t>
+  </si>
+  <si>
     <t>2003-08-31</t>
   </si>
   <si>
-    <t>2003-03-01</t>
-  </si>
-  <si>
     <t>CLSO0304</t>
   </si>
   <si>
+    <t>2003-07-01</t>
+  </si>
+  <si>
     <t>2004-06-30</t>
   </si>
   <si>
-    <t>2003-07-01</t>
-  </si>
-  <si>
     <t>CMWI03</t>
   </si>
   <si>
@@ -3670,15 +3670,15 @@
     <t>CAFG0102</t>
   </si>
   <si>
+    <t>2001-10-01</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>2002-12-31</t>
   </si>
   <si>
-    <t>2001-10-01</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
     <t>CAGO02</t>
   </si>
   <si>
@@ -3772,15 +3772,15 @@
     <t>CAFG01</t>
   </si>
   <si>
+    <t>2001-01-01</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
     <t>2001-09-30</t>
   </si>
   <si>
-    <t>2001-01-01</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
     <t>CAGO01</t>
   </si>
   <si>
@@ -3853,13 +3853,13 @@
     <t>CAGO00</t>
   </si>
   <si>
+    <t>2000-01-01</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
     <t>2000-12-31</t>
-  </si>
-  <si>
-    <t>2000-01-01</t>
-  </si>
-  <si>
-    <t>2000</t>
   </si>
   <si>
     <t>CBDI00</t>
@@ -4325,13 +4325,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -4525,13 +4525,13 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
@@ -4545,13 +4545,13 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
         <v>24</v>
@@ -4585,13 +4585,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
         <v>24</v>
@@ -4625,13 +4625,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
@@ -4645,10 +4645,10 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -4725,13 +4725,13 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
@@ -5065,13 +5065,13 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
@@ -5105,13 +5105,13 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F43" t="s">
         <v>24</v>
@@ -5125,13 +5125,13 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s">
         <v>24</v>
@@ -5185,10 +5185,10 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E47" t="s">
         <v>67</v>
@@ -5225,10 +5225,10 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D49" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
         <v>67</v>
@@ -5365,10 +5365,10 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D56" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E56" t="s">
         <v>67</v>
@@ -5445,10 +5445,10 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E60" t="s">
         <v>67</v>
@@ -5465,10 +5465,10 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D61" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E61" t="s">
         <v>67</v>
@@ -5485,13 +5485,13 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D62" t="s">
         <v>66</v>
       </c>
       <c r="E62" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="F62" t="s">
         <v>24</v>
@@ -5505,13 +5505,13 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D63" t="s">
         <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F63" t="s">
         <v>24</v>
@@ -5525,10 +5525,10 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D64" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E64" t="s">
         <v>67</v>
@@ -5565,13 +5565,13 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" t="s">
         <v>91</v>
-      </c>
-      <c r="D66" t="s">
-        <v>96</v>
-      </c>
-      <c r="E66" t="s">
-        <v>67</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
@@ -5585,10 +5585,10 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="D67" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="E67" t="s">
         <v>67</v>
@@ -5645,10 +5645,10 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="D70" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="E70" t="s">
         <v>67</v>
@@ -5705,10 +5705,10 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E73" t="s">
         <v>67</v>
@@ -5825,10 +5825,10 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D79" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E79" t="s">
         <v>67</v>
@@ -6085,10 +6085,10 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="D92" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="E92" t="s">
         <v>67</v>
@@ -6125,10 +6125,10 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="D94" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="E94" t="s">
         <v>67</v>
@@ -6145,10 +6145,10 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="D95" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="E95" t="s">
         <v>67</v>
@@ -6325,10 +6325,10 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="D104" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E104" t="s">
         <v>135</v>
@@ -6485,10 +6485,10 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="D112" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E112" t="s">
         <v>135</v>
@@ -6548,10 +6548,10 @@
         <v>157</v>
       </c>
       <c r="D115" t="s">
+        <v>134</v>
+      </c>
+      <c r="E115" t="s">
         <v>158</v>
-      </c>
-      <c r="E115" t="s">
-        <v>135</v>
       </c>
       <c r="F115" t="s">
         <v>16</v>
@@ -6568,10 +6568,10 @@
         <v>160</v>
       </c>
       <c r="D116" t="s">
+        <v>134</v>
+      </c>
+      <c r="E116" t="s">
         <v>161</v>
-      </c>
-      <c r="E116" t="s">
-        <v>135</v>
       </c>
       <c r="F116" t="s">
         <v>16</v>
@@ -6665,13 +6665,13 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="D121" t="s">
         <v>134</v>
       </c>
       <c r="E121" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="F121" t="s">
         <v>19</v>
@@ -6685,13 +6685,13 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="D122" t="s">
         <v>134</v>
       </c>
       <c r="E122" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
@@ -6868,10 +6868,10 @@
         <v>177</v>
       </c>
       <c r="D131" t="s">
+        <v>134</v>
+      </c>
+      <c r="E131" t="s">
         <v>178</v>
-      </c>
-      <c r="E131" t="s">
-        <v>135</v>
       </c>
       <c r="F131" t="s">
         <v>13</v>
@@ -6905,13 +6905,13 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="D133" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="E133" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="F133" t="s">
         <v>24</v>
@@ -6945,13 +6945,13 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="D135" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="F135" t="s">
         <v>24</v>
@@ -7248,10 +7248,10 @@
         <v>203</v>
       </c>
       <c r="D150" t="s">
+        <v>194</v>
+      </c>
+      <c r="E150" t="s">
         <v>204</v>
-      </c>
-      <c r="E150" t="s">
-        <v>195</v>
       </c>
       <c r="F150" t="s">
         <v>16</v>
@@ -7348,10 +7348,10 @@
         <v>210</v>
       </c>
       <c r="D155" t="s">
+        <v>194</v>
+      </c>
+      <c r="E155" t="s">
         <v>211</v>
-      </c>
-      <c r="E155" t="s">
-        <v>195</v>
       </c>
       <c r="F155" t="s">
         <v>24</v>
@@ -7365,10 +7365,10 @@
         <v>108</v>
       </c>
       <c r="C156" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="D156" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="E156" t="s">
         <v>195</v>
@@ -7445,13 +7445,13 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="D160" t="s">
         <v>194</v>
       </c>
       <c r="E160" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="F160" t="s">
         <v>24</v>
@@ -7528,10 +7528,10 @@
         <v>222</v>
       </c>
       <c r="D164" t="s">
+        <v>194</v>
+      </c>
+      <c r="E164" t="s">
         <v>223</v>
-      </c>
-      <c r="E164" t="s">
-        <v>195</v>
       </c>
       <c r="F164" t="s">
         <v>24</v>
@@ -7568,10 +7568,10 @@
         <v>226</v>
       </c>
       <c r="D166" t="s">
+        <v>194</v>
+      </c>
+      <c r="E166" t="s">
         <v>227</v>
-      </c>
-      <c r="E166" t="s">
-        <v>195</v>
       </c>
       <c r="F166" t="s">
         <v>24</v>
@@ -7685,10 +7685,10 @@
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="D172" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="E172" t="s">
         <v>195</v>
@@ -7705,13 +7705,13 @@
         <v>108</v>
       </c>
       <c r="C173" t="s">
+        <v>234</v>
+      </c>
+      <c r="D173" t="s">
+        <v>194</v>
+      </c>
+      <c r="E173" t="s">
         <v>236</v>
-      </c>
-      <c r="D173" t="s">
-        <v>234</v>
-      </c>
-      <c r="E173" t="s">
-        <v>195</v>
       </c>
       <c r="F173" t="s">
         <v>16</v>
@@ -7728,10 +7728,10 @@
         <v>238</v>
       </c>
       <c r="D174" t="s">
+        <v>194</v>
+      </c>
+      <c r="E174" t="s">
         <v>239</v>
-      </c>
-      <c r="E174" t="s">
-        <v>195</v>
       </c>
       <c r="F174" t="s">
         <v>16</v>
@@ -7885,10 +7885,10 @@
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c r="D182" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="E182" t="s">
         <v>195</v>
@@ -7985,10 +7985,10 @@
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="D187" t="s">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="E187" t="s">
         <v>195</v>
@@ -8025,13 +8025,13 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
+        <v>254</v>
+      </c>
+      <c r="D189" t="s">
+        <v>194</v>
+      </c>
+      <c r="E189" t="s">
         <v>257</v>
-      </c>
-      <c r="D189" t="s">
-        <v>254</v>
-      </c>
-      <c r="E189" t="s">
-        <v>195</v>
       </c>
       <c r="F189" t="s">
         <v>13</v>
@@ -8105,10 +8105,10 @@
         <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D193" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E193" t="s">
         <v>263</v>
@@ -8125,10 +8125,10 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D194" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E194" t="s">
         <v>263</v>
@@ -8145,10 +8145,10 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D195" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E195" t="s">
         <v>263</v>
@@ -8165,10 +8165,10 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D196" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E196" t="s">
         <v>263</v>
@@ -8185,10 +8185,10 @@
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D197" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E197" t="s">
         <v>263</v>
@@ -8205,10 +8205,10 @@
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D198" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E198" t="s">
         <v>263</v>
@@ -8225,10 +8225,10 @@
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D199" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E199" t="s">
         <v>263</v>
@@ -8245,10 +8245,10 @@
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D200" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E200" t="s">
         <v>263</v>
@@ -8265,10 +8265,10 @@
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D201" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E201" t="s">
         <v>263</v>
@@ -8285,10 +8285,10 @@
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D202" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E202" t="s">
         <v>263</v>
@@ -8305,10 +8305,10 @@
         <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D203" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E203" t="s">
         <v>263</v>
@@ -8325,10 +8325,10 @@
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="D204" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E204" t="s">
         <v>263</v>
@@ -8345,13 +8345,13 @@
         <v>108</v>
       </c>
       <c r="C205" t="s">
-        <v>193</v>
+        <v>277</v>
       </c>
       <c r="D205" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E205" t="s">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="F205" t="s">
         <v>19</v>
@@ -8368,10 +8368,10 @@
         <v>280</v>
       </c>
       <c r="D206" t="s">
+        <v>262</v>
+      </c>
+      <c r="E206" t="s">
         <v>281</v>
-      </c>
-      <c r="E206" t="s">
-        <v>263</v>
       </c>
       <c r="F206" t="s">
         <v>24</v>
@@ -8385,10 +8385,10 @@
         <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D207" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E207" t="s">
         <v>263</v>
@@ -8405,10 +8405,10 @@
         <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="D208" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E208" t="s">
         <v>263</v>
@@ -8425,13 +8425,13 @@
         <v>108</v>
       </c>
       <c r="C209" t="s">
-        <v>193</v>
+        <v>277</v>
       </c>
       <c r="D209" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E209" t="s">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="F209" t="s">
         <v>19</v>
@@ -8448,10 +8448,10 @@
         <v>286</v>
       </c>
       <c r="D210" t="s">
+        <v>262</v>
+      </c>
+      <c r="E210" t="s">
         <v>287</v>
-      </c>
-      <c r="E210" t="s">
-        <v>263</v>
       </c>
       <c r="F210" t="s">
         <v>24</v>
@@ -8465,10 +8465,10 @@
         <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D211" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E211" t="s">
         <v>263</v>
@@ -8488,10 +8488,10 @@
         <v>290</v>
       </c>
       <c r="D212" t="s">
+        <v>262</v>
+      </c>
+      <c r="E212" t="s">
         <v>291</v>
-      </c>
-      <c r="E212" t="s">
-        <v>263</v>
       </c>
       <c r="F212" t="s">
         <v>24</v>
@@ -8505,10 +8505,10 @@
         <v>7</v>
       </c>
       <c r="C213" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="D213" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E213" t="s">
         <v>263</v>
@@ -8525,13 +8525,13 @@
         <v>108</v>
       </c>
       <c r="C214" t="s">
-        <v>193</v>
+        <v>277</v>
       </c>
       <c r="D214" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E214" t="s">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="F214" t="s">
         <v>19</v>
@@ -8545,10 +8545,10 @@
         <v>7</v>
       </c>
       <c r="C215" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D215" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E215" t="s">
         <v>263</v>
@@ -8565,10 +8565,10 @@
         <v>7</v>
       </c>
       <c r="C216" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="D216" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="E216" t="s">
         <v>263</v>
@@ -8588,10 +8588,10 @@
         <v>298</v>
       </c>
       <c r="D217" t="s">
+        <v>262</v>
+      </c>
+      <c r="E217" t="s">
         <v>299</v>
-      </c>
-      <c r="E217" t="s">
-        <v>263</v>
       </c>
       <c r="F217" t="s">
         <v>16</v>
@@ -8605,10 +8605,10 @@
         <v>7</v>
       </c>
       <c r="C218" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D218" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E218" t="s">
         <v>263</v>
@@ -8625,13 +8625,13 @@
         <v>108</v>
       </c>
       <c r="C219" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="D219" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E219" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="F219" t="s">
         <v>24</v>
@@ -8645,10 +8645,10 @@
         <v>7</v>
       </c>
       <c r="C220" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D220" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E220" t="s">
         <v>263</v>
@@ -8665,10 +8665,10 @@
         <v>7</v>
       </c>
       <c r="C221" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D221" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E221" t="s">
         <v>263</v>
@@ -8685,10 +8685,10 @@
         <v>7</v>
       </c>
       <c r="C222" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D222" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E222" t="s">
         <v>263</v>
@@ -8705,10 +8705,10 @@
         <v>7</v>
       </c>
       <c r="C223" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D223" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E223" t="s">
         <v>263</v>
@@ -8725,10 +8725,10 @@
         <v>7</v>
       </c>
       <c r="C224" t="s">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c r="D224" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="E224" t="s">
         <v>263</v>
@@ -8745,10 +8745,10 @@
         <v>7</v>
       </c>
       <c r="C225" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="D225" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="E225" t="s">
         <v>263</v>
@@ -8765,10 +8765,10 @@
         <v>7</v>
       </c>
       <c r="C226" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D226" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E226" t="s">
         <v>263</v>
@@ -8785,10 +8785,10 @@
         <v>7</v>
       </c>
       <c r="C227" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D227" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E227" t="s">
         <v>263</v>
@@ -8805,10 +8805,10 @@
         <v>7</v>
       </c>
       <c r="C228" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="D228" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="E228" t="s">
         <v>263</v>
@@ -8825,10 +8825,10 @@
         <v>108</v>
       </c>
       <c r="C229" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="D229" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="E229" t="s">
         <v>263</v>
@@ -8845,10 +8845,10 @@
         <v>7</v>
       </c>
       <c r="C230" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D230" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E230" t="s">
         <v>263</v>
@@ -8865,10 +8865,10 @@
         <v>7</v>
       </c>
       <c r="C231" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D231" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E231" t="s">
         <v>263</v>
@@ -8885,10 +8885,10 @@
         <v>7</v>
       </c>
       <c r="C232" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D232" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E232" t="s">
         <v>263</v>
@@ -8905,10 +8905,10 @@
         <v>7</v>
       </c>
       <c r="C233" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D233" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E233" t="s">
         <v>263</v>
@@ -8925,10 +8925,10 @@
         <v>7</v>
       </c>
       <c r="C234" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D234" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E234" t="s">
         <v>263</v>
@@ -8945,10 +8945,10 @@
         <v>7</v>
       </c>
       <c r="C235" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D235" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E235" t="s">
         <v>263</v>
@@ -8965,10 +8965,10 @@
         <v>7</v>
       </c>
       <c r="C236" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D236" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E236" t="s">
         <v>263</v>
@@ -8985,10 +8985,10 @@
         <v>7</v>
       </c>
       <c r="C237" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D237" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E237" t="s">
         <v>263</v>
@@ -9005,10 +9005,10 @@
         <v>7</v>
       </c>
       <c r="C238" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D238" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E238" t="s">
         <v>263</v>
@@ -9025,10 +9025,10 @@
         <v>7</v>
       </c>
       <c r="C239" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D239" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E239" t="s">
         <v>263</v>
@@ -9045,10 +9045,10 @@
         <v>7</v>
       </c>
       <c r="C240" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D240" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E240" t="s">
         <v>263</v>
@@ -9065,10 +9065,10 @@
         <v>7</v>
       </c>
       <c r="C241" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D241" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E241" t="s">
         <v>263</v>
@@ -9085,10 +9085,10 @@
         <v>7</v>
       </c>
       <c r="C242" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D242" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E242" t="s">
         <v>263</v>
@@ -9105,10 +9105,10 @@
         <v>7</v>
       </c>
       <c r="C243" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D243" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E243" t="s">
         <v>263</v>
@@ -9145,10 +9145,10 @@
         <v>7</v>
       </c>
       <c r="C245" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D245" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E245" t="s">
         <v>331</v>
@@ -9185,10 +9185,10 @@
         <v>7</v>
       </c>
       <c r="C247" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D247" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E247" t="s">
         <v>331</v>
@@ -9265,10 +9265,10 @@
         <v>7</v>
       </c>
       <c r="C251" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="D251" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E251" t="s">
         <v>331</v>
@@ -9305,13 +9305,13 @@
         <v>7</v>
       </c>
       <c r="C253" t="s">
+        <v>343</v>
+      </c>
+      <c r="D253" t="s">
+        <v>330</v>
+      </c>
+      <c r="E253" t="s">
         <v>265</v>
-      </c>
-      <c r="D253" t="s">
-        <v>343</v>
-      </c>
-      <c r="E253" t="s">
-        <v>331</v>
       </c>
       <c r="F253" t="s">
         <v>19</v>
@@ -9365,10 +9365,10 @@
         <v>7</v>
       </c>
       <c r="C256" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D256" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E256" t="s">
         <v>331</v>
@@ -9385,10 +9385,10 @@
         <v>7</v>
       </c>
       <c r="C257" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D257" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E257" t="s">
         <v>331</v>
@@ -9405,10 +9405,10 @@
         <v>108</v>
       </c>
       <c r="C258" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="D258" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E258" t="s">
         <v>331</v>
@@ -9468,10 +9468,10 @@
         <v>353</v>
       </c>
       <c r="D261" t="s">
+        <v>330</v>
+      </c>
+      <c r="E261" t="s">
         <v>354</v>
-      </c>
-      <c r="E261" t="s">
-        <v>331</v>
       </c>
       <c r="F261" t="s">
         <v>24</v>
@@ -9485,10 +9485,10 @@
         <v>7</v>
       </c>
       <c r="C262" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D262" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E262" t="s">
         <v>331</v>
@@ -9505,10 +9505,10 @@
         <v>108</v>
       </c>
       <c r="C263" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D263" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E263" t="s">
         <v>331</v>
@@ -9545,10 +9545,10 @@
         <v>7</v>
       </c>
       <c r="C265" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D265" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E265" t="s">
         <v>331</v>
@@ -9585,10 +9585,10 @@
         <v>7</v>
       </c>
       <c r="C267" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D267" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E267" t="s">
         <v>331</v>
@@ -9605,10 +9605,10 @@
         <v>7</v>
       </c>
       <c r="C268" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="D268" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E268" t="s">
         <v>331</v>
@@ -9625,10 +9625,10 @@
         <v>108</v>
       </c>
       <c r="C269" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D269" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E269" t="s">
         <v>331</v>
@@ -9645,10 +9645,10 @@
         <v>7</v>
       </c>
       <c r="C270" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D270" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E270" t="s">
         <v>331</v>
@@ -9685,10 +9685,10 @@
         <v>7</v>
       </c>
       <c r="C272" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D272" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E272" t="s">
         <v>331</v>
@@ -9725,10 +9725,10 @@
         <v>7</v>
       </c>
       <c r="C274" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D274" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E274" t="s">
         <v>331</v>
@@ -9745,10 +9745,10 @@
         <v>7</v>
       </c>
       <c r="C275" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="D275" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="E275" t="s">
         <v>331</v>
@@ -9768,10 +9768,10 @@
         <v>371</v>
       </c>
       <c r="D276" t="s">
+        <v>330</v>
+      </c>
+      <c r="E276" t="s">
         <v>372</v>
-      </c>
-      <c r="E276" t="s">
-        <v>331</v>
       </c>
       <c r="F276" t="s">
         <v>24</v>
@@ -9785,10 +9785,10 @@
         <v>7</v>
       </c>
       <c r="C277" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D277" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E277" t="s">
         <v>331</v>
@@ -9808,10 +9808,10 @@
         <v>375</v>
       </c>
       <c r="D278" t="s">
+        <v>330</v>
+      </c>
+      <c r="E278" t="s">
         <v>376</v>
-      </c>
-      <c r="E278" t="s">
-        <v>331</v>
       </c>
       <c r="F278" t="s">
         <v>24</v>
@@ -9825,10 +9825,10 @@
         <v>7</v>
       </c>
       <c r="C279" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D279" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E279" t="s">
         <v>331</v>
@@ -9885,10 +9885,10 @@
         <v>7</v>
       </c>
       <c r="C282" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D282" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E282" t="s">
         <v>331</v>
@@ -9985,10 +9985,10 @@
         <v>7</v>
       </c>
       <c r="C287" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="D287" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="E287" t="s">
         <v>331</v>
@@ -10005,10 +10005,10 @@
         <v>7</v>
       </c>
       <c r="C288" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D288" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E288" t="s">
         <v>331</v>
@@ -10065,10 +10065,10 @@
         <v>7</v>
       </c>
       <c r="C291" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="D291" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="E291" t="s">
         <v>331</v>
@@ -10085,10 +10085,10 @@
         <v>7</v>
       </c>
       <c r="C292" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D292" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E292" t="s">
         <v>331</v>
@@ -10225,10 +10225,10 @@
         <v>7</v>
       </c>
       <c r="C299" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D299" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E299" t="s">
         <v>331</v>
@@ -10245,10 +10245,10 @@
         <v>7</v>
       </c>
       <c r="C300" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D300" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E300" t="s">
         <v>331</v>
@@ -10265,10 +10265,10 @@
         <v>7</v>
       </c>
       <c r="C301" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D301" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E301" t="s">
         <v>331</v>
@@ -10305,10 +10305,10 @@
         <v>7</v>
       </c>
       <c r="C303" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D303" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E303" t="s">
         <v>331</v>
@@ -10365,13 +10365,13 @@
         <v>7</v>
       </c>
       <c r="C306" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="D306" t="s">
-        <v>405</v>
+        <v>330</v>
       </c>
       <c r="E306" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="F306" t="s">
         <v>16</v>
@@ -10385,10 +10385,10 @@
         <v>7</v>
       </c>
       <c r="C307" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D307" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E307" t="s">
         <v>331</v>
@@ -10685,10 +10685,10 @@
         <v>7</v>
       </c>
       <c r="C322" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="D322" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="E322" t="s">
         <v>411</v>
@@ -10725,13 +10725,13 @@
         <v>7</v>
       </c>
       <c r="C324" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="D324" t="s">
         <v>410</v>
       </c>
       <c r="E324" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="F324" t="s">
         <v>24</v>
@@ -10845,13 +10845,13 @@
         <v>7</v>
       </c>
       <c r="C330" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="D330" t="s">
         <v>410</v>
       </c>
       <c r="E330" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="F330" t="s">
         <v>19</v>
@@ -11088,10 +11088,10 @@
         <v>448</v>
       </c>
       <c r="D342" t="s">
+        <v>410</v>
+      </c>
+      <c r="E342" t="s">
         <v>449</v>
-      </c>
-      <c r="E342" t="s">
-        <v>411</v>
       </c>
       <c r="F342" t="s">
         <v>24</v>
@@ -11105,13 +11105,13 @@
         <v>108</v>
       </c>
       <c r="C343" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D343" t="s">
-        <v>451</v>
+        <v>410</v>
       </c>
       <c r="E343" t="s">
-        <v>411</v>
+        <v>449</v>
       </c>
       <c r="F343" t="s">
         <v>24</v>
@@ -11145,10 +11145,10 @@
         <v>108</v>
       </c>
       <c r="C345" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D345" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E345" t="s">
         <v>455</v>
@@ -11345,10 +11345,10 @@
         <v>7</v>
       </c>
       <c r="C355" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="D355" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="E355" t="s">
         <v>455</v>
@@ -11545,10 +11545,10 @@
         <v>7</v>
       </c>
       <c r="C365" t="s">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="D365" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="E365" t="s">
         <v>455</v>
@@ -11565,10 +11565,10 @@
         <v>7</v>
       </c>
       <c r="C366" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D366" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E366" t="s">
         <v>455</v>
@@ -11645,13 +11645,13 @@
         <v>7</v>
       </c>
       <c r="C370" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="D370" t="s">
         <v>454</v>
       </c>
       <c r="E370" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="F370" t="s">
         <v>19</v>
@@ -11668,10 +11668,10 @@
         <v>487</v>
       </c>
       <c r="D371" t="s">
+        <v>454</v>
+      </c>
+      <c r="E371" t="s">
         <v>488</v>
-      </c>
-      <c r="E371" t="s">
-        <v>455</v>
       </c>
       <c r="F371" t="s">
         <v>19</v>
@@ -11708,10 +11708,10 @@
         <v>487</v>
       </c>
       <c r="D373" t="s">
+        <v>454</v>
+      </c>
+      <c r="E373" t="s">
         <v>488</v>
-      </c>
-      <c r="E373" t="s">
-        <v>455</v>
       </c>
       <c r="F373" t="s">
         <v>19</v>
@@ -11825,10 +11825,10 @@
         <v>7</v>
       </c>
       <c r="C379" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="D379" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E379" t="s">
         <v>497</v>
@@ -11945,10 +11945,10 @@
         <v>7</v>
       </c>
       <c r="C385" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D385" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="E385" t="s">
         <v>497</v>
@@ -11965,10 +11965,10 @@
         <v>7</v>
       </c>
       <c r="C386" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="D386" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="E386" t="s">
         <v>497</v>
@@ -12008,10 +12008,10 @@
         <v>512</v>
       </c>
       <c r="D388" t="s">
+        <v>496</v>
+      </c>
+      <c r="E388" t="s">
         <v>513</v>
-      </c>
-      <c r="E388" t="s">
-        <v>497</v>
       </c>
       <c r="F388" t="s">
         <v>24</v>
@@ -12085,10 +12085,10 @@
         <v>7</v>
       </c>
       <c r="C392" t="s">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="D392" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="E392" t="s">
         <v>497</v>
@@ -12128,10 +12128,10 @@
         <v>521</v>
       </c>
       <c r="D394" t="s">
+        <v>496</v>
+      </c>
+      <c r="E394" t="s">
         <v>522</v>
-      </c>
-      <c r="E394" t="s">
-        <v>497</v>
       </c>
       <c r="F394" t="s">
         <v>24</v>
@@ -12168,10 +12168,10 @@
         <v>525</v>
       </c>
       <c r="D396" t="s">
+        <v>496</v>
+      </c>
+      <c r="E396" t="s">
         <v>526</v>
-      </c>
-      <c r="E396" t="s">
-        <v>497</v>
       </c>
       <c r="F396" t="s">
         <v>24</v>
@@ -12228,10 +12228,10 @@
         <v>530</v>
       </c>
       <c r="D399" t="s">
+        <v>496</v>
+      </c>
+      <c r="E399" t="s">
         <v>531</v>
-      </c>
-      <c r="E399" t="s">
-        <v>497</v>
       </c>
       <c r="F399" t="s">
         <v>24</v>
@@ -12348,10 +12348,10 @@
         <v>538</v>
       </c>
       <c r="D405" t="s">
+        <v>496</v>
+      </c>
+      <c r="E405" t="s">
         <v>539</v>
-      </c>
-      <c r="E405" t="s">
-        <v>497</v>
       </c>
       <c r="F405" t="s">
         <v>24</v>
@@ -12365,10 +12365,10 @@
         <v>7</v>
       </c>
       <c r="C406" t="s">
-        <v>495</v>
+        <v>541</v>
       </c>
       <c r="D406" t="s">
-        <v>541</v>
+        <v>496</v>
       </c>
       <c r="E406" t="s">
         <v>497</v>
@@ -12605,10 +12605,10 @@
         <v>7</v>
       </c>
       <c r="C418" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="D418" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E418" t="s">
         <v>554</v>
@@ -12645,10 +12645,10 @@
         <v>7</v>
       </c>
       <c r="C420" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="D420" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="E420" t="s">
         <v>554</v>
@@ -12788,10 +12788,10 @@
         <v>568</v>
       </c>
       <c r="D427" t="s">
+        <v>553</v>
+      </c>
+      <c r="E427" t="s">
         <v>569</v>
-      </c>
-      <c r="E427" t="s">
-        <v>554</v>
       </c>
       <c r="F427" t="s">
         <v>24</v>
@@ -12808,10 +12808,10 @@
         <v>571</v>
       </c>
       <c r="D428" t="s">
+        <v>553</v>
+      </c>
+      <c r="E428" t="s">
         <v>572</v>
-      </c>
-      <c r="E428" t="s">
-        <v>554</v>
       </c>
       <c r="F428" t="s">
         <v>24</v>
@@ -12885,10 +12885,10 @@
         <v>7</v>
       </c>
       <c r="C432" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
       <c r="D432" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="E432" t="s">
         <v>554</v>
@@ -12945,10 +12945,10 @@
         <v>7</v>
       </c>
       <c r="C435" t="s">
-        <v>552</v>
+        <v>581</v>
       </c>
       <c r="D435" t="s">
-        <v>581</v>
+        <v>553</v>
       </c>
       <c r="E435" t="s">
         <v>554</v>
@@ -12965,10 +12965,10 @@
         <v>7</v>
       </c>
       <c r="C436" t="s">
-        <v>552</v>
+        <v>583</v>
       </c>
       <c r="D436" t="s">
-        <v>583</v>
+        <v>553</v>
       </c>
       <c r="E436" t="s">
         <v>554</v>
@@ -13028,10 +13028,10 @@
         <v>587</v>
       </c>
       <c r="D439" t="s">
+        <v>553</v>
+      </c>
+      <c r="E439" t="s">
         <v>588</v>
-      </c>
-      <c r="E439" t="s">
-        <v>554</v>
       </c>
       <c r="F439" t="s">
         <v>24</v>
@@ -13308,10 +13308,10 @@
         <v>603</v>
       </c>
       <c r="D453" t="s">
+        <v>553</v>
+      </c>
+      <c r="E453" t="s">
         <v>604</v>
-      </c>
-      <c r="E453" t="s">
-        <v>554</v>
       </c>
       <c r="F453" t="s">
         <v>19</v>
@@ -13508,10 +13508,10 @@
         <v>619</v>
       </c>
       <c r="D463" t="s">
+        <v>607</v>
+      </c>
+      <c r="E463" t="s">
         <v>620</v>
-      </c>
-      <c r="E463" t="s">
-        <v>608</v>
       </c>
       <c r="F463" t="s">
         <v>24</v>
@@ -13525,10 +13525,10 @@
         <v>7</v>
       </c>
       <c r="C464" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="D464" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="E464" t="s">
         <v>608</v>
@@ -13545,13 +13545,13 @@
         <v>7</v>
       </c>
       <c r="C465" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="D465" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="E465" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="F465" t="s">
         <v>24</v>
@@ -13568,10 +13568,10 @@
         <v>626</v>
       </c>
       <c r="D466" t="s">
+        <v>607</v>
+      </c>
+      <c r="E466" t="s">
         <v>627</v>
-      </c>
-      <c r="E466" t="s">
-        <v>608</v>
       </c>
       <c r="F466" t="s">
         <v>24</v>
@@ -13608,10 +13608,10 @@
         <v>630</v>
       </c>
       <c r="D468" t="s">
+        <v>607</v>
+      </c>
+      <c r="E468" t="s">
         <v>631</v>
-      </c>
-      <c r="E468" t="s">
-        <v>608</v>
       </c>
       <c r="F468" t="s">
         <v>24</v>
@@ -13685,13 +13685,13 @@
         <v>7</v>
       </c>
       <c r="C472" t="s">
-        <v>619</v>
+        <v>636</v>
       </c>
       <c r="D472" t="s">
-        <v>636</v>
+        <v>607</v>
       </c>
       <c r="E472" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="F472" t="s">
         <v>24</v>
@@ -13985,10 +13985,10 @@
         <v>7</v>
       </c>
       <c r="C487" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D487" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E487" t="s">
         <v>653</v>
@@ -14065,13 +14065,13 @@
         <v>108</v>
       </c>
       <c r="C491" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="D491" t="s">
         <v>652</v>
       </c>
       <c r="E491" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="F491" t="s">
         <v>19</v>
@@ -14105,13 +14105,13 @@
         <v>7</v>
       </c>
       <c r="C493" t="s">
+        <v>630</v>
+      </c>
+      <c r="D493" t="s">
+        <v>652</v>
+      </c>
+      <c r="E493" t="s">
         <v>663</v>
-      </c>
-      <c r="D493" t="s">
-        <v>631</v>
-      </c>
-      <c r="E493" t="s">
-        <v>653</v>
       </c>
       <c r="F493" t="s">
         <v>13</v>
@@ -14125,13 +14125,13 @@
         <v>108</v>
       </c>
       <c r="C494" t="s">
+        <v>630</v>
+      </c>
+      <c r="D494" t="s">
+        <v>652</v>
+      </c>
+      <c r="E494" t="s">
         <v>663</v>
-      </c>
-      <c r="D494" t="s">
-        <v>631</v>
-      </c>
-      <c r="E494" t="s">
-        <v>653</v>
       </c>
       <c r="F494" t="s">
         <v>16</v>
@@ -14185,10 +14185,10 @@
         <v>7</v>
       </c>
       <c r="C497" t="s">
-        <v>651</v>
+        <v>668</v>
       </c>
       <c r="D497" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="E497" t="s">
         <v>653</v>
@@ -14265,10 +14265,10 @@
         <v>108</v>
       </c>
       <c r="C501" t="s">
-        <v>651</v>
+        <v>673</v>
       </c>
       <c r="D501" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
       <c r="E501" t="s">
         <v>653</v>
@@ -14368,10 +14368,10 @@
         <v>679</v>
       </c>
       <c r="D506" t="s">
+        <v>652</v>
+      </c>
+      <c r="E506" t="s">
         <v>680</v>
-      </c>
-      <c r="E506" t="s">
-        <v>653</v>
       </c>
       <c r="F506" t="s">
         <v>24</v>
@@ -14388,10 +14388,10 @@
         <v>682</v>
       </c>
       <c r="D507" t="s">
+        <v>652</v>
+      </c>
+      <c r="E507" t="s">
         <v>683</v>
-      </c>
-      <c r="E507" t="s">
-        <v>653</v>
       </c>
       <c r="F507" t="s">
         <v>609</v>
@@ -14405,13 +14405,13 @@
         <v>108</v>
       </c>
       <c r="C508" t="s">
+        <v>682</v>
+      </c>
+      <c r="D508" t="s">
+        <v>652</v>
+      </c>
+      <c r="E508" t="s">
         <v>685</v>
-      </c>
-      <c r="D508" t="s">
-        <v>683</v>
-      </c>
-      <c r="E508" t="s">
-        <v>653</v>
       </c>
       <c r="F508" t="s">
         <v>19</v>
@@ -14428,10 +14428,10 @@
         <v>687</v>
       </c>
       <c r="D509" t="s">
+        <v>652</v>
+      </c>
+      <c r="E509" t="s">
         <v>688</v>
-      </c>
-      <c r="E509" t="s">
-        <v>653</v>
       </c>
       <c r="F509" t="s">
         <v>24</v>
@@ -14465,10 +14465,10 @@
         <v>7</v>
       </c>
       <c r="C511" t="s">
-        <v>651</v>
+        <v>691</v>
       </c>
       <c r="D511" t="s">
-        <v>691</v>
+        <v>652</v>
       </c>
       <c r="E511" t="s">
         <v>653</v>
@@ -14485,13 +14485,13 @@
         <v>108</v>
       </c>
       <c r="C512" t="s">
-        <v>693</v>
+        <v>651</v>
       </c>
       <c r="D512" t="s">
         <v>652</v>
       </c>
       <c r="E512" t="s">
-        <v>653</v>
+        <v>693</v>
       </c>
       <c r="F512" t="s">
         <v>19</v>
@@ -14645,10 +14645,10 @@
         <v>108</v>
       </c>
       <c r="C520" t="s">
-        <v>651</v>
+        <v>702</v>
       </c>
       <c r="D520" t="s">
-        <v>702</v>
+        <v>652</v>
       </c>
       <c r="E520" t="s">
         <v>653</v>
@@ -14665,10 +14665,10 @@
         <v>108</v>
       </c>
       <c r="C521" t="s">
-        <v>651</v>
+        <v>704</v>
       </c>
       <c r="D521" t="s">
-        <v>704</v>
+        <v>652</v>
       </c>
       <c r="E521" t="s">
         <v>653</v>
@@ -14685,10 +14685,10 @@
         <v>7</v>
       </c>
       <c r="C522" t="s">
-        <v>651</v>
+        <v>706</v>
       </c>
       <c r="D522" t="s">
-        <v>706</v>
+        <v>652</v>
       </c>
       <c r="E522" t="s">
         <v>653</v>
@@ -14725,10 +14725,10 @@
         <v>7</v>
       </c>
       <c r="C524" t="s">
+        <v>655</v>
+      </c>
+      <c r="D524" t="s">
         <v>709</v>
-      </c>
-      <c r="D524" t="s">
-        <v>655</v>
       </c>
       <c r="E524" t="s">
         <v>710</v>
@@ -14745,10 +14745,10 @@
         <v>7</v>
       </c>
       <c r="C525" t="s">
+        <v>655</v>
+      </c>
+      <c r="D525" t="s">
         <v>709</v>
-      </c>
-      <c r="D525" t="s">
-        <v>655</v>
       </c>
       <c r="E525" t="s">
         <v>710</v>
@@ -14765,10 +14765,10 @@
         <v>7</v>
       </c>
       <c r="C526" t="s">
+        <v>655</v>
+      </c>
+      <c r="D526" t="s">
         <v>709</v>
-      </c>
-      <c r="D526" t="s">
-        <v>655</v>
       </c>
       <c r="E526" t="s">
         <v>710</v>
@@ -14785,10 +14785,10 @@
         <v>7</v>
       </c>
       <c r="C527" t="s">
+        <v>655</v>
+      </c>
+      <c r="D527" t="s">
         <v>709</v>
-      </c>
-      <c r="D527" t="s">
-        <v>655</v>
       </c>
       <c r="E527" t="s">
         <v>710</v>
@@ -14805,10 +14805,10 @@
         <v>7</v>
       </c>
       <c r="C528" t="s">
+        <v>716</v>
+      </c>
+      <c r="D528" t="s">
         <v>709</v>
-      </c>
-      <c r="D528" t="s">
-        <v>716</v>
       </c>
       <c r="E528" t="s">
         <v>710</v>
@@ -14825,13 +14825,13 @@
         <v>7</v>
       </c>
       <c r="C529" t="s">
+        <v>655</v>
+      </c>
+      <c r="D529" t="s">
+        <v>709</v>
+      </c>
+      <c r="E529" t="s">
         <v>718</v>
-      </c>
-      <c r="D529" t="s">
-        <v>655</v>
-      </c>
-      <c r="E529" t="s">
-        <v>710</v>
       </c>
       <c r="F529" t="s">
         <v>711</v>
@@ -14845,10 +14845,10 @@
         <v>7</v>
       </c>
       <c r="C530" t="s">
+        <v>655</v>
+      </c>
+      <c r="D530" t="s">
         <v>709</v>
-      </c>
-      <c r="D530" t="s">
-        <v>655</v>
       </c>
       <c r="E530" t="s">
         <v>710</v>
@@ -14865,10 +14865,10 @@
         <v>7</v>
       </c>
       <c r="C531" t="s">
+        <v>655</v>
+      </c>
+      <c r="D531" t="s">
         <v>709</v>
-      </c>
-      <c r="D531" t="s">
-        <v>655</v>
       </c>
       <c r="E531" t="s">
         <v>710</v>
@@ -14885,10 +14885,10 @@
         <v>7</v>
       </c>
       <c r="C532" t="s">
+        <v>655</v>
+      </c>
+      <c r="D532" t="s">
         <v>709</v>
-      </c>
-      <c r="D532" t="s">
-        <v>655</v>
       </c>
       <c r="E532" t="s">
         <v>710</v>
@@ -14905,10 +14905,10 @@
         <v>7</v>
       </c>
       <c r="C533" t="s">
+        <v>655</v>
+      </c>
+      <c r="D533" t="s">
         <v>709</v>
-      </c>
-      <c r="D533" t="s">
-        <v>655</v>
       </c>
       <c r="E533" t="s">
         <v>710</v>
@@ -14925,10 +14925,10 @@
         <v>7</v>
       </c>
       <c r="C534" t="s">
+        <v>655</v>
+      </c>
+      <c r="D534" t="s">
         <v>709</v>
-      </c>
-      <c r="D534" t="s">
-        <v>655</v>
       </c>
       <c r="E534" t="s">
         <v>710</v>
@@ -14945,10 +14945,10 @@
         <v>7</v>
       </c>
       <c r="C535" t="s">
+        <v>725</v>
+      </c>
+      <c r="D535" t="s">
         <v>709</v>
-      </c>
-      <c r="D535" t="s">
-        <v>725</v>
       </c>
       <c r="E535" t="s">
         <v>710</v>
@@ -14965,10 +14965,10 @@
         <v>7</v>
       </c>
       <c r="C536" t="s">
+        <v>727</v>
+      </c>
+      <c r="D536" t="s">
         <v>709</v>
-      </c>
-      <c r="D536" t="s">
-        <v>727</v>
       </c>
       <c r="E536" t="s">
         <v>710</v>
@@ -14985,10 +14985,10 @@
         <v>7</v>
       </c>
       <c r="C537" t="s">
+        <v>655</v>
+      </c>
+      <c r="D537" t="s">
         <v>709</v>
-      </c>
-      <c r="D537" t="s">
-        <v>655</v>
       </c>
       <c r="E537" t="s">
         <v>710</v>
@@ -15005,10 +15005,10 @@
         <v>7</v>
       </c>
       <c r="C538" t="s">
+        <v>655</v>
+      </c>
+      <c r="D538" t="s">
         <v>709</v>
-      </c>
-      <c r="D538" t="s">
-        <v>655</v>
       </c>
       <c r="E538" t="s">
         <v>710</v>
@@ -15025,13 +15025,13 @@
         <v>7</v>
       </c>
       <c r="C539" t="s">
-        <v>687</v>
+        <v>655</v>
       </c>
       <c r="D539" t="s">
-        <v>655</v>
+        <v>709</v>
       </c>
       <c r="E539" t="s">
-        <v>710</v>
+        <v>688</v>
       </c>
       <c r="F539" t="s">
         <v>711</v>
@@ -15045,10 +15045,10 @@
         <v>7</v>
       </c>
       <c r="C540" t="s">
+        <v>655</v>
+      </c>
+      <c r="D540" t="s">
         <v>709</v>
-      </c>
-      <c r="D540" t="s">
-        <v>655</v>
       </c>
       <c r="E540" t="s">
         <v>710</v>
@@ -15065,10 +15065,10 @@
         <v>7</v>
       </c>
       <c r="C541" t="s">
+        <v>655</v>
+      </c>
+      <c r="D541" t="s">
         <v>709</v>
-      </c>
-      <c r="D541" t="s">
-        <v>655</v>
       </c>
       <c r="E541" t="s">
         <v>710</v>
@@ -15085,10 +15085,10 @@
         <v>7</v>
       </c>
       <c r="C542" t="s">
+        <v>655</v>
+      </c>
+      <c r="D542" t="s">
         <v>709</v>
-      </c>
-      <c r="D542" t="s">
-        <v>655</v>
       </c>
       <c r="E542" t="s">
         <v>710</v>
@@ -15105,10 +15105,10 @@
         <v>7</v>
       </c>
       <c r="C543" t="s">
+        <v>655</v>
+      </c>
+      <c r="D543" t="s">
         <v>709</v>
-      </c>
-      <c r="D543" t="s">
-        <v>655</v>
       </c>
       <c r="E543" t="s">
         <v>710</v>
@@ -15125,13 +15125,13 @@
         <v>7</v>
       </c>
       <c r="C544" t="s">
+        <v>655</v>
+      </c>
+      <c r="D544" t="s">
+        <v>709</v>
+      </c>
+      <c r="E544" t="s">
         <v>736</v>
-      </c>
-      <c r="D544" t="s">
-        <v>655</v>
-      </c>
-      <c r="E544" t="s">
-        <v>710</v>
       </c>
       <c r="F544" t="s">
         <v>13</v>
@@ -15145,10 +15145,10 @@
         <v>7</v>
       </c>
       <c r="C545" t="s">
+        <v>655</v>
+      </c>
+      <c r="D545" t="s">
         <v>709</v>
-      </c>
-      <c r="D545" t="s">
-        <v>655</v>
       </c>
       <c r="E545" t="s">
         <v>710</v>
@@ -15165,10 +15165,10 @@
         <v>7</v>
       </c>
       <c r="C546" t="s">
+        <v>655</v>
+      </c>
+      <c r="D546" t="s">
         <v>709</v>
-      </c>
-      <c r="D546" t="s">
-        <v>655</v>
       </c>
       <c r="E546" t="s">
         <v>710</v>
@@ -15205,10 +15205,10 @@
         <v>7</v>
       </c>
       <c r="C548" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="D548" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E548" t="s">
         <v>742</v>
@@ -15225,10 +15225,10 @@
         <v>7</v>
       </c>
       <c r="C549" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="D549" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="E549" t="s">
         <v>742</v>
@@ -15305,13 +15305,13 @@
         <v>7</v>
       </c>
       <c r="C553" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="D553" t="s">
         <v>741</v>
       </c>
       <c r="E553" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="F553" t="s">
         <v>711</v>
@@ -15388,10 +15388,10 @@
         <v>756</v>
       </c>
       <c r="D557" t="s">
+        <v>741</v>
+      </c>
+      <c r="E557" t="s">
         <v>757</v>
-      </c>
-      <c r="E557" t="s">
-        <v>742</v>
       </c>
       <c r="F557" t="s">
         <v>24</v>
@@ -15425,10 +15425,10 @@
         <v>7</v>
       </c>
       <c r="C559" t="s">
-        <v>740</v>
+        <v>760</v>
       </c>
       <c r="D559" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="E559" t="s">
         <v>742</v>
@@ -15445,10 +15445,10 @@
         <v>7</v>
       </c>
       <c r="C560" t="s">
-        <v>740</v>
+        <v>760</v>
       </c>
       <c r="D560" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="E560" t="s">
         <v>742</v>
@@ -15485,13 +15485,13 @@
         <v>7</v>
       </c>
       <c r="C562" t="s">
-        <v>764</v>
+        <v>740</v>
       </c>
       <c r="D562" t="s">
         <v>741</v>
       </c>
       <c r="E562" t="s">
-        <v>742</v>
+        <v>764</v>
       </c>
       <c r="F562" t="s">
         <v>16</v>
@@ -15608,10 +15608,10 @@
         <v>771</v>
       </c>
       <c r="D568" t="s">
+        <v>741</v>
+      </c>
+      <c r="E568" t="s">
         <v>772</v>
-      </c>
-      <c r="E568" t="s">
-        <v>742</v>
       </c>
       <c r="F568" t="s">
         <v>711</v>
@@ -15685,13 +15685,13 @@
         <v>7</v>
       </c>
       <c r="C572" t="s">
-        <v>709</v>
+        <v>777</v>
       </c>
       <c r="D572" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E572" t="s">
-        <v>778</v>
+        <v>710</v>
       </c>
       <c r="F572" t="s">
         <v>711</v>
@@ -15705,13 +15705,13 @@
         <v>7</v>
       </c>
       <c r="C573" t="s">
+        <v>777</v>
+      </c>
+      <c r="D573" t="s">
+        <v>778</v>
+      </c>
+      <c r="E573" t="s">
         <v>780</v>
-      </c>
-      <c r="D573" t="s">
-        <v>777</v>
-      </c>
-      <c r="E573" t="s">
-        <v>778</v>
       </c>
       <c r="F573" t="s">
         <v>711</v>
@@ -15725,13 +15725,13 @@
         <v>7</v>
       </c>
       <c r="C574" t="s">
+        <v>777</v>
+      </c>
+      <c r="D574" t="s">
+        <v>778</v>
+      </c>
+      <c r="E574" t="s">
         <v>780</v>
-      </c>
-      <c r="D574" t="s">
-        <v>777</v>
-      </c>
-      <c r="E574" t="s">
-        <v>778</v>
       </c>
       <c r="F574" t="s">
         <v>711</v>
@@ -15745,13 +15745,13 @@
         <v>7</v>
       </c>
       <c r="C575" t="s">
+        <v>777</v>
+      </c>
+      <c r="D575" t="s">
+        <v>778</v>
+      </c>
+      <c r="E575" t="s">
         <v>780</v>
-      </c>
-      <c r="D575" t="s">
-        <v>777</v>
-      </c>
-      <c r="E575" t="s">
-        <v>778</v>
       </c>
       <c r="F575" t="s">
         <v>711</v>
@@ -15765,13 +15765,13 @@
         <v>7</v>
       </c>
       <c r="C576" t="s">
-        <v>740</v>
+        <v>777</v>
       </c>
       <c r="D576" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E576" t="s">
-        <v>778</v>
+        <v>742</v>
       </c>
       <c r="F576" t="s">
         <v>711</v>
@@ -15785,13 +15785,13 @@
         <v>7</v>
       </c>
       <c r="C577" t="s">
+        <v>785</v>
+      </c>
+      <c r="D577" t="s">
+        <v>778</v>
+      </c>
+      <c r="E577" t="s">
         <v>780</v>
-      </c>
-      <c r="D577" t="s">
-        <v>785</v>
-      </c>
-      <c r="E577" t="s">
-        <v>778</v>
       </c>
       <c r="F577" t="s">
         <v>711</v>
@@ -15808,10 +15808,10 @@
         <v>787</v>
       </c>
       <c r="D578" t="s">
+        <v>778</v>
+      </c>
+      <c r="E578" t="s">
         <v>788</v>
-      </c>
-      <c r="E578" t="s">
-        <v>778</v>
       </c>
       <c r="F578" t="s">
         <v>24</v>
@@ -15825,13 +15825,13 @@
         <v>7</v>
       </c>
       <c r="C579" t="s">
+        <v>790</v>
+      </c>
+      <c r="D579" t="s">
+        <v>778</v>
+      </c>
+      <c r="E579" t="s">
         <v>780</v>
-      </c>
-      <c r="D579" t="s">
-        <v>790</v>
-      </c>
-      <c r="E579" t="s">
-        <v>778</v>
       </c>
       <c r="F579" t="s">
         <v>711</v>
@@ -15845,13 +15845,13 @@
         <v>7</v>
       </c>
       <c r="C580" t="s">
+        <v>792</v>
+      </c>
+      <c r="D580" t="s">
+        <v>778</v>
+      </c>
+      <c r="E580" t="s">
         <v>780</v>
-      </c>
-      <c r="D580" t="s">
-        <v>792</v>
-      </c>
-      <c r="E580" t="s">
-        <v>778</v>
       </c>
       <c r="F580" t="s">
         <v>16</v>
@@ -15865,13 +15865,13 @@
         <v>7</v>
       </c>
       <c r="C581" t="s">
+        <v>777</v>
+      </c>
+      <c r="D581" t="s">
+        <v>778</v>
+      </c>
+      <c r="E581" t="s">
         <v>780</v>
-      </c>
-      <c r="D581" t="s">
-        <v>777</v>
-      </c>
-      <c r="E581" t="s">
-        <v>778</v>
       </c>
       <c r="F581" t="s">
         <v>16</v>
@@ -15888,10 +15888,10 @@
         <v>795</v>
       </c>
       <c r="D582" t="s">
+        <v>778</v>
+      </c>
+      <c r="E582" t="s">
         <v>796</v>
-      </c>
-      <c r="E582" t="s">
-        <v>778</v>
       </c>
       <c r="F582" t="s">
         <v>24</v>
@@ -15908,10 +15908,10 @@
         <v>798</v>
       </c>
       <c r="D583" t="s">
+        <v>778</v>
+      </c>
+      <c r="E583" t="s">
         <v>799</v>
-      </c>
-      <c r="E583" t="s">
-        <v>778</v>
       </c>
       <c r="F583" t="s">
         <v>24</v>
@@ -15925,13 +15925,13 @@
         <v>7</v>
       </c>
       <c r="C584" t="s">
+        <v>777</v>
+      </c>
+      <c r="D584" t="s">
+        <v>778</v>
+      </c>
+      <c r="E584" t="s">
         <v>780</v>
-      </c>
-      <c r="D584" t="s">
-        <v>777</v>
-      </c>
-      <c r="E584" t="s">
-        <v>778</v>
       </c>
       <c r="F584" t="s">
         <v>711</v>
@@ -15948,10 +15948,10 @@
         <v>802</v>
       </c>
       <c r="D585" t="s">
+        <v>778</v>
+      </c>
+      <c r="E585" t="s">
         <v>803</v>
-      </c>
-      <c r="E585" t="s">
-        <v>778</v>
       </c>
       <c r="F585" t="s">
         <v>24</v>
@@ -15965,13 +15965,13 @@
         <v>7</v>
       </c>
       <c r="C586" t="s">
+        <v>805</v>
+      </c>
+      <c r="D586" t="s">
+        <v>778</v>
+      </c>
+      <c r="E586" t="s">
         <v>780</v>
-      </c>
-      <c r="D586" t="s">
-        <v>805</v>
-      </c>
-      <c r="E586" t="s">
-        <v>778</v>
       </c>
       <c r="F586" t="s">
         <v>13</v>
@@ -15985,13 +15985,13 @@
         <v>7</v>
       </c>
       <c r="C587" t="s">
+        <v>807</v>
+      </c>
+      <c r="D587" t="s">
+        <v>778</v>
+      </c>
+      <c r="E587" t="s">
         <v>780</v>
-      </c>
-      <c r="D587" t="s">
-        <v>807</v>
-      </c>
-      <c r="E587" t="s">
-        <v>778</v>
       </c>
       <c r="F587" t="s">
         <v>711</v>
@@ -16005,13 +16005,13 @@
         <v>7</v>
       </c>
       <c r="C588" t="s">
+        <v>777</v>
+      </c>
+      <c r="D588" t="s">
+        <v>778</v>
+      </c>
+      <c r="E588" t="s">
         <v>780</v>
-      </c>
-      <c r="D588" t="s">
-        <v>777</v>
-      </c>
-      <c r="E588" t="s">
-        <v>778</v>
       </c>
       <c r="F588" t="s">
         <v>711</v>
@@ -16025,13 +16025,13 @@
         <v>7</v>
       </c>
       <c r="C589" t="s">
+        <v>777</v>
+      </c>
+      <c r="D589" t="s">
+        <v>778</v>
+      </c>
+      <c r="E589" t="s">
         <v>780</v>
-      </c>
-      <c r="D589" t="s">
-        <v>777</v>
-      </c>
-      <c r="E589" t="s">
-        <v>778</v>
       </c>
       <c r="F589" t="s">
         <v>24</v>
@@ -16045,13 +16045,13 @@
         <v>7</v>
       </c>
       <c r="C590" t="s">
+        <v>777</v>
+      </c>
+      <c r="D590" t="s">
+        <v>778</v>
+      </c>
+      <c r="E590" t="s">
         <v>780</v>
-      </c>
-      <c r="D590" t="s">
-        <v>777</v>
-      </c>
-      <c r="E590" t="s">
-        <v>778</v>
       </c>
       <c r="F590" t="s">
         <v>16</v>
@@ -16065,13 +16065,13 @@
         <v>7</v>
       </c>
       <c r="C591" t="s">
+        <v>777</v>
+      </c>
+      <c r="D591" t="s">
+        <v>778</v>
+      </c>
+      <c r="E591" t="s">
         <v>812</v>
-      </c>
-      <c r="D591" t="s">
-        <v>777</v>
-      </c>
-      <c r="E591" t="s">
-        <v>778</v>
       </c>
       <c r="F591" t="s">
         <v>711</v>
@@ -16085,13 +16085,13 @@
         <v>7</v>
       </c>
       <c r="C592" t="s">
+        <v>777</v>
+      </c>
+      <c r="D592" t="s">
+        <v>778</v>
+      </c>
+      <c r="E592" t="s">
         <v>780</v>
-      </c>
-      <c r="D592" t="s">
-        <v>777</v>
-      </c>
-      <c r="E592" t="s">
-        <v>778</v>
       </c>
       <c r="F592" t="s">
         <v>13</v>
@@ -16105,13 +16105,13 @@
         <v>7</v>
       </c>
       <c r="C593" t="s">
+        <v>777</v>
+      </c>
+      <c r="D593" t="s">
+        <v>778</v>
+      </c>
+      <c r="E593" t="s">
         <v>780</v>
-      </c>
-      <c r="D593" t="s">
-        <v>777</v>
-      </c>
-      <c r="E593" t="s">
-        <v>778</v>
       </c>
       <c r="F593" t="s">
         <v>711</v>
@@ -16125,13 +16125,13 @@
         <v>7</v>
       </c>
       <c r="C594" t="s">
+        <v>777</v>
+      </c>
+      <c r="D594" t="s">
+        <v>778</v>
+      </c>
+      <c r="E594" t="s">
         <v>780</v>
-      </c>
-      <c r="D594" t="s">
-        <v>777</v>
-      </c>
-      <c r="E594" t="s">
-        <v>778</v>
       </c>
       <c r="F594" t="s">
         <v>711</v>
@@ -16145,13 +16145,13 @@
         <v>7</v>
       </c>
       <c r="C595" t="s">
+        <v>777</v>
+      </c>
+      <c r="D595" t="s">
+        <v>778</v>
+      </c>
+      <c r="E595" t="s">
         <v>780</v>
-      </c>
-      <c r="D595" t="s">
-        <v>777</v>
-      </c>
-      <c r="E595" t="s">
-        <v>778</v>
       </c>
       <c r="F595" t="s">
         <v>711</v>
@@ -16188,10 +16188,10 @@
         <v>822</v>
       </c>
       <c r="D597" t="s">
+        <v>819</v>
+      </c>
+      <c r="E597" t="s">
         <v>823</v>
-      </c>
-      <c r="E597" t="s">
-        <v>820</v>
       </c>
       <c r="F597" t="s">
         <v>16</v>
@@ -16268,10 +16268,10 @@
         <v>828</v>
       </c>
       <c r="D601" t="s">
+        <v>819</v>
+      </c>
+      <c r="E601" t="s">
         <v>829</v>
-      </c>
-      <c r="E601" t="s">
-        <v>820</v>
       </c>
       <c r="F601" t="s">
         <v>24</v>
@@ -16288,10 +16288,10 @@
         <v>831</v>
       </c>
       <c r="D602" t="s">
+        <v>819</v>
+      </c>
+      <c r="E602" t="s">
         <v>832</v>
-      </c>
-      <c r="E602" t="s">
-        <v>820</v>
       </c>
       <c r="F602" t="s">
         <v>24</v>
@@ -16308,10 +16308,10 @@
         <v>834</v>
       </c>
       <c r="D603" t="s">
+        <v>819</v>
+      </c>
+      <c r="E603" t="s">
         <v>835</v>
-      </c>
-      <c r="E603" t="s">
-        <v>820</v>
       </c>
       <c r="F603" t="s">
         <v>711</v>
@@ -16325,10 +16325,10 @@
         <v>7</v>
       </c>
       <c r="C604" t="s">
-        <v>818</v>
+        <v>837</v>
       </c>
       <c r="D604" t="s">
-        <v>837</v>
+        <v>819</v>
       </c>
       <c r="E604" t="s">
         <v>820</v>
@@ -16388,10 +16388,10 @@
         <v>841</v>
       </c>
       <c r="D607" t="s">
+        <v>819</v>
+      </c>
+      <c r="E607" t="s">
         <v>842</v>
-      </c>
-      <c r="E607" t="s">
-        <v>820</v>
       </c>
       <c r="F607" t="s">
         <v>24</v>
@@ -16405,13 +16405,13 @@
         <v>7</v>
       </c>
       <c r="C608" t="s">
+        <v>844</v>
+      </c>
+      <c r="D608" t="s">
+        <v>819</v>
+      </c>
+      <c r="E608" t="s">
         <v>805</v>
-      </c>
-      <c r="D608" t="s">
-        <v>844</v>
-      </c>
-      <c r="E608" t="s">
-        <v>820</v>
       </c>
       <c r="F608" t="s">
         <v>711</v>
@@ -16445,13 +16445,13 @@
         <v>7</v>
       </c>
       <c r="C610" t="s">
+        <v>822</v>
+      </c>
+      <c r="D610" t="s">
+        <v>819</v>
+      </c>
+      <c r="E610" t="s">
         <v>847</v>
-      </c>
-      <c r="D610" t="s">
-        <v>823</v>
-      </c>
-      <c r="E610" t="s">
-        <v>820</v>
       </c>
       <c r="F610" t="s">
         <v>24</v>
@@ -16465,10 +16465,10 @@
         <v>7</v>
       </c>
       <c r="C611" t="s">
-        <v>818</v>
+        <v>849</v>
       </c>
       <c r="D611" t="s">
-        <v>849</v>
+        <v>819</v>
       </c>
       <c r="E611" t="s">
         <v>820</v>
@@ -16505,10 +16505,10 @@
         <v>7</v>
       </c>
       <c r="C613" t="s">
-        <v>818</v>
+        <v>852</v>
       </c>
       <c r="D613" t="s">
-        <v>852</v>
+        <v>819</v>
       </c>
       <c r="E613" t="s">
         <v>820</v>
@@ -16708,10 +16708,10 @@
         <v>866</v>
       </c>
       <c r="D623" t="s">
+        <v>863</v>
+      </c>
+      <c r="E623" t="s">
         <v>867</v>
-      </c>
-      <c r="E623" t="s">
-        <v>864</v>
       </c>
       <c r="F623" t="s">
         <v>24</v>
@@ -16785,13 +16785,13 @@
         <v>7</v>
       </c>
       <c r="C627" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="D627" t="s">
         <v>863</v>
       </c>
       <c r="E627" t="s">
-        <v>864</v>
+        <v>872</v>
       </c>
       <c r="F627" t="s">
         <v>711</v>
@@ -16805,10 +16805,10 @@
         <v>7</v>
       </c>
       <c r="C628" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
       <c r="D628" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="E628" t="s">
         <v>864</v>
@@ -16865,13 +16865,13 @@
         <v>7</v>
       </c>
       <c r="C631" t="s">
+        <v>874</v>
+      </c>
+      <c r="D631" t="s">
+        <v>863</v>
+      </c>
+      <c r="E631" t="s">
         <v>878</v>
-      </c>
-      <c r="D631" t="s">
-        <v>874</v>
-      </c>
-      <c r="E631" t="s">
-        <v>864</v>
       </c>
       <c r="F631" t="s">
         <v>24</v>
@@ -16888,10 +16888,10 @@
         <v>880</v>
       </c>
       <c r="D632" t="s">
+        <v>863</v>
+      </c>
+      <c r="E632" t="s">
         <v>881</v>
-      </c>
-      <c r="E632" t="s">
-        <v>864</v>
       </c>
       <c r="F632" t="s">
         <v>24</v>
@@ -16908,10 +16908,10 @@
         <v>883</v>
       </c>
       <c r="D633" t="s">
+        <v>863</v>
+      </c>
+      <c r="E633" t="s">
         <v>884</v>
-      </c>
-      <c r="E633" t="s">
-        <v>864</v>
       </c>
       <c r="F633" t="s">
         <v>24</v>
@@ -16945,10 +16945,10 @@
         <v>7</v>
       </c>
       <c r="C635" t="s">
-        <v>862</v>
+        <v>887</v>
       </c>
       <c r="D635" t="s">
-        <v>887</v>
+        <v>863</v>
       </c>
       <c r="E635" t="s">
         <v>864</v>
@@ -16968,10 +16968,10 @@
         <v>889</v>
       </c>
       <c r="D636" t="s">
+        <v>863</v>
+      </c>
+      <c r="E636" t="s">
         <v>890</v>
-      </c>
-      <c r="E636" t="s">
-        <v>864</v>
       </c>
       <c r="F636" t="s">
         <v>24</v>
@@ -17048,10 +17048,10 @@
         <v>895</v>
       </c>
       <c r="D640" t="s">
+        <v>863</v>
+      </c>
+      <c r="E640" t="s">
         <v>896</v>
-      </c>
-      <c r="E640" t="s">
-        <v>864</v>
       </c>
       <c r="F640" t="s">
         <v>16</v>
@@ -17065,10 +17065,10 @@
         <v>7</v>
       </c>
       <c r="C641" t="s">
-        <v>862</v>
+        <v>898</v>
       </c>
       <c r="D641" t="s">
-        <v>898</v>
+        <v>863</v>
       </c>
       <c r="E641" t="s">
         <v>864</v>
@@ -17085,10 +17085,10 @@
         <v>7</v>
       </c>
       <c r="C642" t="s">
-        <v>862</v>
+        <v>900</v>
       </c>
       <c r="D642" t="s">
-        <v>900</v>
+        <v>863</v>
       </c>
       <c r="E642" t="s">
         <v>864</v>
@@ -17145,10 +17145,10 @@
         <v>7</v>
       </c>
       <c r="C645" t="s">
-        <v>862</v>
+        <v>904</v>
       </c>
       <c r="D645" t="s">
-        <v>904</v>
+        <v>863</v>
       </c>
       <c r="E645" t="s">
         <v>864</v>
@@ -17228,10 +17228,10 @@
         <v>912</v>
       </c>
       <c r="D649" t="s">
+        <v>909</v>
+      </c>
+      <c r="E649" t="s">
         <v>913</v>
-      </c>
-      <c r="E649" t="s">
-        <v>910</v>
       </c>
       <c r="F649" t="s">
         <v>16</v>
@@ -17245,13 +17245,13 @@
         <v>7</v>
       </c>
       <c r="C650" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="D650" t="s">
         <v>909</v>
       </c>
       <c r="E650" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="F650" t="s">
         <v>24</v>
@@ -17268,10 +17268,10 @@
         <v>917</v>
       </c>
       <c r="D651" t="s">
+        <v>909</v>
+      </c>
+      <c r="E651" t="s">
         <v>918</v>
-      </c>
-      <c r="E651" t="s">
-        <v>910</v>
       </c>
       <c r="F651" t="s">
         <v>711</v>
@@ -17288,10 +17288,10 @@
         <v>917</v>
       </c>
       <c r="D652" t="s">
+        <v>909</v>
+      </c>
+      <c r="E652" t="s">
         <v>918</v>
-      </c>
-      <c r="E652" t="s">
-        <v>910</v>
       </c>
       <c r="F652" t="s">
         <v>711</v>
@@ -17305,13 +17305,13 @@
         <v>7</v>
       </c>
       <c r="C653" t="s">
-        <v>862</v>
+        <v>900</v>
       </c>
       <c r="D653" t="s">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="E653" t="s">
-        <v>910</v>
+        <v>864</v>
       </c>
       <c r="F653" t="s">
         <v>16</v>
@@ -17328,10 +17328,10 @@
         <v>917</v>
       </c>
       <c r="D654" t="s">
+        <v>909</v>
+      </c>
+      <c r="E654" t="s">
         <v>918</v>
-      </c>
-      <c r="E654" t="s">
-        <v>910</v>
       </c>
       <c r="F654" t="s">
         <v>711</v>
@@ -17348,10 +17348,10 @@
         <v>917</v>
       </c>
       <c r="D655" t="s">
+        <v>909</v>
+      </c>
+      <c r="E655" t="s">
         <v>918</v>
-      </c>
-      <c r="E655" t="s">
-        <v>910</v>
       </c>
       <c r="F655" t="s">
         <v>711</v>
@@ -17368,10 +17368,10 @@
         <v>924</v>
       </c>
       <c r="D656" t="s">
+        <v>909</v>
+      </c>
+      <c r="E656" t="s">
         <v>925</v>
-      </c>
-      <c r="E656" t="s">
-        <v>910</v>
       </c>
       <c r="F656" t="s">
         <v>16</v>
@@ -17388,10 +17388,10 @@
         <v>927</v>
       </c>
       <c r="D657" t="s">
+        <v>909</v>
+      </c>
+      <c r="E657" t="s">
         <v>928</v>
-      </c>
-      <c r="E657" t="s">
-        <v>910</v>
       </c>
       <c r="F657" t="s">
         <v>24</v>
@@ -17405,13 +17405,13 @@
         <v>7</v>
       </c>
       <c r="C658" t="s">
+        <v>887</v>
+      </c>
+      <c r="D658" t="s">
+        <v>909</v>
+      </c>
+      <c r="E658" t="s">
         <v>930</v>
-      </c>
-      <c r="D658" t="s">
-        <v>887</v>
-      </c>
-      <c r="E658" t="s">
-        <v>910</v>
       </c>
       <c r="F658" t="s">
         <v>24</v>
@@ -17428,10 +17428,10 @@
         <v>932</v>
       </c>
       <c r="D659" t="s">
+        <v>909</v>
+      </c>
+      <c r="E659" t="s">
         <v>933</v>
-      </c>
-      <c r="E659" t="s">
-        <v>910</v>
       </c>
       <c r="F659" t="s">
         <v>24</v>
@@ -17448,10 +17448,10 @@
         <v>917</v>
       </c>
       <c r="D660" t="s">
+        <v>909</v>
+      </c>
+      <c r="E660" t="s">
         <v>918</v>
-      </c>
-      <c r="E660" t="s">
-        <v>910</v>
       </c>
       <c r="F660" t="s">
         <v>711</v>
@@ -17465,13 +17465,13 @@
         <v>7</v>
       </c>
       <c r="C661" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="D661" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="E661" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="F661" t="s">
         <v>24</v>
@@ -17488,10 +17488,10 @@
         <v>937</v>
       </c>
       <c r="D662" t="s">
+        <v>909</v>
+      </c>
+      <c r="E662" t="s">
         <v>938</v>
-      </c>
-      <c r="E662" t="s">
-        <v>910</v>
       </c>
       <c r="F662" t="s">
         <v>24</v>
@@ -17505,13 +17505,13 @@
         <v>7</v>
       </c>
       <c r="C663" t="s">
+        <v>900</v>
+      </c>
+      <c r="D663" t="s">
+        <v>909</v>
+      </c>
+      <c r="E663" t="s">
         <v>940</v>
-      </c>
-      <c r="D663" t="s">
-        <v>900</v>
-      </c>
-      <c r="E663" t="s">
-        <v>910</v>
       </c>
       <c r="F663" t="s">
         <v>16</v>
@@ -17525,13 +17525,13 @@
         <v>7</v>
       </c>
       <c r="C664" t="s">
-        <v>917</v>
+        <v>942</v>
       </c>
       <c r="D664" t="s">
-        <v>942</v>
+        <v>909</v>
       </c>
       <c r="E664" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="F664" t="s">
         <v>711</v>
@@ -17545,10 +17545,10 @@
         <v>7</v>
       </c>
       <c r="C665" t="s">
-        <v>908</v>
+        <v>942</v>
       </c>
       <c r="D665" t="s">
-        <v>942</v>
+        <v>909</v>
       </c>
       <c r="E665" t="s">
         <v>910</v>
@@ -17568,10 +17568,10 @@
         <v>945</v>
       </c>
       <c r="D666" t="s">
+        <v>909</v>
+      </c>
+      <c r="E666" t="s">
         <v>946</v>
-      </c>
-      <c r="E666" t="s">
-        <v>910</v>
       </c>
       <c r="F666" t="s">
         <v>24</v>
@@ -17588,10 +17588,10 @@
         <v>917</v>
       </c>
       <c r="D667" t="s">
+        <v>909</v>
+      </c>
+      <c r="E667" t="s">
         <v>918</v>
-      </c>
-      <c r="E667" t="s">
-        <v>910</v>
       </c>
       <c r="F667" t="s">
         <v>16</v>
@@ -17605,13 +17605,13 @@
         <v>7</v>
       </c>
       <c r="C668" t="s">
+        <v>900</v>
+      </c>
+      <c r="D668" t="s">
+        <v>909</v>
+      </c>
+      <c r="E668" t="s">
         <v>930</v>
-      </c>
-      <c r="D668" t="s">
-        <v>900</v>
-      </c>
-      <c r="E668" t="s">
-        <v>910</v>
       </c>
       <c r="F668" t="s">
         <v>16</v>
@@ -17628,10 +17628,10 @@
         <v>917</v>
       </c>
       <c r="D669" t="s">
+        <v>909</v>
+      </c>
+      <c r="E669" t="s">
         <v>918</v>
-      </c>
-      <c r="E669" t="s">
-        <v>910</v>
       </c>
       <c r="F669" t="s">
         <v>711</v>
@@ -17645,13 +17645,13 @@
         <v>7</v>
       </c>
       <c r="C670" t="s">
-        <v>951</v>
+        <v>908</v>
       </c>
       <c r="D670" t="s">
         <v>909</v>
       </c>
       <c r="E670" t="s">
-        <v>910</v>
+        <v>951</v>
       </c>
       <c r="F670" t="s">
         <v>24</v>
@@ -17668,10 +17668,10 @@
         <v>917</v>
       </c>
       <c r="D671" t="s">
+        <v>909</v>
+      </c>
+      <c r="E671" t="s">
         <v>918</v>
-      </c>
-      <c r="E671" t="s">
-        <v>910</v>
       </c>
       <c r="F671" t="s">
         <v>16</v>
@@ -17688,10 +17688,10 @@
         <v>917</v>
       </c>
       <c r="D672" t="s">
+        <v>909</v>
+      </c>
+      <c r="E672" t="s">
         <v>918</v>
-      </c>
-      <c r="E672" t="s">
-        <v>910</v>
       </c>
       <c r="F672" t="s">
         <v>711</v>
@@ -17705,13 +17705,13 @@
         <v>7</v>
       </c>
       <c r="C673" t="s">
-        <v>932</v>
+        <v>900</v>
       </c>
       <c r="D673" t="s">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="E673" t="s">
-        <v>910</v>
+        <v>933</v>
       </c>
       <c r="F673" t="s">
         <v>16</v>
@@ -17725,13 +17725,13 @@
         <v>7</v>
       </c>
       <c r="C674" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="D674" t="s">
         <v>909</v>
       </c>
       <c r="E674" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="F674" t="s">
         <v>24</v>
@@ -17745,13 +17745,13 @@
         <v>7</v>
       </c>
       <c r="C675" t="s">
-        <v>917</v>
+        <v>957</v>
       </c>
       <c r="D675" t="s">
-        <v>957</v>
+        <v>909</v>
       </c>
       <c r="E675" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="F675" t="s">
         <v>16</v>
@@ -17768,10 +17768,10 @@
         <v>917</v>
       </c>
       <c r="D676" t="s">
+        <v>909</v>
+      </c>
+      <c r="E676" t="s">
         <v>918</v>
-      </c>
-      <c r="E676" t="s">
-        <v>910</v>
       </c>
       <c r="F676" t="s">
         <v>711</v>
@@ -17788,10 +17788,10 @@
         <v>917</v>
       </c>
       <c r="D677" t="s">
+        <v>909</v>
+      </c>
+      <c r="E677" t="s">
         <v>918</v>
-      </c>
-      <c r="E677" t="s">
-        <v>910</v>
       </c>
       <c r="F677" t="s">
         <v>711</v>
@@ -17808,10 +17808,10 @@
         <v>932</v>
       </c>
       <c r="D678" t="s">
+        <v>909</v>
+      </c>
+      <c r="E678" t="s">
         <v>933</v>
-      </c>
-      <c r="E678" t="s">
-        <v>910</v>
       </c>
       <c r="F678" t="s">
         <v>24</v>
@@ -17828,10 +17828,10 @@
         <v>917</v>
       </c>
       <c r="D679" t="s">
+        <v>909</v>
+      </c>
+      <c r="E679" t="s">
         <v>918</v>
-      </c>
-      <c r="E679" t="s">
-        <v>910</v>
       </c>
       <c r="F679" t="s">
         <v>711</v>
@@ -17848,10 +17848,10 @@
         <v>917</v>
       </c>
       <c r="D680" t="s">
+        <v>909</v>
+      </c>
+      <c r="E680" t="s">
         <v>918</v>
-      </c>
-      <c r="E680" t="s">
-        <v>910</v>
       </c>
       <c r="F680" t="s">
         <v>711</v>
@@ -17888,10 +17888,10 @@
         <v>968</v>
       </c>
       <c r="D682" t="s">
+        <v>965</v>
+      </c>
+      <c r="E682" t="s">
         <v>969</v>
-      </c>
-      <c r="E682" t="s">
-        <v>966</v>
       </c>
       <c r="F682" t="s">
         <v>24</v>
@@ -17908,10 +17908,10 @@
         <v>971</v>
       </c>
       <c r="D683" t="s">
+        <v>965</v>
+      </c>
+      <c r="E683" t="s">
         <v>972</v>
-      </c>
-      <c r="E683" t="s">
-        <v>966</v>
       </c>
       <c r="F683" t="s">
         <v>711</v>
@@ -17928,10 +17928,10 @@
         <v>971</v>
       </c>
       <c r="D684" t="s">
+        <v>965</v>
+      </c>
+      <c r="E684" t="s">
         <v>972</v>
-      </c>
-      <c r="E684" t="s">
-        <v>966</v>
       </c>
       <c r="F684" t="s">
         <v>711</v>
@@ -17948,10 +17948,10 @@
         <v>971</v>
       </c>
       <c r="D685" t="s">
+        <v>965</v>
+      </c>
+      <c r="E685" t="s">
         <v>972</v>
-      </c>
-      <c r="E685" t="s">
-        <v>966</v>
       </c>
       <c r="F685" t="s">
         <v>711</v>
@@ -17968,10 +17968,10 @@
         <v>971</v>
       </c>
       <c r="D686" t="s">
+        <v>965</v>
+      </c>
+      <c r="E686" t="s">
         <v>972</v>
-      </c>
-      <c r="E686" t="s">
-        <v>966</v>
       </c>
       <c r="F686" t="s">
         <v>711</v>
@@ -17988,10 +17988,10 @@
         <v>971</v>
       </c>
       <c r="D687" t="s">
+        <v>965</v>
+      </c>
+      <c r="E687" t="s">
         <v>972</v>
-      </c>
-      <c r="E687" t="s">
-        <v>966</v>
       </c>
       <c r="F687" t="s">
         <v>711</v>
@@ -18005,13 +18005,13 @@
         <v>7</v>
       </c>
       <c r="C688" t="s">
+        <v>968</v>
+      </c>
+      <c r="D688" t="s">
+        <v>965</v>
+      </c>
+      <c r="E688" t="s">
         <v>978</v>
-      </c>
-      <c r="D688" t="s">
-        <v>969</v>
-      </c>
-      <c r="E688" t="s">
-        <v>966</v>
       </c>
       <c r="F688" t="s">
         <v>24</v>
@@ -18028,10 +18028,10 @@
         <v>980</v>
       </c>
       <c r="D689" t="s">
+        <v>965</v>
+      </c>
+      <c r="E689" t="s">
         <v>981</v>
-      </c>
-      <c r="E689" t="s">
-        <v>966</v>
       </c>
       <c r="F689" t="s">
         <v>24</v>
@@ -18048,10 +18048,10 @@
         <v>971</v>
       </c>
       <c r="D690" t="s">
+        <v>965</v>
+      </c>
+      <c r="E690" t="s">
         <v>972</v>
-      </c>
-      <c r="E690" t="s">
-        <v>966</v>
       </c>
       <c r="F690" t="s">
         <v>13</v>
@@ -18065,13 +18065,13 @@
         <v>7</v>
       </c>
       <c r="C691" t="s">
-        <v>917</v>
+        <v>984</v>
       </c>
       <c r="D691" t="s">
-        <v>984</v>
+        <v>965</v>
       </c>
       <c r="E691" t="s">
-        <v>966</v>
+        <v>918</v>
       </c>
       <c r="F691" t="s">
         <v>16</v>
@@ -18088,10 +18088,10 @@
         <v>986</v>
       </c>
       <c r="D692" t="s">
+        <v>965</v>
+      </c>
+      <c r="E692" t="s">
         <v>987</v>
-      </c>
-      <c r="E692" t="s">
-        <v>966</v>
       </c>
       <c r="F692" t="s">
         <v>24</v>
@@ -18108,10 +18108,10 @@
         <v>989</v>
       </c>
       <c r="D693" t="s">
+        <v>965</v>
+      </c>
+      <c r="E693" t="s">
         <v>990</v>
-      </c>
-      <c r="E693" t="s">
-        <v>966</v>
       </c>
       <c r="F693" t="s">
         <v>16</v>
@@ -18128,10 +18128,10 @@
         <v>992</v>
       </c>
       <c r="D694" t="s">
+        <v>965</v>
+      </c>
+      <c r="E694" t="s">
         <v>993</v>
-      </c>
-      <c r="E694" t="s">
-        <v>966</v>
       </c>
       <c r="F694" t="s">
         <v>24</v>
@@ -18148,10 +18148,10 @@
         <v>971</v>
       </c>
       <c r="D695" t="s">
+        <v>965</v>
+      </c>
+      <c r="E695" t="s">
         <v>972</v>
-      </c>
-      <c r="E695" t="s">
-        <v>966</v>
       </c>
       <c r="F695" t="s">
         <v>711</v>
@@ -18168,10 +18168,10 @@
         <v>996</v>
       </c>
       <c r="D696" t="s">
+        <v>965</v>
+      </c>
+      <c r="E696" t="s">
         <v>997</v>
-      </c>
-      <c r="E696" t="s">
-        <v>966</v>
       </c>
       <c r="F696" t="s">
         <v>24</v>
@@ -18188,10 +18188,10 @@
         <v>999</v>
       </c>
       <c r="D697" t="s">
+        <v>965</v>
+      </c>
+      <c r="E697" t="s">
         <v>1000</v>
-      </c>
-      <c r="E697" t="s">
-        <v>966</v>
       </c>
       <c r="F697" t="s">
         <v>24</v>
@@ -18208,10 +18208,10 @@
         <v>971</v>
       </c>
       <c r="D698" t="s">
+        <v>965</v>
+      </c>
+      <c r="E698" t="s">
         <v>972</v>
-      </c>
-      <c r="E698" t="s">
-        <v>966</v>
       </c>
       <c r="F698" t="s">
         <v>16</v>
@@ -18228,10 +18228,10 @@
         <v>1003</v>
       </c>
       <c r="D699" t="s">
+        <v>965</v>
+      </c>
+      <c r="E699" t="s">
         <v>1004</v>
-      </c>
-      <c r="E699" t="s">
-        <v>966</v>
       </c>
       <c r="F699" t="s">
         <v>24</v>
@@ -18248,10 +18248,10 @@
         <v>971</v>
       </c>
       <c r="D700" t="s">
+        <v>965</v>
+      </c>
+      <c r="E700" t="s">
         <v>972</v>
-      </c>
-      <c r="E700" t="s">
-        <v>966</v>
       </c>
       <c r="F700" t="s">
         <v>16</v>
@@ -18268,10 +18268,10 @@
         <v>1007</v>
       </c>
       <c r="D701" t="s">
+        <v>965</v>
+      </c>
+      <c r="E701" t="s">
         <v>1008</v>
-      </c>
-      <c r="E701" t="s">
-        <v>966</v>
       </c>
       <c r="F701" t="s">
         <v>24</v>
@@ -18285,13 +18285,13 @@
         <v>7</v>
       </c>
       <c r="C702" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="D702" t="s">
-        <v>1010</v>
+        <v>965</v>
       </c>
       <c r="E702" t="s">
-        <v>966</v>
+        <v>1004</v>
       </c>
       <c r="F702" t="s">
         <v>24</v>
@@ -18308,10 +18308,10 @@
         <v>971</v>
       </c>
       <c r="D703" t="s">
+        <v>965</v>
+      </c>
+      <c r="E703" t="s">
         <v>972</v>
-      </c>
-      <c r="E703" t="s">
-        <v>966</v>
       </c>
       <c r="F703" t="s">
         <v>711</v>
@@ -18325,13 +18325,13 @@
         <v>7</v>
       </c>
       <c r="C704" t="s">
-        <v>999</v>
+        <v>1013</v>
       </c>
       <c r="D704" t="s">
-        <v>1013</v>
+        <v>965</v>
       </c>
       <c r="E704" t="s">
-        <v>966</v>
+        <v>1000</v>
       </c>
       <c r="F704" t="s">
         <v>16</v>
@@ -18348,10 +18348,10 @@
         <v>971</v>
       </c>
       <c r="D705" t="s">
+        <v>965</v>
+      </c>
+      <c r="E705" t="s">
         <v>972</v>
-      </c>
-      <c r="E705" t="s">
-        <v>966</v>
       </c>
       <c r="F705" t="s">
         <v>711</v>
@@ -18365,13 +18365,13 @@
         <v>7</v>
       </c>
       <c r="C706" t="s">
-        <v>999</v>
+        <v>971</v>
       </c>
       <c r="D706" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="E706" t="s">
-        <v>966</v>
+        <v>1000</v>
       </c>
       <c r="F706" t="s">
         <v>16</v>
@@ -18385,13 +18385,13 @@
         <v>7</v>
       </c>
       <c r="C707" t="s">
-        <v>968</v>
+        <v>1017</v>
       </c>
       <c r="D707" t="s">
-        <v>1017</v>
+        <v>965</v>
       </c>
       <c r="E707" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="F707" t="s">
         <v>24</v>
@@ -18408,10 +18408,10 @@
         <v>971</v>
       </c>
       <c r="D708" t="s">
+        <v>965</v>
+      </c>
+      <c r="E708" t="s">
         <v>972</v>
-      </c>
-      <c r="E708" t="s">
-        <v>966</v>
       </c>
       <c r="F708" t="s">
         <v>711</v>
@@ -18428,10 +18428,10 @@
         <v>1020</v>
       </c>
       <c r="D709" t="s">
+        <v>965</v>
+      </c>
+      <c r="E709" t="s">
         <v>1021</v>
-      </c>
-      <c r="E709" t="s">
-        <v>966</v>
       </c>
       <c r="F709" t="s">
         <v>24</v>
@@ -18445,13 +18445,13 @@
         <v>7</v>
       </c>
       <c r="C710" t="s">
-        <v>999</v>
+        <v>971</v>
       </c>
       <c r="D710" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="E710" t="s">
-        <v>966</v>
+        <v>1000</v>
       </c>
       <c r="F710" t="s">
         <v>711</v>
@@ -18468,10 +18468,10 @@
         <v>971</v>
       </c>
       <c r="D711" t="s">
+        <v>965</v>
+      </c>
+      <c r="E711" t="s">
         <v>972</v>
-      </c>
-      <c r="E711" t="s">
-        <v>966</v>
       </c>
       <c r="F711" t="s">
         <v>711</v>
@@ -18488,10 +18488,10 @@
         <v>980</v>
       </c>
       <c r="D712" t="s">
+        <v>965</v>
+      </c>
+      <c r="E712" t="s">
         <v>981</v>
-      </c>
-      <c r="E712" t="s">
-        <v>966</v>
       </c>
       <c r="F712" t="s">
         <v>24</v>
@@ -18508,10 +18508,10 @@
         <v>971</v>
       </c>
       <c r="D713" t="s">
+        <v>965</v>
+      </c>
+      <c r="E713" t="s">
         <v>972</v>
-      </c>
-      <c r="E713" t="s">
-        <v>966</v>
       </c>
       <c r="F713" t="s">
         <v>711</v>
@@ -18525,13 +18525,13 @@
         <v>7</v>
       </c>
       <c r="C714" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D714" t="s">
-        <v>997</v>
+        <v>965</v>
       </c>
       <c r="E714" t="s">
-        <v>966</v>
+        <v>1000</v>
       </c>
       <c r="F714" t="s">
         <v>24</v>
@@ -18548,10 +18548,10 @@
         <v>971</v>
       </c>
       <c r="D715" t="s">
+        <v>965</v>
+      </c>
+      <c r="E715" t="s">
         <v>972</v>
-      </c>
-      <c r="E715" t="s">
-        <v>966</v>
       </c>
       <c r="F715" t="s">
         <v>711</v>
@@ -18568,10 +18568,10 @@
         <v>971</v>
       </c>
       <c r="D716" t="s">
+        <v>965</v>
+      </c>
+      <c r="E716" t="s">
         <v>972</v>
-      </c>
-      <c r="E716" t="s">
-        <v>966</v>
       </c>
       <c r="F716" t="s">
         <v>711</v>
@@ -18605,10 +18605,10 @@
         <v>7</v>
       </c>
       <c r="C718" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="D718" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E718" t="s">
         <v>1032</v>
@@ -18625,10 +18625,10 @@
         <v>7</v>
       </c>
       <c r="C719" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="D719" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E719" t="s">
         <v>1032</v>
@@ -18645,10 +18645,10 @@
         <v>7</v>
       </c>
       <c r="C720" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="D720" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E720" t="s">
         <v>1032</v>
@@ -18665,10 +18665,10 @@
         <v>7</v>
       </c>
       <c r="C721" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="D721" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E721" t="s">
         <v>1032</v>
@@ -18685,10 +18685,10 @@
         <v>7</v>
       </c>
       <c r="C722" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="D722" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E722" t="s">
         <v>1032</v>
@@ -18705,10 +18705,10 @@
         <v>7</v>
       </c>
       <c r="C723" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="D723" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E723" t="s">
         <v>1032</v>
@@ -18728,10 +18728,10 @@
         <v>1041</v>
       </c>
       <c r="D724" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E724" t="s">
         <v>1042</v>
-      </c>
-      <c r="E724" t="s">
-        <v>1032</v>
       </c>
       <c r="F724" t="s">
         <v>16</v>
@@ -18748,10 +18748,10 @@
         <v>1044</v>
       </c>
       <c r="D725" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E725" t="s">
         <v>1045</v>
-      </c>
-      <c r="E725" t="s">
-        <v>1032</v>
       </c>
       <c r="F725" t="s">
         <v>16</v>
@@ -18765,10 +18765,10 @@
         <v>7</v>
       </c>
       <c r="C726" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="D726" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E726" t="s">
         <v>1032</v>
@@ -18785,10 +18785,10 @@
         <v>7</v>
       </c>
       <c r="C727" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="D727" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E727" t="s">
         <v>1032</v>
@@ -18808,10 +18808,10 @@
         <v>1049</v>
       </c>
       <c r="D728" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E728" t="s">
         <v>1050</v>
-      </c>
-      <c r="E728" t="s">
-        <v>1032</v>
       </c>
       <c r="F728" t="s">
         <v>24</v>
@@ -18825,10 +18825,10 @@
         <v>7</v>
       </c>
       <c r="C729" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="D729" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E729" t="s">
         <v>1032</v>
@@ -18848,10 +18848,10 @@
         <v>1049</v>
       </c>
       <c r="D730" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E730" t="s">
         <v>1050</v>
-      </c>
-      <c r="E730" t="s">
-        <v>1032</v>
       </c>
       <c r="F730" t="s">
         <v>24</v>
@@ -18868,10 +18868,10 @@
         <v>1054</v>
       </c>
       <c r="D731" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E731" t="s">
         <v>1055</v>
-      </c>
-      <c r="E731" t="s">
-        <v>1032</v>
       </c>
       <c r="F731" t="s">
         <v>24</v>
@@ -18885,10 +18885,10 @@
         <v>7</v>
       </c>
       <c r="C732" t="s">
-        <v>1030</v>
+        <v>1057</v>
       </c>
       <c r="D732" t="s">
-        <v>1057</v>
+        <v>1031</v>
       </c>
       <c r="E732" t="s">
         <v>1032</v>
@@ -18908,10 +18908,10 @@
         <v>1059</v>
       </c>
       <c r="D733" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E733" t="s">
         <v>1060</v>
-      </c>
-      <c r="E733" t="s">
-        <v>1032</v>
       </c>
       <c r="F733" t="s">
         <v>24</v>
@@ -18925,10 +18925,10 @@
         <v>7</v>
       </c>
       <c r="C734" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="D734" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E734" t="s">
         <v>1032</v>
@@ -18945,10 +18945,10 @@
         <v>7</v>
       </c>
       <c r="C735" t="s">
-        <v>1030</v>
+        <v>1063</v>
       </c>
       <c r="D735" t="s">
-        <v>1063</v>
+        <v>1031</v>
       </c>
       <c r="E735" t="s">
         <v>1032</v>
@@ -18965,10 +18965,10 @@
         <v>7</v>
       </c>
       <c r="C736" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="D736" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E736" t="s">
         <v>1032</v>
@@ -18985,13 +18985,13 @@
         <v>7</v>
       </c>
       <c r="C737" t="s">
-        <v>971</v>
+        <v>1066</v>
       </c>
       <c r="D737" t="s">
-        <v>1066</v>
+        <v>1031</v>
       </c>
       <c r="E737" t="s">
-        <v>1032</v>
+        <v>972</v>
       </c>
       <c r="F737" t="s">
         <v>16</v>
@@ -19005,10 +19005,10 @@
         <v>7</v>
       </c>
       <c r="C738" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="D738" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E738" t="s">
         <v>1032</v>
@@ -19025,10 +19025,10 @@
         <v>7</v>
       </c>
       <c r="C739" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="D739" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E739" t="s">
         <v>1032</v>
@@ -19048,10 +19048,10 @@
         <v>1070</v>
       </c>
       <c r="D740" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E740" t="s">
         <v>1071</v>
-      </c>
-      <c r="E740" t="s">
-        <v>1032</v>
       </c>
       <c r="F740" t="s">
         <v>24</v>
@@ -19065,10 +19065,10 @@
         <v>7</v>
       </c>
       <c r="C741" t="s">
-        <v>1030</v>
+        <v>1073</v>
       </c>
       <c r="D741" t="s">
-        <v>1073</v>
+        <v>1031</v>
       </c>
       <c r="E741" t="s">
         <v>1032</v>
@@ -19085,10 +19085,10 @@
         <v>7</v>
       </c>
       <c r="C742" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="D742" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E742" t="s">
         <v>1032</v>
@@ -19125,10 +19125,10 @@
         <v>7</v>
       </c>
       <c r="C744" t="s">
-        <v>1030</v>
+        <v>1077</v>
       </c>
       <c r="D744" t="s">
-        <v>1077</v>
+        <v>1031</v>
       </c>
       <c r="E744" t="s">
         <v>1032</v>
@@ -19145,10 +19145,10 @@
         <v>7</v>
       </c>
       <c r="C745" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="D745" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E745" t="s">
         <v>1032</v>
@@ -19165,10 +19165,10 @@
         <v>7</v>
       </c>
       <c r="C746" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="D746" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E746" t="s">
         <v>1032</v>
@@ -19185,10 +19185,10 @@
         <v>7</v>
       </c>
       <c r="C747" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="D747" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E747" t="s">
         <v>1032</v>
@@ -19205,10 +19205,10 @@
         <v>7</v>
       </c>
       <c r="C748" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="D748" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E748" t="s">
         <v>1032</v>
@@ -19248,10 +19248,10 @@
         <v>1087</v>
       </c>
       <c r="D750" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E750" t="s">
         <v>1088</v>
-      </c>
-      <c r="E750" t="s">
-        <v>1085</v>
       </c>
       <c r="F750" t="s">
         <v>24</v>
@@ -19268,10 +19268,10 @@
         <v>1090</v>
       </c>
       <c r="D751" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E751" t="s">
         <v>1091</v>
-      </c>
-      <c r="E751" t="s">
-        <v>1085</v>
       </c>
       <c r="F751" t="s">
         <v>711</v>
@@ -19288,10 +19288,10 @@
         <v>1090</v>
       </c>
       <c r="D752" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E752" t="s">
         <v>1091</v>
-      </c>
-      <c r="E752" t="s">
-        <v>1085</v>
       </c>
       <c r="F752" t="s">
         <v>711</v>
@@ -19308,10 +19308,10 @@
         <v>1090</v>
       </c>
       <c r="D753" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E753" t="s">
         <v>1091</v>
-      </c>
-      <c r="E753" t="s">
-        <v>1085</v>
       </c>
       <c r="F753" t="s">
         <v>711</v>
@@ -19328,10 +19328,10 @@
         <v>1090</v>
       </c>
       <c r="D754" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E754" t="s">
         <v>1091</v>
-      </c>
-      <c r="E754" t="s">
-        <v>1085</v>
       </c>
       <c r="F754" t="s">
         <v>711</v>
@@ -19348,10 +19348,10 @@
         <v>1090</v>
       </c>
       <c r="D755" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E755" t="s">
         <v>1091</v>
-      </c>
-      <c r="E755" t="s">
-        <v>1085</v>
       </c>
       <c r="F755" t="s">
         <v>711</v>
@@ -19368,10 +19368,10 @@
         <v>1090</v>
       </c>
       <c r="D756" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E756" t="s">
         <v>1091</v>
-      </c>
-      <c r="E756" t="s">
-        <v>1085</v>
       </c>
       <c r="F756" t="s">
         <v>711</v>
@@ -19385,13 +19385,13 @@
         <v>7</v>
       </c>
       <c r="C757" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="D757" t="s">
         <v>1084</v>
       </c>
       <c r="E757" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="F757" t="s">
         <v>24</v>
@@ -19405,13 +19405,13 @@
         <v>7</v>
       </c>
       <c r="C758" t="s">
-        <v>1090</v>
+        <v>1063</v>
       </c>
       <c r="D758" t="s">
-        <v>1063</v>
+        <v>1084</v>
       </c>
       <c r="E758" t="s">
-        <v>1085</v>
+        <v>1091</v>
       </c>
       <c r="F758" t="s">
         <v>16</v>
@@ -19428,10 +19428,10 @@
         <v>1090</v>
       </c>
       <c r="D759" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E759" t="s">
         <v>1091</v>
-      </c>
-      <c r="E759" t="s">
-        <v>1085</v>
       </c>
       <c r="F759" t="s">
         <v>711</v>
@@ -19448,10 +19448,10 @@
         <v>1090</v>
       </c>
       <c r="D760" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E760" t="s">
         <v>1091</v>
-      </c>
-      <c r="E760" t="s">
-        <v>1085</v>
       </c>
       <c r="F760" t="s">
         <v>711</v>
@@ -19465,13 +19465,13 @@
         <v>7</v>
       </c>
       <c r="C761" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D761" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E761" t="s">
         <v>1102</v>
-      </c>
-      <c r="D761" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E761" t="s">
-        <v>1085</v>
       </c>
       <c r="F761" t="s">
         <v>24</v>
@@ -19488,10 +19488,10 @@
         <v>1090</v>
       </c>
       <c r="D762" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E762" t="s">
         <v>1091</v>
-      </c>
-      <c r="E762" t="s">
-        <v>1085</v>
       </c>
       <c r="F762" t="s">
         <v>711</v>
@@ -19508,10 +19508,10 @@
         <v>1105</v>
       </c>
       <c r="D763" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E763" t="s">
         <v>1106</v>
-      </c>
-      <c r="E763" t="s">
-        <v>1085</v>
       </c>
       <c r="F763" t="s">
         <v>24</v>
@@ -19525,10 +19525,10 @@
         <v>7</v>
       </c>
       <c r="C764" t="s">
-        <v>1083</v>
+        <v>1090</v>
       </c>
       <c r="D764" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="E764" t="s">
         <v>1085</v>
@@ -19545,13 +19545,13 @@
         <v>7</v>
       </c>
       <c r="C765" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D765" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E765" t="s">
         <v>1102</v>
-      </c>
-      <c r="D765" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E765" t="s">
-        <v>1085</v>
       </c>
       <c r="F765" t="s">
         <v>24</v>
@@ -19568,10 +19568,10 @@
         <v>1111</v>
       </c>
       <c r="D766" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E766" t="s">
         <v>1112</v>
-      </c>
-      <c r="E766" t="s">
-        <v>1085</v>
       </c>
       <c r="F766" t="s">
         <v>24</v>
@@ -19588,10 +19588,10 @@
         <v>1090</v>
       </c>
       <c r="D767" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E767" t="s">
         <v>1091</v>
-      </c>
-      <c r="E767" t="s">
-        <v>1085</v>
       </c>
       <c r="F767" t="s">
         <v>711</v>
@@ -19608,10 +19608,10 @@
         <v>1090</v>
       </c>
       <c r="D768" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E768" t="s">
         <v>1091</v>
-      </c>
-      <c r="E768" t="s">
-        <v>1085</v>
       </c>
       <c r="F768" t="s">
         <v>711</v>
@@ -19628,10 +19628,10 @@
         <v>1116</v>
       </c>
       <c r="D769" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E769" t="s">
         <v>1117</v>
-      </c>
-      <c r="E769" t="s">
-        <v>1085</v>
       </c>
       <c r="F769" t="s">
         <v>24</v>
@@ -19648,10 +19648,10 @@
         <v>1090</v>
       </c>
       <c r="D770" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E770" t="s">
         <v>1091</v>
-      </c>
-      <c r="E770" t="s">
-        <v>1085</v>
       </c>
       <c r="F770" t="s">
         <v>711</v>
@@ -19668,10 +19668,10 @@
         <v>1090</v>
       </c>
       <c r="D771" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E771" t="s">
         <v>1091</v>
-      </c>
-      <c r="E771" t="s">
-        <v>1085</v>
       </c>
       <c r="F771" t="s">
         <v>711</v>
@@ -19688,10 +19688,10 @@
         <v>1090</v>
       </c>
       <c r="D772" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E772" t="s">
         <v>1091</v>
-      </c>
-      <c r="E772" t="s">
-        <v>1085</v>
       </c>
       <c r="F772" t="s">
         <v>711</v>
@@ -19708,10 +19708,10 @@
         <v>1122</v>
       </c>
       <c r="D773" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E773" t="s">
         <v>1123</v>
-      </c>
-      <c r="E773" t="s">
-        <v>1085</v>
       </c>
       <c r="F773" t="s">
         <v>24</v>
@@ -19728,10 +19728,10 @@
         <v>1090</v>
       </c>
       <c r="D774" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E774" t="s">
         <v>1091</v>
-      </c>
-      <c r="E774" t="s">
-        <v>1085</v>
       </c>
       <c r="F774" t="s">
         <v>711</v>
@@ -19765,10 +19765,10 @@
         <v>7</v>
       </c>
       <c r="C776" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="D776" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E776" t="s">
         <v>1128</v>
@@ -19788,10 +19788,10 @@
         <v>1132</v>
       </c>
       <c r="D777" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E777" t="s">
         <v>1133</v>
-      </c>
-      <c r="E777" t="s">
-        <v>1128</v>
       </c>
       <c r="F777" t="s">
         <v>24</v>
@@ -19808,10 +19808,10 @@
         <v>1135</v>
       </c>
       <c r="D778" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E778" t="s">
         <v>1136</v>
-      </c>
-      <c r="E778" t="s">
-        <v>1128</v>
       </c>
       <c r="F778" t="s">
         <v>24</v>
@@ -19825,10 +19825,10 @@
         <v>7</v>
       </c>
       <c r="C779" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="D779" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E779" t="s">
         <v>1128</v>
@@ -19845,10 +19845,10 @@
         <v>7</v>
       </c>
       <c r="C780" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="D780" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E780" t="s">
         <v>1128</v>
@@ -19865,10 +19865,10 @@
         <v>7</v>
       </c>
       <c r="C781" t="s">
-        <v>1126</v>
+        <v>1140</v>
       </c>
       <c r="D781" t="s">
-        <v>1140</v>
+        <v>1127</v>
       </c>
       <c r="E781" t="s">
         <v>1128</v>
@@ -19885,10 +19885,10 @@
         <v>7</v>
       </c>
       <c r="C782" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="D782" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E782" t="s">
         <v>1128</v>
@@ -19905,10 +19905,10 @@
         <v>7</v>
       </c>
       <c r="C783" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="D783" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E783" t="s">
         <v>1128</v>
@@ -19925,10 +19925,10 @@
         <v>7</v>
       </c>
       <c r="C784" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="D784" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E784" t="s">
         <v>1128</v>
@@ -19945,10 +19945,10 @@
         <v>7</v>
       </c>
       <c r="C785" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="D785" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E785" t="s">
         <v>1128</v>
@@ -19965,10 +19965,10 @@
         <v>7</v>
       </c>
       <c r="C786" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="D786" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E786" t="s">
         <v>1128</v>
@@ -19985,10 +19985,10 @@
         <v>7</v>
       </c>
       <c r="C787" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="D787" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E787" t="s">
         <v>1128</v>
@@ -20005,13 +20005,13 @@
         <v>7</v>
       </c>
       <c r="C788" t="s">
-        <v>1148</v>
+        <v>1126</v>
       </c>
       <c r="D788" t="s">
         <v>1127</v>
       </c>
       <c r="E788" t="s">
-        <v>1128</v>
+        <v>1148</v>
       </c>
       <c r="F788" t="s">
         <v>24</v>
@@ -20025,10 +20025,10 @@
         <v>7</v>
       </c>
       <c r="C789" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="D789" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E789" t="s">
         <v>1128</v>
@@ -20045,13 +20045,13 @@
         <v>7</v>
       </c>
       <c r="C790" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D790" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E790" t="s">
         <v>1151</v>
-      </c>
-      <c r="D790" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E790" t="s">
-        <v>1128</v>
       </c>
       <c r="F790" t="s">
         <v>24</v>
@@ -20065,13 +20065,13 @@
         <v>7</v>
       </c>
       <c r="C791" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D791" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E791" t="s">
         <v>1148</v>
-      </c>
-      <c r="D791" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E791" t="s">
-        <v>1128</v>
       </c>
       <c r="F791" t="s">
         <v>24</v>
@@ -20085,10 +20085,10 @@
         <v>7</v>
       </c>
       <c r="C792" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="D792" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E792" t="s">
         <v>1128</v>
@@ -20105,13 +20105,13 @@
         <v>7</v>
       </c>
       <c r="C793" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D793" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E793" t="s">
         <v>1156</v>
-      </c>
-      <c r="D793" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E793" t="s">
-        <v>1128</v>
       </c>
       <c r="F793" t="s">
         <v>24</v>
@@ -20125,10 +20125,10 @@
         <v>7</v>
       </c>
       <c r="C794" t="s">
-        <v>1126</v>
+        <v>1158</v>
       </c>
       <c r="D794" t="s">
-        <v>1158</v>
+        <v>1127</v>
       </c>
       <c r="E794" t="s">
         <v>1128</v>
@@ -20145,10 +20145,10 @@
         <v>7</v>
       </c>
       <c r="C795" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="D795" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E795" t="s">
         <v>1128</v>
@@ -20168,10 +20168,10 @@
         <v>1161</v>
       </c>
       <c r="D796" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E796" t="s">
         <v>1162</v>
-      </c>
-      <c r="E796" t="s">
-        <v>1128</v>
       </c>
       <c r="F796" t="s">
         <v>24</v>
@@ -20188,10 +20188,10 @@
         <v>1164</v>
       </c>
       <c r="D797" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E797" t="s">
         <v>1165</v>
-      </c>
-      <c r="E797" t="s">
-        <v>1128</v>
       </c>
       <c r="F797" t="s">
         <v>24</v>
@@ -20205,10 +20205,10 @@
         <v>7</v>
       </c>
       <c r="C798" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="D798" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E798" t="s">
         <v>1128</v>
@@ -20225,10 +20225,10 @@
         <v>7</v>
       </c>
       <c r="C799" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="D799" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E799" t="s">
         <v>1128</v>
@@ -20245,10 +20245,10 @@
         <v>7</v>
       </c>
       <c r="C800" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="D800" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E800" t="s">
         <v>1128</v>
@@ -20265,10 +20265,10 @@
         <v>7</v>
       </c>
       <c r="C801" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="D801" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E801" t="s">
         <v>1128</v>
@@ -20285,10 +20285,10 @@
         <v>7</v>
       </c>
       <c r="C802" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="D802" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E802" t="s">
         <v>1128</v>
@@ -20305,10 +20305,10 @@
         <v>7</v>
       </c>
       <c r="C803" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="D803" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E803" t="s">
         <v>1128</v>
@@ -20325,10 +20325,10 @@
         <v>7</v>
       </c>
       <c r="C804" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="D804" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E804" t="s">
         <v>1128</v>
@@ -20345,10 +20345,10 @@
         <v>7</v>
       </c>
       <c r="C805" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="D805" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E805" t="s">
         <v>1128</v>
@@ -20365,10 +20365,10 @@
         <v>7</v>
       </c>
       <c r="C806" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="D806" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E806" t="s">
         <v>1128</v>
@@ -20448,10 +20448,10 @@
         <v>1182</v>
       </c>
       <c r="D810" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E810" t="s">
         <v>1183</v>
-      </c>
-      <c r="E810" t="s">
-        <v>1178</v>
       </c>
       <c r="F810" t="s">
         <v>24</v>
@@ -20505,10 +20505,10 @@
         <v>7</v>
       </c>
       <c r="C813" t="s">
-        <v>1176</v>
+        <v>1182</v>
       </c>
       <c r="D813" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="E813" t="s">
         <v>1178</v>
@@ -20528,10 +20528,10 @@
         <v>1188</v>
       </c>
       <c r="D814" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E814" t="s">
         <v>1189</v>
-      </c>
-      <c r="E814" t="s">
-        <v>1178</v>
       </c>
       <c r="F814" t="s">
         <v>24</v>
@@ -20648,10 +20648,10 @@
         <v>1196</v>
       </c>
       <c r="D820" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E820" t="s">
         <v>1197</v>
-      </c>
-      <c r="E820" t="s">
-        <v>1178</v>
       </c>
       <c r="F820" t="s">
         <v>16</v>
@@ -20668,10 +20668,10 @@
         <v>1199</v>
       </c>
       <c r="D821" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E821" t="s">
         <v>1200</v>
-      </c>
-      <c r="E821" t="s">
-        <v>1178</v>
       </c>
       <c r="F821" t="s">
         <v>711</v>
@@ -20685,10 +20685,10 @@
         <v>7</v>
       </c>
       <c r="C822" t="s">
-        <v>1176</v>
+        <v>1199</v>
       </c>
       <c r="D822" t="s">
-        <v>1200</v>
+        <v>1177</v>
       </c>
       <c r="E822" t="s">
         <v>1178</v>
@@ -20708,10 +20708,10 @@
         <v>1199</v>
       </c>
       <c r="D823" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E823" t="s">
         <v>1200</v>
-      </c>
-      <c r="E823" t="s">
-        <v>1178</v>
       </c>
       <c r="F823" t="s">
         <v>711</v>
@@ -20728,10 +20728,10 @@
         <v>1199</v>
       </c>
       <c r="D824" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E824" t="s">
         <v>1200</v>
-      </c>
-      <c r="E824" t="s">
-        <v>1178</v>
       </c>
       <c r="F824" t="s">
         <v>711</v>
@@ -20748,10 +20748,10 @@
         <v>1199</v>
       </c>
       <c r="D825" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E825" t="s">
         <v>1200</v>
-      </c>
-      <c r="E825" t="s">
-        <v>1178</v>
       </c>
       <c r="F825" t="s">
         <v>711</v>
@@ -20768,10 +20768,10 @@
         <v>1199</v>
       </c>
       <c r="D826" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E826" t="s">
         <v>1200</v>
-      </c>
-      <c r="E826" t="s">
-        <v>1178</v>
       </c>
       <c r="F826" t="s">
         <v>711</v>
@@ -20785,10 +20785,10 @@
         <v>7</v>
       </c>
       <c r="C827" t="s">
-        <v>1176</v>
+        <v>1199</v>
       </c>
       <c r="D827" t="s">
-        <v>1200</v>
+        <v>1177</v>
       </c>
       <c r="E827" t="s">
         <v>1178</v>
@@ -20825,10 +20825,10 @@
         <v>7</v>
       </c>
       <c r="C829" t="s">
-        <v>1176</v>
+        <v>1182</v>
       </c>
       <c r="D829" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="E829" t="s">
         <v>1178</v>
@@ -21025,10 +21025,10 @@
         <v>7</v>
       </c>
       <c r="C839" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="D839" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E839" t="s">
         <v>1220</v>
@@ -21045,10 +21045,10 @@
         <v>7</v>
       </c>
       <c r="C840" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="D840" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E840" t="s">
         <v>1220</v>
@@ -21065,10 +21065,10 @@
         <v>7</v>
       </c>
       <c r="C841" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="D841" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E841" t="s">
         <v>1220</v>
@@ -21085,10 +21085,10 @@
         <v>7</v>
       </c>
       <c r="C842" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="D842" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E842" t="s">
         <v>1220</v>
@@ -21105,10 +21105,10 @@
         <v>7</v>
       </c>
       <c r="C843" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="D843" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E843" t="s">
         <v>1220</v>
@@ -21125,10 +21125,10 @@
         <v>7</v>
       </c>
       <c r="C844" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="D844" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E844" t="s">
         <v>1220</v>
@@ -21145,10 +21145,10 @@
         <v>7</v>
       </c>
       <c r="C845" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="D845" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E845" t="s">
         <v>1220</v>
@@ -21165,13 +21165,13 @@
         <v>7</v>
       </c>
       <c r="C846" t="s">
-        <v>1182</v>
+        <v>1230</v>
       </c>
       <c r="D846" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
       <c r="E846" t="s">
-        <v>1220</v>
+        <v>1183</v>
       </c>
       <c r="F846" t="s">
         <v>711</v>
@@ -21185,13 +21185,13 @@
         <v>7</v>
       </c>
       <c r="C847" t="s">
-        <v>1182</v>
+        <v>1230</v>
       </c>
       <c r="D847" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
       <c r="E847" t="s">
-        <v>1220</v>
+        <v>1183</v>
       </c>
       <c r="F847" t="s">
         <v>711</v>
@@ -21205,13 +21205,13 @@
         <v>7</v>
       </c>
       <c r="C848" t="s">
-        <v>1182</v>
+        <v>1230</v>
       </c>
       <c r="D848" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
       <c r="E848" t="s">
-        <v>1220</v>
+        <v>1183</v>
       </c>
       <c r="F848" t="s">
         <v>711</v>
@@ -21225,13 +21225,13 @@
         <v>7</v>
       </c>
       <c r="C849" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D849" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E849" t="s">
         <v>1234</v>
-      </c>
-      <c r="D849" t="s">
-        <v>1230</v>
-      </c>
-      <c r="E849" t="s">
-        <v>1220</v>
       </c>
       <c r="F849" t="s">
         <v>711</v>
@@ -21245,13 +21245,13 @@
         <v>7</v>
       </c>
       <c r="C850" t="s">
-        <v>1182</v>
+        <v>1230</v>
       </c>
       <c r="D850" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
       <c r="E850" t="s">
-        <v>1220</v>
+        <v>1183</v>
       </c>
       <c r="F850" t="s">
         <v>711</v>
@@ -21265,13 +21265,13 @@
         <v>7</v>
       </c>
       <c r="C851" t="s">
-        <v>1182</v>
+        <v>1230</v>
       </c>
       <c r="D851" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
       <c r="E851" t="s">
-        <v>1220</v>
+        <v>1183</v>
       </c>
       <c r="F851" t="s">
         <v>711</v>
@@ -21285,10 +21285,10 @@
         <v>7</v>
       </c>
       <c r="C852" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="D852" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E852" t="s">
         <v>1220</v>
@@ -21305,10 +21305,10 @@
         <v>7</v>
       </c>
       <c r="C853" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="D853" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E853" t="s">
         <v>1220</v>
@@ -21325,10 +21325,10 @@
         <v>7</v>
       </c>
       <c r="C854" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="D854" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E854" t="s">
         <v>1220</v>
@@ -21345,10 +21345,10 @@
         <v>7</v>
       </c>
       <c r="C855" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="D855" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E855" t="s">
         <v>1220</v>
@@ -21365,10 +21365,10 @@
         <v>7</v>
       </c>
       <c r="C856" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="D856" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E856" t="s">
         <v>1220</v>
@@ -21385,10 +21385,10 @@
         <v>7</v>
       </c>
       <c r="C857" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="D857" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E857" t="s">
         <v>1220</v>
@@ -21405,10 +21405,10 @@
         <v>7</v>
       </c>
       <c r="C858" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="D858" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E858" t="s">
         <v>1220</v>
@@ -21425,10 +21425,10 @@
         <v>7</v>
       </c>
       <c r="C859" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="D859" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E859" t="s">
         <v>1220</v>
@@ -21445,10 +21445,10 @@
         <v>7</v>
       </c>
       <c r="C860" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="D860" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E860" t="s">
         <v>1220</v>
@@ -21465,10 +21465,10 @@
         <v>7</v>
       </c>
       <c r="C861" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="D861" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E861" t="s">
         <v>1220</v>
@@ -21485,10 +21485,10 @@
         <v>7</v>
       </c>
       <c r="C862" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="D862" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E862" t="s">
         <v>1220</v>
@@ -21505,10 +21505,10 @@
         <v>7</v>
       </c>
       <c r="C863" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="D863" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E863" t="s">
         <v>1220</v>
@@ -21525,10 +21525,10 @@
         <v>7</v>
       </c>
       <c r="C864" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="D864" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E864" t="s">
         <v>1220</v>
@@ -21545,10 +21545,10 @@
         <v>7</v>
       </c>
       <c r="C865" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="D865" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E865" t="s">
         <v>1220</v>
@@ -21585,13 +21585,13 @@
         <v>7</v>
       </c>
       <c r="C867" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="D867" t="s">
         <v>1253</v>
       </c>
       <c r="E867" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="F867" t="s">
         <v>711</v>
@@ -21605,13 +21605,13 @@
         <v>7</v>
       </c>
       <c r="C868" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="D868" t="s">
         <v>1253</v>
       </c>
       <c r="E868" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="F868" t="s">
         <v>711</v>
@@ -21625,13 +21625,13 @@
         <v>7</v>
       </c>
       <c r="C869" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="D869" t="s">
         <v>1253</v>
       </c>
       <c r="E869" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="F869" t="s">
         <v>711</v>
@@ -21645,13 +21645,13 @@
         <v>7</v>
       </c>
       <c r="C870" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="D870" t="s">
         <v>1253</v>
       </c>
       <c r="E870" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="F870" t="s">
         <v>711</v>
@@ -21665,13 +21665,13 @@
         <v>7</v>
       </c>
       <c r="C871" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="D871" t="s">
         <v>1253</v>
       </c>
       <c r="E871" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="F871" t="s">
         <v>16</v>
@@ -21685,13 +21685,13 @@
         <v>7</v>
       </c>
       <c r="C872" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="D872" t="s">
         <v>1253</v>
       </c>
       <c r="E872" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="F872" t="s">
         <v>16</v>
@@ -21705,13 +21705,13 @@
         <v>7</v>
       </c>
       <c r="C873" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="D873" t="s">
         <v>1253</v>
       </c>
       <c r="E873" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="F873" t="s">
         <v>711</v>
@@ -21725,13 +21725,13 @@
         <v>7</v>
       </c>
       <c r="C874" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="D874" t="s">
         <v>1253</v>
       </c>
       <c r="E874" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="F874" t="s">
         <v>711</v>
@@ -21745,13 +21745,13 @@
         <v>7</v>
       </c>
       <c r="C875" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="D875" t="s">
         <v>1253</v>
       </c>
       <c r="E875" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="F875" t="s">
         <v>711</v>
@@ -21765,13 +21765,13 @@
         <v>7</v>
       </c>
       <c r="C876" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="D876" t="s">
         <v>1253</v>
       </c>
       <c r="E876" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="F876" t="s">
         <v>16</v>
@@ -21785,13 +21785,13 @@
         <v>7</v>
       </c>
       <c r="C877" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="D877" t="s">
         <v>1253</v>
       </c>
       <c r="E877" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="F877" t="s">
         <v>711</v>
@@ -21805,13 +21805,13 @@
         <v>7</v>
       </c>
       <c r="C878" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="D878" t="s">
         <v>1253</v>
       </c>
       <c r="E878" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="F878" t="s">
         <v>711</v>
@@ -21825,13 +21825,13 @@
         <v>7</v>
       </c>
       <c r="C879" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="D879" t="s">
         <v>1253</v>
       </c>
       <c r="E879" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="F879" t="s">
         <v>711</v>
@@ -21845,13 +21845,13 @@
         <v>7</v>
       </c>
       <c r="C880" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="D880" t="s">
         <v>1253</v>
       </c>
       <c r="E880" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="F880" t="s">
         <v>711</v>
@@ -21865,13 +21865,13 @@
         <v>7</v>
       </c>
       <c r="C881" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="D881" t="s">
         <v>1253</v>
       </c>
       <c r="E881" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="F881" t="s">
         <v>711</v>
@@ -21885,13 +21885,13 @@
         <v>7</v>
       </c>
       <c r="C882" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="D882" t="s">
         <v>1253</v>
       </c>
       <c r="E882" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="F882" t="s">
         <v>711</v>
@@ -21905,13 +21905,13 @@
         <v>7</v>
       </c>
       <c r="C883" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="D883" t="s">
         <v>1253</v>
       </c>
       <c r="E883" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="F883" t="s">
         <v>711</v>
@@ -21925,13 +21925,13 @@
         <v>7</v>
       </c>
       <c r="C884" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="D884" t="s">
         <v>1253</v>
       </c>
       <c r="E884" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="F884" t="s">
         <v>711</v>
@@ -21945,13 +21945,13 @@
         <v>7</v>
       </c>
       <c r="C885" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="D885" t="s">
         <v>1253</v>
       </c>
       <c r="E885" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="F885" t="s">
         <v>711</v>
@@ -21965,13 +21965,13 @@
         <v>7</v>
       </c>
       <c r="C886" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="D886" t="s">
         <v>1253</v>
       </c>
       <c r="E886" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="F886" t="s">
         <v>16</v>
@@ -21985,13 +21985,13 @@
         <v>7</v>
       </c>
       <c r="C887" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="D887" t="s">
         <v>1253</v>
       </c>
       <c r="E887" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="F887" t="s">
         <v>711</v>
@@ -22005,13 +22005,13 @@
         <v>7</v>
       </c>
       <c r="C888" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="D888" t="s">
         <v>1253</v>
       </c>
       <c r="E888" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="F888" t="s">
         <v>711</v>
@@ -22125,10 +22125,10 @@
         <v>7</v>
       </c>
       <c r="C894" t="s">
-        <v>1279</v>
+        <v>1287</v>
       </c>
       <c r="D894" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="E894" t="s">
         <v>1281</v>
@@ -22305,13 +22305,13 @@
         <v>7</v>
       </c>
       <c r="C903" t="s">
-        <v>1279</v>
+        <v>1297</v>
       </c>
       <c r="D903" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="E903" t="s">
-        <v>1298</v>
+        <v>1281</v>
       </c>
       <c r="F903" t="s">
         <v>711</v>
@@ -22325,13 +22325,13 @@
         <v>7</v>
       </c>
       <c r="C904" t="s">
-        <v>1279</v>
+        <v>1300</v>
       </c>
       <c r="D904" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="E904" t="s">
-        <v>1298</v>
+        <v>1281</v>
       </c>
       <c r="F904" t="s">
         <v>711</v>
@@ -22345,13 +22345,13 @@
         <v>7</v>
       </c>
       <c r="C905" t="s">
-        <v>1279</v>
+        <v>1297</v>
       </c>
       <c r="D905" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="E905" t="s">
-        <v>1298</v>
+        <v>1281</v>
       </c>
       <c r="F905" t="s">
         <v>711</v>

--- a/api/1/clv3/xlsx/pt/HumanitarianPlan.xlsx
+++ b/api/1/clv3/xlsx/pt/HumanitarianPlan.xlsx
@@ -22,15 +22,15 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:plan-end-date</t>
+  </si>
+  <si>
+    <t>codeforiati:plan-year</t>
+  </si>
+  <si>
     <t>codeforiati:plan-start-date</t>
   </si>
   <si>
-    <t>codeforiati:plan-year</t>
-  </si>
-  <si>
-    <t>codeforiati:plan-end-date</t>
-  </si>
-  <si>
     <t>codeforiati:plan-type</t>
   </si>
   <si>
@@ -40,15 +40,15 @@
     <t>active</t>
   </si>
   <si>
+    <t>2025-12-31</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
     <t>2025-01-01</t>
   </si>
   <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>2025-12-31</t>
-  </si>
-  <si>
     <t>Humanitarian needs and response plan</t>
   </si>
   <si>
@@ -211,15 +211,15 @@
     <t>HAFG24</t>
   </si>
   <si>
+    <t>2024-12-31</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
     <t>2024-01-01</t>
   </si>
   <si>
-    <t>2024</t>
-  </si>
-  <si>
-    <t>2024-12-31</t>
-  </si>
-  <si>
     <t>RAFG_RRP24</t>
   </si>
   <si>
@@ -415,15 +415,15 @@
     <t>HAFG23</t>
   </si>
   <si>
+    <t>2023-12-31</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
     <t>2023-01-01</t>
   </si>
   <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2023-12-31</t>
-  </si>
-  <si>
     <t>RAFG23</t>
   </si>
   <si>
@@ -487,21 +487,21 @@
     <t>OMNG2223</t>
   </si>
   <si>
+    <t>2023-05-31</t>
+  </si>
+  <si>
     <t>2022-12-01</t>
   </si>
   <si>
-    <t>2023-05-31</t>
-  </si>
-  <si>
     <t>OMOZ23</t>
   </si>
   <si>
+    <t>2023-09-30</t>
+  </si>
+  <si>
     <t>2023-03-01</t>
   </si>
   <si>
-    <t>2023-09-30</t>
-  </si>
-  <si>
     <t>HMOZ23</t>
   </si>
   <si>
@@ -547,12 +547,12 @@
     <t>RRSDN23</t>
   </si>
   <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
     <t>2023-05-01</t>
   </si>
   <si>
-    <t>2023-10-31</t>
-  </si>
-  <si>
     <t>HSDN23</t>
   </si>
   <si>
@@ -595,15 +595,15 @@
     <t>HAFG22</t>
   </si>
   <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>2022-01-01</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2022-12-31</t>
-  </si>
-  <si>
     <t>RAFG22</t>
   </si>
   <si>
@@ -625,12 +625,12 @@
     <t>OCUB2223</t>
   </si>
   <si>
+    <t>2023-03-31</t>
+  </si>
+  <si>
     <t>2022-10-20</t>
   </si>
   <si>
-    <t>2023-03-31</t>
-  </si>
-  <si>
     <t>RDRCRRP22</t>
   </si>
   <si>
@@ -646,12 +646,12 @@
     <t>FHTI2223</t>
   </si>
   <si>
+    <t>2023-04-15</t>
+  </si>
+  <si>
     <t>2022-10-16</t>
   </si>
   <si>
-    <t>2023-04-15</t>
-  </si>
-  <si>
     <t>FHTI22</t>
   </si>
   <si>
@@ -682,24 +682,24 @@
     <t>FMWI22</t>
   </si>
   <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
     <t>2022-02-26</t>
   </si>
   <si>
-    <t>2022-05-31</t>
-  </si>
-  <si>
     <t>HMLI22</t>
   </si>
   <si>
     <t>FMOZ22</t>
   </si>
   <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
     <t>2022-04-01</t>
   </si>
   <si>
-    <t>2022-09-30</t>
-  </si>
-  <si>
     <t>HMOZ22</t>
   </si>
   <si>
@@ -730,12 +730,12 @@
     <t>OPHL2122</t>
   </si>
   <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
     <t>2021-12-24</t>
   </si>
   <si>
-    <t>2022-06-30</t>
-  </si>
-  <si>
     <t>RREG22</t>
   </si>
   <si>
@@ -799,15 +799,15 @@
     <t>FAFG21</t>
   </si>
   <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
     <t>2021-09-01</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2021-12-31</t>
-  </si>
-  <si>
     <t>HAFG21</t>
   </si>
   <si>
@@ -856,12 +856,12 @@
     <t>FPSE21</t>
   </si>
   <si>
+    <t>2021-08-27</t>
+  </si>
+  <si>
     <t>2021-05-27</t>
   </si>
   <si>
-    <t>2021-08-27</t>
-  </si>
-  <si>
     <t>HETH21</t>
   </si>
   <si>
@@ -874,24 +874,24 @@
     <t>FHTI2122</t>
   </si>
   <si>
+    <t>2022-02-15</t>
+  </si>
+  <si>
     <t>2021-08-16</t>
   </si>
   <si>
-    <t>2022-02-15</t>
-  </si>
-  <si>
     <t>HHTI21</t>
   </si>
   <si>
     <t>FHND2021</t>
   </si>
   <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
     <t>2020-11-15</t>
   </si>
   <si>
-    <t>2021-06-30</t>
-  </si>
-  <si>
     <t>HHND21</t>
   </si>
   <si>
@@ -910,12 +910,12 @@
     <t>OLBN2122</t>
   </si>
   <si>
+    <t>2022-07-31</t>
+  </si>
+  <si>
     <t>2021-08-03</t>
   </si>
   <si>
-    <t>2022-07-31</t>
-  </si>
-  <si>
     <t>HLBY21</t>
   </si>
   <si>
@@ -1003,15 +1003,15 @@
     <t>HAFG20</t>
   </si>
   <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
     <t>2020-01-01</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
     <t>OBGD20</t>
   </si>
   <si>
@@ -1075,12 +1075,12 @@
     <t>FDJI1920</t>
   </si>
   <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
     <t>2019-12-17</t>
   </si>
   <si>
-    <t>2020-03-31</t>
-  </si>
-  <si>
     <t>ODJI20</t>
   </si>
   <si>
@@ -1129,24 +1129,24 @@
     <t>FLBN20</t>
   </si>
   <si>
+    <t>2020-11-13</t>
+  </si>
+  <si>
     <t>2020-08-05</t>
   </si>
   <si>
-    <t>2020-11-13</t>
-  </si>
-  <si>
     <t>OLBN20</t>
   </si>
   <si>
     <t>FLSO1920</t>
   </si>
   <si>
+    <t>2020-04-30</t>
+  </si>
+  <si>
     <t>2019-11-01</t>
   </si>
   <si>
-    <t>2020-04-30</t>
-  </si>
-  <si>
     <t>OLBR20</t>
   </si>
   <si>
@@ -1243,15 +1243,15 @@
     <t>HAFG19</t>
   </si>
   <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
     <t>2019-01-01</t>
   </si>
   <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2019-12-31</t>
-  </si>
-  <si>
     <t>RBGD19</t>
   </si>
   <si>
@@ -1360,12 +1360,12 @@
     <t>FZWE1920</t>
   </si>
   <si>
+    <t>2020-04-29</t>
+  </si>
+  <si>
     <t>2019-02-01</t>
   </si>
   <si>
-    <t>2020-04-29</t>
-  </si>
-  <si>
     <t>FZWE1820</t>
   </si>
   <si>
@@ -1375,15 +1375,15 @@
     <t>HAFG18</t>
   </si>
   <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
     <t>2018-01-01</t>
   </si>
   <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2018-12-31</t>
-  </si>
-  <si>
     <t>OBGD18</t>
   </si>
   <si>
@@ -1477,12 +1477,12 @@
     <t>HSYR18</t>
   </si>
   <si>
+    <t>2018-12-30</t>
+  </si>
+  <si>
     <t>2018-11-30</t>
   </si>
   <si>
-    <t>2018-12-30</t>
-  </si>
-  <si>
     <t>RSYR18</t>
   </si>
   <si>
@@ -1501,15 +1501,15 @@
     <t>OEUR17</t>
   </si>
   <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
     <t>2017-01-01</t>
   </si>
   <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2017-12-31</t>
-  </si>
-  <si>
     <t>HAFG17</t>
   </si>
   <si>
@@ -1552,12 +1552,12 @@
     <t>FDMA17</t>
   </si>
   <si>
+    <t>2017-12-29</t>
+  </si>
+  <si>
     <t>2017-09-28</t>
   </si>
   <si>
-    <t>2017-12-29</t>
-  </si>
-  <si>
     <t>OPRK17</t>
   </si>
   <si>
@@ -1579,24 +1579,24 @@
     <t>FKEN17</t>
   </si>
   <si>
+    <t>2017-11-30</t>
+  </si>
+  <si>
     <t>2017-02-10</t>
   </si>
   <si>
-    <t>2017-11-30</t>
-  </si>
-  <si>
     <t>HLBY17</t>
   </si>
   <si>
     <t>FMDG17</t>
   </si>
   <si>
+    <t>2017-06-20</t>
+  </si>
+  <si>
     <t>2017-03-20</t>
   </si>
   <si>
-    <t>2017-06-20</t>
-  </si>
-  <si>
     <t>HMLI17</t>
   </si>
   <si>
@@ -1606,12 +1606,12 @@
     <t>FMOZ17</t>
   </si>
   <si>
+    <t>2017-05-31</t>
+  </si>
+  <si>
     <t>2017-02-28</t>
   </si>
   <si>
-    <t>2017-05-31</t>
-  </si>
-  <si>
     <t>HMMR17</t>
   </si>
   <si>
@@ -1630,12 +1630,12 @@
     <t>FPER17</t>
   </si>
   <si>
+    <t>2017-10-31</t>
+  </si>
+  <si>
     <t>2017-04-01</t>
   </si>
   <si>
-    <t>2017-10-31</t>
-  </si>
-  <si>
     <t>HCOG17</t>
   </si>
   <si>
@@ -1672,15 +1672,15 @@
     <t>OEUR16</t>
   </si>
   <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
     <t>2016-01-01</t>
   </si>
   <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2016-12-31</t>
-  </si>
-  <si>
     <t>HAFG16</t>
   </si>
   <si>
@@ -1720,21 +1720,21 @@
     <t>FECU16</t>
   </si>
   <si>
+    <t>2016-10-31</t>
+  </si>
+  <si>
     <t>2016-04-16</t>
   </si>
   <si>
-    <t>2016-10-31</t>
-  </si>
-  <si>
     <t>FFJI16</t>
   </si>
   <si>
+    <t>2016-05-30</t>
+  </si>
+  <si>
     <t>2016-02-20</t>
   </si>
   <si>
-    <t>2016-05-30</t>
-  </si>
-  <si>
     <t>HGMB16</t>
   </si>
   <si>
@@ -1777,12 +1777,12 @@
     <t>FIRQ16</t>
   </si>
   <si>
+    <t>2016-10-01</t>
+  </si>
+  <si>
     <t>2016-07-20</t>
   </si>
   <si>
-    <t>2016-10-01</t>
-  </si>
-  <si>
     <t>HMMR16</t>
   </si>
   <si>
@@ -1825,24 +1825,24 @@
     <t>HZWE1617</t>
   </si>
   <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
     <t>2016-04-01</t>
   </si>
   <si>
-    <t>2017-03-31</t>
-  </si>
-  <si>
     <t>HAFG15</t>
   </si>
   <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
     <t>2015-01-01</t>
   </si>
   <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2015-12-31</t>
-  </si>
-  <si>
     <t>Strategic response plan</t>
   </si>
   <si>
@@ -1873,12 +1873,12 @@
     <t>FGTM1415</t>
   </si>
   <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
     <t>2014-11-03</t>
   </si>
   <si>
-    <t>2015-09-30</t>
-  </si>
-  <si>
     <t>FHTI15</t>
   </si>
   <si>
@@ -1894,24 +1894,24 @@
     <t>FVUT15</t>
   </si>
   <si>
+    <t>2015-10-31</t>
+  </si>
+  <si>
     <t>2015-03-24</t>
   </si>
   <si>
-    <t>2015-10-31</t>
-  </si>
-  <si>
     <t>HIRQ15</t>
   </si>
   <si>
     <t>HLBY1415</t>
   </si>
   <si>
+    <t>2015-05-31</t>
+  </si>
+  <si>
     <t>2014-10-01</t>
   </si>
   <si>
-    <t>2015-05-31</t>
-  </si>
-  <si>
     <t>HMLI15</t>
   </si>
   <si>
@@ -1969,15 +1969,15 @@
     <t>HAFG14</t>
   </si>
   <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
     <t>2014-01-01</t>
   </si>
   <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2014-12-31</t>
-  </si>
-  <si>
     <t>HBFA1314</t>
   </si>
   <si>
@@ -2053,21 +2053,21 @@
     <t>FPHL1314</t>
   </si>
   <si>
+    <t>2014-04-22</t>
+  </si>
+  <si>
     <t>2013-10-22</t>
   </si>
   <si>
-    <t>2014-04-22</t>
-  </si>
-  <si>
     <t>SPHL1314</t>
   </si>
   <si>
+    <t>2014-11-07</t>
+  </si>
+  <si>
     <t>2013-11-08</t>
   </si>
   <si>
-    <t>2014-11-07</t>
-  </si>
-  <si>
     <t>HPHL1314</t>
   </si>
   <si>
@@ -2077,12 +2077,12 @@
     <t>HPHL1314a</t>
   </si>
   <si>
+    <t>2014-08-31</t>
+  </si>
+  <si>
     <t>2013-10-01</t>
   </si>
   <si>
-    <t>2014-08-31</t>
-  </si>
-  <si>
     <t>SCOD14</t>
   </si>
   <si>
@@ -2143,12 +2143,12 @@
     <t>CAFG13</t>
   </si>
   <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
     <t>2013</t>
   </si>
   <si>
-    <t>2013-12-31</t>
-  </si>
-  <si>
     <t>Consolidated appeals process</t>
   </si>
   <si>
@@ -2236,15 +2236,15 @@
     <t>CKEN12</t>
   </si>
   <si>
+    <t>2012-12-31</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
     <t>2012-01-01</t>
   </si>
   <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2012-12-31</t>
-  </si>
-  <si>
     <t>CAFG1112</t>
   </si>
   <si>
@@ -2284,12 +2284,12 @@
     <t>FLSO1213</t>
   </si>
   <si>
+    <t>2013-03-25</t>
+  </si>
+  <si>
     <t>2012-09-18</t>
   </si>
   <si>
-    <t>2013-03-25</t>
-  </si>
-  <si>
     <t>CLBR12</t>
   </si>
   <si>
@@ -2329,12 +2329,12 @@
     <t>CSYR12</t>
   </si>
   <si>
+    <t>2012-12-05</t>
+  </si>
+  <si>
     <t>2012-06-05</t>
   </si>
   <si>
-    <t>2012-12-05</t>
-  </si>
-  <si>
     <t>CYEM12</t>
   </si>
   <si>
@@ -2347,12 +2347,12 @@
     <t>CKEN1113</t>
   </si>
   <si>
+    <t>2011</t>
+  </si>
+  <si>
     <t>2011-01-01</t>
   </si>
   <si>
-    <t>2011</t>
-  </si>
-  <si>
     <t>CAFG11</t>
   </si>
   <si>
@@ -2377,12 +2377,12 @@
     <t>FSLV1112</t>
   </si>
   <si>
+    <t>2012-04-25</t>
+  </si>
+  <si>
     <t>2011-10-25</t>
   </si>
   <si>
-    <t>2012-04-25</t>
-  </si>
-  <si>
     <t>CHTI1011</t>
   </si>
   <si>
@@ -2401,33 +2401,33 @@
     <t>FNAM11</t>
   </si>
   <si>
+    <t>2011-10-11</t>
+  </si>
+  <si>
     <t>2011-04-11</t>
   </si>
   <si>
-    <t>2011-10-11</t>
-  </si>
-  <si>
     <t>FNIC1112</t>
   </si>
   <si>
+    <t>2012-04-26</t>
+  </si>
+  <si>
     <t>2011-10-27</t>
   </si>
   <si>
-    <t>2012-04-26</t>
-  </si>
-  <si>
     <t>CNER11</t>
   </si>
   <si>
     <t>FPAK1112</t>
   </si>
   <si>
+    <t>2012-06-30</t>
+  </si>
+  <si>
     <t>2011-09-15</t>
   </si>
   <si>
-    <t>2012-06-30</t>
-  </si>
-  <si>
     <t>FXLBYREG11</t>
   </si>
   <si>
@@ -2470,24 +2470,24 @@
     <t>CAFG10</t>
   </si>
   <si>
+    <t>2010-12-31</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
     <t>2010-01-01</t>
   </si>
   <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2010-12-31</t>
-  </si>
-  <si>
     <t>OBFA1011</t>
   </si>
   <si>
+    <t>2011-01-31</t>
+  </si>
+  <si>
     <t>2010-08-01</t>
   </si>
   <si>
-    <t>2011-01-31</t>
-  </si>
-  <si>
     <t>CCAF10</t>
   </si>
   <si>
@@ -2500,30 +2500,30 @@
     <t>FSLV0910</t>
   </si>
   <si>
+    <t>2010-05-31</t>
+  </si>
+  <si>
     <t>2009-11-01</t>
   </si>
   <si>
-    <t>2010-05-31</t>
-  </si>
-  <si>
     <t>FGTM10</t>
   </si>
   <si>
+    <t>2010-12-09</t>
+  </si>
+  <si>
     <t>2010-06-10</t>
   </si>
   <si>
-    <t>2010-12-09</t>
-  </si>
-  <si>
     <t>CGTM10</t>
   </si>
   <si>
+    <t>2010-08-11</t>
+  </si>
+  <si>
     <t>2010-02-12</t>
   </si>
   <si>
-    <t>2010-08-11</t>
-  </si>
-  <si>
     <t>FHTI10</t>
   </si>
   <si>
@@ -2539,12 +2539,12 @@
     <t>FKGZ1011</t>
   </si>
   <si>
+    <t>2011-06-30</t>
+  </si>
+  <si>
     <t>2010-06-01</t>
   </si>
   <si>
-    <t>2011-06-30</t>
-  </si>
-  <si>
     <t>CMNG1011</t>
   </si>
   <si>
@@ -2602,24 +2602,24 @@
     <t>CAFG09</t>
   </si>
   <si>
+    <t>2009-12-31</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
     <t>2009-01-01</t>
   </si>
   <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2009-12-31</t>
-  </si>
-  <si>
     <t>FBFA0910</t>
   </si>
   <si>
+    <t>2010-03-09</t>
+  </si>
+  <si>
     <t>2009-09-10</t>
   </si>
   <si>
-    <t>2010-03-09</t>
-  </si>
-  <si>
     <t>CCAF09</t>
   </si>
   <si>
@@ -2656,21 +2656,21 @@
     <t>FMDG09</t>
   </si>
   <si>
+    <t>2009-10-31</t>
+  </si>
+  <si>
     <t>2009-04-01</t>
   </si>
   <si>
-    <t>2009-10-31</t>
-  </si>
-  <si>
     <t>FNAM09</t>
   </si>
   <si>
+    <t>2009-09-30</t>
+  </si>
+  <si>
     <t>2009-03-20</t>
   </si>
   <si>
-    <t>2009-09-30</t>
-  </si>
-  <si>
     <t>ONPL09</t>
   </si>
   <si>
@@ -2683,12 +2683,12 @@
     <t>FPHL0910</t>
   </si>
   <si>
+    <t>2010-03-31</t>
+  </si>
+  <si>
     <t>2009-10-03</t>
   </si>
   <si>
-    <t>2010-03-31</t>
-  </si>
-  <si>
     <t>CSOM09</t>
   </si>
   <si>
@@ -2701,12 +2701,12 @@
     <t>OSYR0910</t>
   </si>
   <si>
+    <t>2010-06-14</t>
+  </si>
+  <si>
     <t>2009-07-15</t>
   </si>
   <si>
-    <t>2010-06-14</t>
-  </si>
-  <si>
     <t>OTJK09</t>
   </si>
   <si>
@@ -2740,24 +2740,24 @@
     <t>OAFG08</t>
   </si>
   <si>
+    <t>2008-06-30</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
     <t>2008-02-01</t>
   </si>
   <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2008-06-30</t>
-  </si>
-  <si>
     <t>OAFG0809</t>
   </si>
   <si>
+    <t>2009-06-30</t>
+  </si>
+  <si>
     <t>2008-07-01</t>
   </si>
   <si>
-    <t>2009-06-30</t>
-  </si>
-  <si>
     <t>FBOL08</t>
   </si>
   <si>
@@ -2767,12 +2767,12 @@
     <t>CCAF08</t>
   </si>
   <si>
+    <t>2008-12-31</t>
+  </si>
+  <si>
     <t>2008-01-01</t>
   </si>
   <si>
-    <t>2008-12-31</t>
-  </si>
-  <si>
     <t>CTCD08</t>
   </si>
   <si>
@@ -2788,21 +2788,21 @@
     <t>ODJI0809</t>
   </si>
   <si>
+    <t>2009-02-28</t>
+  </si>
+  <si>
     <t>2008-08-01</t>
   </si>
   <si>
-    <t>2009-02-28</t>
-  </si>
-  <si>
     <t>FGEO0809</t>
   </si>
   <si>
+    <t>2009-02-09</t>
+  </si>
+  <si>
     <t>2008-08-09</t>
   </si>
   <si>
-    <t>2009-02-09</t>
-  </si>
-  <si>
     <t>FHTI0809</t>
   </si>
   <si>
@@ -2812,12 +2812,12 @@
     <t>FHND0809</t>
   </si>
   <si>
+    <t>2009-04-30</t>
+  </si>
+  <si>
     <t>2008-11-01</t>
   </si>
   <si>
-    <t>2009-04-30</t>
-  </si>
-  <si>
     <t>CIRQ08</t>
   </si>
   <si>
@@ -2827,12 +2827,12 @@
     <t>FKGZ0809</t>
   </si>
   <si>
+    <t>2009-05-31</t>
+  </si>
+  <si>
     <t>2008-12-01</t>
   </si>
   <si>
-    <t>2009-05-31</t>
-  </si>
-  <si>
     <t>OLAO0809</t>
   </si>
   <si>
@@ -2851,12 +2851,12 @@
     <t>FMMR08</t>
   </si>
   <si>
+    <t>2008-11-30</t>
+  </si>
+  <si>
     <t>2008-05-01</t>
   </si>
   <si>
-    <t>2008-11-30</t>
-  </si>
-  <si>
     <t>ONPL08</t>
   </si>
   <si>
@@ -2908,33 +2908,33 @@
     <t>FBOL07</t>
   </si>
   <si>
+    <t>2007-08-21</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
     <t>2007-02-22</t>
   </si>
   <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2007-08-21</t>
-  </si>
-  <si>
     <t>FBFA0708</t>
   </si>
   <si>
+    <t>2008-01-31</t>
+  </si>
+  <si>
     <t>2007-11-01</t>
   </si>
   <si>
-    <t>2008-01-31</t>
-  </si>
-  <si>
     <t>CBDI07</t>
   </si>
   <si>
+    <t>2007-12-31</t>
+  </si>
+  <si>
     <t>2007-01-01</t>
   </si>
   <si>
-    <t>2007-12-31</t>
-  </si>
-  <si>
     <t>CCAF07</t>
   </si>
   <si>
@@ -2956,12 +2956,12 @@
     <t>FGHA0708</t>
   </si>
   <si>
+    <t>2008-03-31</t>
+  </si>
+  <si>
     <t>2007-09-01</t>
   </si>
   <si>
-    <t>2008-03-31</t>
-  </si>
-  <si>
     <t>CXGLR07</t>
   </si>
   <si>
@@ -2974,75 +2974,75 @@
     <t>FPRK07</t>
   </si>
   <si>
+    <t>2007-11-30</t>
+  </si>
+  <si>
     <t>2007-08-28</t>
   </si>
   <si>
-    <t>2007-11-30</t>
-  </si>
-  <si>
     <t>OLBN07</t>
   </si>
   <si>
+    <t>2007-09-03</t>
+  </si>
+  <si>
     <t>2007-06-04</t>
   </si>
   <si>
-    <t>2007-09-03</t>
-  </si>
-  <si>
     <t>FLSO0708</t>
   </si>
   <si>
+    <t>2008-01-28</t>
+  </si>
+  <si>
     <t>2007-07-28</t>
   </si>
   <si>
-    <t>2008-01-28</t>
-  </si>
-  <si>
     <t>CLBR07</t>
   </si>
   <si>
     <t>FMDG07</t>
   </si>
   <si>
+    <t>2007-09-15</t>
+  </si>
+  <si>
     <t>2007-03-15</t>
   </si>
   <si>
-    <t>2007-09-15</t>
-  </si>
-  <si>
     <t>FMOZ07</t>
   </si>
   <si>
+    <t>2007-06-30</t>
+  </si>
+  <si>
     <t>2007-03-01</t>
   </si>
   <si>
-    <t>2007-06-30</t>
-  </si>
-  <si>
     <t>ONPL07</t>
   </si>
   <si>
     <t>FNIC0708</t>
   </si>
   <si>
+    <t>2008-02-28</t>
+  </si>
+  <si>
     <t>2007-09-07</t>
   </si>
   <si>
-    <t>2008-02-28</t>
-  </si>
-  <si>
     <t>ORUS07</t>
   </si>
   <si>
     <t>FPAK07</t>
   </si>
   <si>
+    <t>2007-10-31</t>
+  </si>
+  <si>
     <t>2007-07-15</t>
   </si>
   <si>
-    <t>2007-10-31</t>
-  </si>
-  <si>
     <t>FPER0708</t>
   </si>
   <si>
@@ -3076,12 +3076,12 @@
     <t>FSWZ0708</t>
   </si>
   <si>
+    <t>2008-01-20</t>
+  </si>
+  <si>
     <t>2007-07-20</t>
   </si>
   <si>
-    <t>2008-01-20</t>
-  </si>
-  <si>
     <t>CTLS07</t>
   </si>
   <si>
@@ -3106,15 +3106,15 @@
     <t>OAFG06</t>
   </si>
   <si>
+    <t>2006-12-31</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
     <t>2006-07-01</t>
   </si>
   <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2006-12-31</t>
-  </si>
-  <si>
     <t>CBDI06</t>
   </si>
   <si>
@@ -3139,21 +3139,21 @@
     <t>OETH06a</t>
   </si>
   <si>
+    <t>2006-11-25</t>
+  </si>
+  <si>
     <t>2006-08-25</t>
   </si>
   <si>
-    <t>2006-11-25</t>
-  </si>
-  <si>
     <t>OETH0607</t>
   </si>
   <si>
+    <t>2007-01-22</t>
+  </si>
+  <si>
     <t>2006-11-23</t>
   </si>
   <si>
-    <t>2007-01-22</t>
-  </si>
-  <si>
     <t>CXGLR06</t>
   </si>
   <si>
@@ -3163,12 +3163,12 @@
     <t>FGNB06</t>
   </si>
   <si>
+    <t>2006-11-30</t>
+  </si>
+  <si>
     <t>2006-05-01</t>
   </si>
   <si>
-    <t>2006-11-30</t>
-  </si>
-  <si>
     <t>CXHAF06</t>
   </si>
   <si>
@@ -3178,12 +3178,12 @@
     <t>FKEN0607</t>
   </si>
   <si>
+    <t>2007-04-15</t>
+  </si>
+  <si>
     <t>2006-10-16</t>
   </si>
   <si>
-    <t>2007-04-15</t>
-  </si>
-  <si>
     <t>FKEN06</t>
   </si>
   <si>
@@ -3193,12 +3193,12 @@
     <t>FLBN06</t>
   </si>
   <si>
+    <t>2006-10-23</t>
+  </si>
+  <si>
     <t>2006-07-24</t>
   </si>
   <si>
-    <t>2006-10-23</t>
-  </si>
-  <si>
     <t>CLBR06</t>
   </si>
   <si>
@@ -3226,12 +3226,12 @@
     <t>FSOM0607</t>
   </si>
   <si>
+    <t>2007-03-05</t>
+  </si>
+  <si>
     <t>2006-12-05</t>
   </si>
   <si>
-    <t>2007-03-05</t>
-  </si>
-  <si>
     <t>OLKA06</t>
   </si>
   <si>
@@ -3265,33 +3265,33 @@
     <t>FAGO05</t>
   </si>
   <si>
+    <t>2005-06-30</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
     <t>2005-04-01</t>
   </si>
   <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2005-06-30</t>
-  </si>
-  <si>
     <t>FBEN05</t>
   </si>
   <si>
+    <t>2005-10-31</t>
+  </si>
+  <si>
     <t>2005-05-01</t>
   </si>
   <si>
-    <t>2005-10-31</t>
-  </si>
-  <si>
     <t>CBDI05</t>
   </si>
   <si>
+    <t>2005-12-31</t>
+  </si>
+  <si>
     <t>2005-01-01</t>
   </si>
   <si>
-    <t>2005-12-31</t>
-  </si>
-  <si>
     <t>CCAF05</t>
   </si>
   <si>
@@ -3331,12 +3331,12 @@
     <t>FGUY05</t>
   </si>
   <si>
+    <t>2005-08-01</t>
+  </si>
+  <si>
     <t>2005-02-01</t>
   </si>
   <si>
-    <t>2005-08-01</t>
-  </si>
-  <si>
     <t>FXINDTSU05</t>
   </si>
   <si>
@@ -3349,12 +3349,12 @@
     <t>FNER05</t>
   </si>
   <si>
+    <t>2005-09-30</t>
+  </si>
+  <si>
     <t>2005-06-01</t>
   </si>
   <si>
-    <t>2005-09-30</t>
-  </si>
-  <si>
     <t>CCOG05</t>
   </si>
   <si>
@@ -3364,12 +3364,12 @@
     <t>FXSASIA0506</t>
   </si>
   <si>
+    <t>2006-04-10</t>
+  </si>
+  <si>
     <t>2005-10-11</t>
   </si>
   <si>
-    <t>2006-04-10</t>
-  </si>
-  <si>
     <t>CSDN05</t>
   </si>
   <si>
@@ -3382,27 +3382,27 @@
     <t>FXWAF0506</t>
   </si>
   <si>
+    <t>2006-05-31</t>
+  </si>
+  <si>
     <t>2005-11-01</t>
   </si>
   <si>
-    <t>2006-05-31</t>
-  </si>
-  <si>
     <t>CPSE05</t>
   </si>
   <si>
     <t>OAFG04</t>
   </si>
   <si>
+    <t>2004-12-31</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
     <t>2004-09-01</t>
   </si>
   <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2004-12-31</t>
-  </si>
-  <si>
     <t>CAGO04</t>
   </si>
   <si>
@@ -3412,21 +3412,21 @@
     <t>FBGD0405</t>
   </si>
   <si>
+    <t>2005-01-31</t>
+  </si>
+  <si>
     <t>2004-08-01</t>
   </si>
   <si>
-    <t>2005-01-31</t>
-  </si>
-  <si>
     <t>FBOL0405</t>
   </si>
   <si>
+    <t>2005-05-31</t>
+  </si>
+  <si>
     <t>2004-11-01</t>
   </si>
   <si>
-    <t>2005-05-31</t>
-  </si>
-  <si>
     <t>CBDI04</t>
   </si>
   <si>
@@ -3499,21 +3499,21 @@
     <t>FMDG04</t>
   </si>
   <si>
+    <t>2004-06-19</t>
+  </si>
+  <si>
     <t>2004-03-19</t>
   </si>
   <si>
-    <t>2004-06-19</t>
-  </si>
-  <si>
     <t>FPHL0405</t>
   </si>
   <si>
+    <t>2005-03-15</t>
+  </si>
+  <si>
     <t>2004-12-15</t>
   </si>
   <si>
-    <t>2005-03-15</t>
-  </si>
-  <si>
     <t>CSLE04</t>
   </si>
   <si>
@@ -3544,15 +3544,15 @@
     <t>OAFG03</t>
   </si>
   <si>
+    <t>2003-12-31</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
     <t>2003-01-01</t>
   </si>
   <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2003-12-31</t>
-  </si>
-  <si>
     <t>CAGO03</t>
   </si>
   <si>
@@ -3562,12 +3562,12 @@
     <t>FCAF03</t>
   </si>
   <si>
+    <t>2003-06-30</t>
+  </si>
+  <si>
     <t>2003-04-01</t>
   </si>
   <si>
-    <t>2003-06-30</t>
-  </si>
-  <si>
     <t>CRUS03</t>
   </si>
   <si>
@@ -3580,12 +3580,12 @@
     <t>FCIV0203</t>
   </si>
   <si>
+    <t>2003-01-31</t>
+  </si>
+  <si>
     <t>2002-11-01</t>
   </si>
   <si>
-    <t>2003-01-31</t>
-  </si>
-  <si>
     <t>CPRK03</t>
   </si>
   <si>
@@ -3604,21 +3604,21 @@
     <t>OHTI03</t>
   </si>
   <si>
+    <t>2003-08-31</t>
+  </si>
+  <si>
     <t>2003-03-01</t>
   </si>
   <si>
-    <t>2003-08-31</t>
-  </si>
-  <si>
     <t>CLSO0304</t>
   </si>
   <si>
+    <t>2004-06-30</t>
+  </si>
+  <si>
     <t>2003-07-01</t>
   </si>
   <si>
-    <t>2004-06-30</t>
-  </si>
-  <si>
     <t>CMWI03</t>
   </si>
   <si>
@@ -3670,15 +3670,15 @@
     <t>CAFG0102</t>
   </si>
   <si>
+    <t>2002-12-31</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>2001-10-01</t>
   </si>
   <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2002-12-31</t>
-  </si>
-  <si>
     <t>CAGO02</t>
   </si>
   <si>
@@ -3772,15 +3772,15 @@
     <t>CAFG01</t>
   </si>
   <si>
+    <t>2001-09-30</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
     <t>2001-01-01</t>
   </si>
   <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2001-09-30</t>
-  </si>
-  <si>
     <t>CAGO01</t>
   </si>
   <si>
@@ -3853,15 +3853,15 @@
     <t>CAGO00</t>
   </si>
   <si>
+    <t>2000-12-31</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
     <t>2000-01-01</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2000-12-31</t>
-  </si>
-  <si>
     <t>CBDI00</t>
   </si>
   <si>
@@ -3907,10 +3907,10 @@
     <t>CTLS9900</t>
   </si>
   <si>
+    <t>1999</t>
+  </si>
+  <si>
     <t>1999-10-01</t>
-  </si>
-  <si>
-    <t>1999</t>
   </si>
   <si>
     <t>CRUS9900</t>
@@ -4325,13 +4325,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -4525,13 +4525,13 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
@@ -4545,13 +4545,13 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
         <v>24</v>
@@ -4585,13 +4585,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
         <v>24</v>
@@ -4625,13 +4625,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
@@ -4645,13 +4645,13 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -4725,13 +4725,13 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
@@ -5065,13 +5065,13 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
@@ -5105,13 +5105,13 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s">
         <v>24</v>
@@ -5125,13 +5125,13 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
         <v>24</v>
@@ -5185,13 +5185,13 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D47" t="s">
         <v>66</v>
       </c>
       <c r="E47" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
@@ -5225,13 +5225,13 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D49" t="s">
         <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
@@ -5365,13 +5365,13 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D56" t="s">
         <v>66</v>
       </c>
       <c r="E56" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F56" t="s">
         <v>24</v>
@@ -5445,13 +5445,13 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D60" t="s">
         <v>66</v>
       </c>
       <c r="E60" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
@@ -5465,13 +5465,13 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D61" t="s">
         <v>66</v>
       </c>
       <c r="E61" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="F61" t="s">
         <v>24</v>
@@ -5485,13 +5485,13 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D62" t="s">
         <v>66</v>
       </c>
       <c r="E62" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F62" t="s">
         <v>24</v>
@@ -5505,13 +5505,13 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="D63" t="s">
         <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="F63" t="s">
         <v>24</v>
@@ -5525,13 +5525,13 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D64" t="s">
         <v>66</v>
       </c>
       <c r="E64" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="F64" t="s">
         <v>24</v>
@@ -5565,13 +5565,13 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D66" t="s">
         <v>66</v>
       </c>
       <c r="E66" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
@@ -5585,13 +5585,13 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D67" t="s">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="F67" t="s">
         <v>24</v>
@@ -5645,13 +5645,13 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="D70" t="s">
         <v>66</v>
       </c>
       <c r="E70" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
@@ -5705,13 +5705,13 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D73" t="s">
         <v>66</v>
       </c>
       <c r="E73" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
@@ -5825,13 +5825,13 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D79" t="s">
         <v>66</v>
       </c>
       <c r="E79" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F79" t="s">
         <v>24</v>
@@ -6085,13 +6085,13 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="D92" t="s">
         <v>66</v>
       </c>
       <c r="E92" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="F92" t="s">
         <v>16</v>
@@ -6125,13 +6125,13 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="D94" t="s">
         <v>66</v>
       </c>
       <c r="E94" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="F94" t="s">
         <v>24</v>
@@ -6145,13 +6145,13 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="D95" t="s">
         <v>66</v>
       </c>
       <c r="E95" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="F95" t="s">
         <v>24</v>
@@ -6325,13 +6325,13 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D104" t="s">
         <v>134</v>
       </c>
       <c r="E104" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F104" t="s">
         <v>24</v>
@@ -6485,13 +6485,13 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="D112" t="s">
         <v>134</v>
       </c>
       <c r="E112" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F112" t="s">
         <v>24</v>
@@ -6665,13 +6665,13 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="D121" t="s">
         <v>134</v>
       </c>
       <c r="E121" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="F121" t="s">
         <v>19</v>
@@ -6685,13 +6685,13 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="D122" t="s">
         <v>134</v>
       </c>
       <c r="E122" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
@@ -6905,13 +6905,13 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="D133" t="s">
         <v>134</v>
       </c>
       <c r="E133" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="F133" t="s">
         <v>24</v>
@@ -6945,13 +6945,13 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="D135" t="s">
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="F135" t="s">
         <v>24</v>
@@ -7365,13 +7365,13 @@
         <v>108</v>
       </c>
       <c r="C156" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="D156" t="s">
         <v>194</v>
       </c>
       <c r="E156" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="F156" t="s">
         <v>24</v>
@@ -7445,13 +7445,13 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="D160" t="s">
         <v>194</v>
       </c>
       <c r="E160" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="F160" t="s">
         <v>24</v>
@@ -7685,13 +7685,13 @@
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D172" t="s">
         <v>194</v>
       </c>
       <c r="E172" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="F172" t="s">
         <v>16</v>
@@ -7705,13 +7705,13 @@
         <v>108</v>
       </c>
       <c r="C173" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D173" t="s">
         <v>194</v>
       </c>
       <c r="E173" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F173" t="s">
         <v>16</v>
@@ -7885,13 +7885,13 @@
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
       <c r="D182" t="s">
         <v>194</v>
       </c>
       <c r="E182" t="s">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="F182" t="s">
         <v>16</v>
@@ -7985,13 +7985,13 @@
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="D187" t="s">
         <v>194</v>
       </c>
       <c r="E187" t="s">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c r="F187" t="s">
         <v>24</v>
@@ -8025,13 +8025,13 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D189" t="s">
         <v>194</v>
       </c>
       <c r="E189" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F189" t="s">
         <v>13</v>
@@ -8105,13 +8105,13 @@
         <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D193" t="s">
         <v>262</v>
       </c>
       <c r="E193" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F193" t="s">
         <v>19</v>
@@ -8125,13 +8125,13 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D194" t="s">
         <v>262</v>
       </c>
       <c r="E194" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F194" t="s">
         <v>13</v>
@@ -8145,13 +8145,13 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D195" t="s">
         <v>262</v>
       </c>
       <c r="E195" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F195" t="s">
         <v>19</v>
@@ -8165,13 +8165,13 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D196" t="s">
         <v>262</v>
       </c>
       <c r="E196" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F196" t="s">
         <v>19</v>
@@ -8185,13 +8185,13 @@
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D197" t="s">
         <v>262</v>
       </c>
       <c r="E197" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F197" t="s">
         <v>13</v>
@@ -8205,13 +8205,13 @@
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D198" t="s">
         <v>262</v>
       </c>
       <c r="E198" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F198" t="s">
         <v>19</v>
@@ -8225,13 +8225,13 @@
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D199" t="s">
         <v>262</v>
       </c>
       <c r="E199" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F199" t="s">
         <v>19</v>
@@ -8245,13 +8245,13 @@
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D200" t="s">
         <v>262</v>
       </c>
       <c r="E200" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F200" t="s">
         <v>19</v>
@@ -8265,13 +8265,13 @@
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D201" t="s">
         <v>262</v>
       </c>
       <c r="E201" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F201" t="s">
         <v>19</v>
@@ -8285,13 +8285,13 @@
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D202" t="s">
         <v>262</v>
       </c>
       <c r="E202" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F202" t="s">
         <v>19</v>
@@ -8305,13 +8305,13 @@
         <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D203" t="s">
         <v>262</v>
       </c>
       <c r="E203" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F203" t="s">
         <v>13</v>
@@ -8325,13 +8325,13 @@
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="D204" t="s">
         <v>262</v>
       </c>
       <c r="E204" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="F204" t="s">
         <v>19</v>
@@ -8345,13 +8345,13 @@
         <v>108</v>
       </c>
       <c r="C205" t="s">
-        <v>277</v>
+        <v>193</v>
       </c>
       <c r="D205" t="s">
         <v>262</v>
       </c>
       <c r="E205" t="s">
-        <v>195</v>
+        <v>277</v>
       </c>
       <c r="F205" t="s">
         <v>19</v>
@@ -8385,13 +8385,13 @@
         <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D207" t="s">
         <v>262</v>
       </c>
       <c r="E207" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F207" t="s">
         <v>19</v>
@@ -8405,13 +8405,13 @@
         <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="D208" t="s">
         <v>262</v>
       </c>
       <c r="E208" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="F208" t="s">
         <v>19</v>
@@ -8425,13 +8425,13 @@
         <v>108</v>
       </c>
       <c r="C209" t="s">
-        <v>277</v>
+        <v>193</v>
       </c>
       <c r="D209" t="s">
         <v>262</v>
       </c>
       <c r="E209" t="s">
-        <v>195</v>
+        <v>277</v>
       </c>
       <c r="F209" t="s">
         <v>19</v>
@@ -8465,13 +8465,13 @@
         <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D211" t="s">
         <v>262</v>
       </c>
       <c r="E211" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F211" t="s">
         <v>19</v>
@@ -8505,13 +8505,13 @@
         <v>7</v>
       </c>
       <c r="C213" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="D213" t="s">
         <v>262</v>
       </c>
       <c r="E213" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="F213" t="s">
         <v>19</v>
@@ -8525,13 +8525,13 @@
         <v>108</v>
       </c>
       <c r="C214" t="s">
-        <v>277</v>
+        <v>193</v>
       </c>
       <c r="D214" t="s">
         <v>262</v>
       </c>
       <c r="E214" t="s">
-        <v>195</v>
+        <v>277</v>
       </c>
       <c r="F214" t="s">
         <v>19</v>
@@ -8545,13 +8545,13 @@
         <v>7</v>
       </c>
       <c r="C215" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D215" t="s">
         <v>262</v>
       </c>
       <c r="E215" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F215" t="s">
         <v>19</v>
@@ -8565,13 +8565,13 @@
         <v>7</v>
       </c>
       <c r="C216" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="D216" t="s">
         <v>262</v>
       </c>
       <c r="E216" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="F216" t="s">
         <v>24</v>
@@ -8605,13 +8605,13 @@
         <v>7</v>
       </c>
       <c r="C218" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D218" t="s">
         <v>262</v>
       </c>
       <c r="E218" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F218" t="s">
         <v>19</v>
@@ -8625,13 +8625,13 @@
         <v>108</v>
       </c>
       <c r="C219" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="D219" t="s">
         <v>262</v>
       </c>
       <c r="E219" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="F219" t="s">
         <v>24</v>
@@ -8645,13 +8645,13 @@
         <v>7</v>
       </c>
       <c r="C220" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D220" t="s">
         <v>262</v>
       </c>
       <c r="E220" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F220" t="s">
         <v>24</v>
@@ -8665,13 +8665,13 @@
         <v>7</v>
       </c>
       <c r="C221" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D221" t="s">
         <v>262</v>
       </c>
       <c r="E221" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F221" t="s">
         <v>19</v>
@@ -8685,13 +8685,13 @@
         <v>7</v>
       </c>
       <c r="C222" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D222" t="s">
         <v>262</v>
       </c>
       <c r="E222" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F222" t="s">
         <v>19</v>
@@ -8705,13 +8705,13 @@
         <v>7</v>
       </c>
       <c r="C223" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D223" t="s">
         <v>262</v>
       </c>
       <c r="E223" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F223" t="s">
         <v>19</v>
@@ -8725,13 +8725,13 @@
         <v>7</v>
       </c>
       <c r="C224" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="D224" t="s">
         <v>262</v>
       </c>
       <c r="E224" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="F224" t="s">
         <v>16</v>
@@ -8745,13 +8745,13 @@
         <v>7</v>
       </c>
       <c r="C225" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="D225" t="s">
         <v>262</v>
       </c>
       <c r="E225" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="F225" t="s">
         <v>16</v>
@@ -8765,13 +8765,13 @@
         <v>7</v>
       </c>
       <c r="C226" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D226" t="s">
         <v>262</v>
       </c>
       <c r="E226" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F226" t="s">
         <v>19</v>
@@ -8785,13 +8785,13 @@
         <v>7</v>
       </c>
       <c r="C227" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D227" t="s">
         <v>262</v>
       </c>
       <c r="E227" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F227" t="s">
         <v>19</v>
@@ -8805,13 +8805,13 @@
         <v>7</v>
       </c>
       <c r="C228" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="D228" t="s">
         <v>262</v>
       </c>
       <c r="E228" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="F228" t="s">
         <v>24</v>
@@ -8825,13 +8825,13 @@
         <v>108</v>
       </c>
       <c r="C229" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="D229" t="s">
         <v>262</v>
       </c>
       <c r="E229" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="F229" t="s">
         <v>16</v>
@@ -8845,13 +8845,13 @@
         <v>7</v>
       </c>
       <c r="C230" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D230" t="s">
         <v>262</v>
       </c>
       <c r="E230" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F230" t="s">
         <v>19</v>
@@ -8865,13 +8865,13 @@
         <v>7</v>
       </c>
       <c r="C231" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D231" t="s">
         <v>262</v>
       </c>
       <c r="E231" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F231" t="s">
         <v>19</v>
@@ -8885,13 +8885,13 @@
         <v>7</v>
       </c>
       <c r="C232" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D232" t="s">
         <v>262</v>
       </c>
       <c r="E232" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F232" t="s">
         <v>13</v>
@@ -8905,13 +8905,13 @@
         <v>7</v>
       </c>
       <c r="C233" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D233" t="s">
         <v>262</v>
       </c>
       <c r="E233" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F233" t="s">
         <v>13</v>
@@ -8925,13 +8925,13 @@
         <v>7</v>
       </c>
       <c r="C234" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D234" t="s">
         <v>262</v>
       </c>
       <c r="E234" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F234" t="s">
         <v>19</v>
@@ -8945,13 +8945,13 @@
         <v>7</v>
       </c>
       <c r="C235" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D235" t="s">
         <v>262</v>
       </c>
       <c r="E235" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F235" t="s">
         <v>19</v>
@@ -8965,13 +8965,13 @@
         <v>7</v>
       </c>
       <c r="C236" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D236" t="s">
         <v>262</v>
       </c>
       <c r="E236" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F236" t="s">
         <v>13</v>
@@ -8985,13 +8985,13 @@
         <v>7</v>
       </c>
       <c r="C237" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D237" t="s">
         <v>262</v>
       </c>
       <c r="E237" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F237" t="s">
         <v>19</v>
@@ -9005,13 +9005,13 @@
         <v>7</v>
       </c>
       <c r="C238" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D238" t="s">
         <v>262</v>
       </c>
       <c r="E238" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F238" t="s">
         <v>19</v>
@@ -9025,13 +9025,13 @@
         <v>7</v>
       </c>
       <c r="C239" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D239" t="s">
         <v>262</v>
       </c>
       <c r="E239" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F239" t="s">
         <v>13</v>
@@ -9045,13 +9045,13 @@
         <v>7</v>
       </c>
       <c r="C240" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D240" t="s">
         <v>262</v>
       </c>
       <c r="E240" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F240" t="s">
         <v>19</v>
@@ -9065,13 +9065,13 @@
         <v>7</v>
       </c>
       <c r="C241" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D241" t="s">
         <v>262</v>
       </c>
       <c r="E241" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F241" t="s">
         <v>19</v>
@@ -9085,13 +9085,13 @@
         <v>7</v>
       </c>
       <c r="C242" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D242" t="s">
         <v>262</v>
       </c>
       <c r="E242" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F242" t="s">
         <v>19</v>
@@ -9105,13 +9105,13 @@
         <v>7</v>
       </c>
       <c r="C243" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D243" t="s">
         <v>262</v>
       </c>
       <c r="E243" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F243" t="s">
         <v>19</v>
@@ -9145,13 +9145,13 @@
         <v>7</v>
       </c>
       <c r="C245" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D245" t="s">
         <v>330</v>
       </c>
       <c r="E245" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F245" t="s">
         <v>16</v>
@@ -9185,13 +9185,13 @@
         <v>7</v>
       </c>
       <c r="C247" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D247" t="s">
         <v>330</v>
       </c>
       <c r="E247" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F247" t="s">
         <v>16</v>
@@ -9265,13 +9265,13 @@
         <v>7</v>
       </c>
       <c r="C251" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="D251" t="s">
         <v>330</v>
       </c>
       <c r="E251" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="F251" t="s">
         <v>16</v>
@@ -9305,13 +9305,13 @@
         <v>7</v>
       </c>
       <c r="C253" t="s">
-        <v>343</v>
+        <v>265</v>
       </c>
       <c r="D253" t="s">
         <v>330</v>
       </c>
       <c r="E253" t="s">
-        <v>265</v>
+        <v>343</v>
       </c>
       <c r="F253" t="s">
         <v>19</v>
@@ -9365,13 +9365,13 @@
         <v>7</v>
       </c>
       <c r="C256" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D256" t="s">
         <v>330</v>
       </c>
       <c r="E256" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F256" t="s">
         <v>16</v>
@@ -9385,13 +9385,13 @@
         <v>7</v>
       </c>
       <c r="C257" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D257" t="s">
         <v>330</v>
       </c>
       <c r="E257" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F257" t="s">
         <v>16</v>
@@ -9405,13 +9405,13 @@
         <v>108</v>
       </c>
       <c r="C258" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="D258" t="s">
         <v>330</v>
       </c>
       <c r="E258" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="F258" t="s">
         <v>19</v>
@@ -9485,13 +9485,13 @@
         <v>7</v>
       </c>
       <c r="C262" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D262" t="s">
         <v>330</v>
       </c>
       <c r="E262" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F262" t="s">
         <v>16</v>
@@ -9505,13 +9505,13 @@
         <v>108</v>
       </c>
       <c r="C263" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D263" t="s">
         <v>330</v>
       </c>
       <c r="E263" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F263" t="s">
         <v>16</v>
@@ -9545,13 +9545,13 @@
         <v>7</v>
       </c>
       <c r="C265" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D265" t="s">
         <v>330</v>
       </c>
       <c r="E265" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F265" t="s">
         <v>16</v>
@@ -9585,13 +9585,13 @@
         <v>7</v>
       </c>
       <c r="C267" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D267" t="s">
         <v>330</v>
       </c>
       <c r="E267" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F267" t="s">
         <v>16</v>
@@ -9605,13 +9605,13 @@
         <v>7</v>
       </c>
       <c r="C268" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="D268" t="s">
         <v>330</v>
       </c>
       <c r="E268" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="F268" t="s">
         <v>16</v>
@@ -9625,13 +9625,13 @@
         <v>108</v>
       </c>
       <c r="C269" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D269" t="s">
         <v>330</v>
       </c>
       <c r="E269" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F269" t="s">
         <v>16</v>
@@ -9645,13 +9645,13 @@
         <v>7</v>
       </c>
       <c r="C270" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D270" t="s">
         <v>330</v>
       </c>
       <c r="E270" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F270" t="s">
         <v>16</v>
@@ -9685,13 +9685,13 @@
         <v>7</v>
       </c>
       <c r="C272" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D272" t="s">
         <v>330</v>
       </c>
       <c r="E272" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F272" t="s">
         <v>16</v>
@@ -9725,13 +9725,13 @@
         <v>7</v>
       </c>
       <c r="C274" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D274" t="s">
         <v>330</v>
       </c>
       <c r="E274" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F274" t="s">
         <v>16</v>
@@ -9745,13 +9745,13 @@
         <v>7</v>
       </c>
       <c r="C275" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="D275" t="s">
         <v>330</v>
       </c>
       <c r="E275" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="F275" t="s">
         <v>16</v>
@@ -9785,13 +9785,13 @@
         <v>7</v>
       </c>
       <c r="C277" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D277" t="s">
         <v>330</v>
       </c>
       <c r="E277" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F277" t="s">
         <v>16</v>
@@ -9825,13 +9825,13 @@
         <v>7</v>
       </c>
       <c r="C279" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D279" t="s">
         <v>330</v>
       </c>
       <c r="E279" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F279" t="s">
         <v>16</v>
@@ -9885,13 +9885,13 @@
         <v>7</v>
       </c>
       <c r="C282" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D282" t="s">
         <v>330</v>
       </c>
       <c r="E282" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F282" t="s">
         <v>16</v>
@@ -9985,13 +9985,13 @@
         <v>7</v>
       </c>
       <c r="C287" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="D287" t="s">
         <v>330</v>
       </c>
       <c r="E287" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="F287" t="s">
         <v>16</v>
@@ -10005,13 +10005,13 @@
         <v>7</v>
       </c>
       <c r="C288" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D288" t="s">
         <v>330</v>
       </c>
       <c r="E288" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F288" t="s">
         <v>16</v>
@@ -10065,13 +10065,13 @@
         <v>7</v>
       </c>
       <c r="C291" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="D291" t="s">
         <v>330</v>
       </c>
       <c r="E291" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="F291" t="s">
         <v>16</v>
@@ -10085,13 +10085,13 @@
         <v>7</v>
       </c>
       <c r="C292" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D292" t="s">
         <v>330</v>
       </c>
       <c r="E292" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F292" t="s">
         <v>16</v>
@@ -10225,13 +10225,13 @@
         <v>7</v>
       </c>
       <c r="C299" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D299" t="s">
         <v>330</v>
       </c>
       <c r="E299" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F299" t="s">
         <v>16</v>
@@ -10245,13 +10245,13 @@
         <v>7</v>
       </c>
       <c r="C300" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D300" t="s">
         <v>330</v>
       </c>
       <c r="E300" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F300" t="s">
         <v>16</v>
@@ -10265,13 +10265,13 @@
         <v>7</v>
       </c>
       <c r="C301" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D301" t="s">
         <v>330</v>
       </c>
       <c r="E301" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F301" t="s">
         <v>16</v>
@@ -10305,13 +10305,13 @@
         <v>7</v>
       </c>
       <c r="C303" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D303" t="s">
         <v>330</v>
       </c>
       <c r="E303" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F303" t="s">
         <v>16</v>
@@ -10365,13 +10365,13 @@
         <v>7</v>
       </c>
       <c r="C306" t="s">
-        <v>405</v>
+        <v>353</v>
       </c>
       <c r="D306" t="s">
         <v>330</v>
       </c>
       <c r="E306" t="s">
-        <v>354</v>
+        <v>405</v>
       </c>
       <c r="F306" t="s">
         <v>16</v>
@@ -10385,13 +10385,13 @@
         <v>7</v>
       </c>
       <c r="C307" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D307" t="s">
         <v>330</v>
       </c>
       <c r="E307" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F307" t="s">
         <v>16</v>
@@ -10685,13 +10685,13 @@
         <v>7</v>
       </c>
       <c r="C322" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="D322" t="s">
         <v>410</v>
       </c>
       <c r="E322" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="F322" t="s">
         <v>16</v>
@@ -10725,13 +10725,13 @@
         <v>7</v>
       </c>
       <c r="C324" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="D324" t="s">
         <v>410</v>
       </c>
       <c r="E324" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="F324" t="s">
         <v>24</v>
@@ -10845,13 +10845,13 @@
         <v>7</v>
       </c>
       <c r="C330" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="D330" t="s">
         <v>410</v>
       </c>
       <c r="E330" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="F330" t="s">
         <v>19</v>
@@ -11105,13 +11105,13 @@
         <v>108</v>
       </c>
       <c r="C343" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D343" t="s">
         <v>410</v>
       </c>
       <c r="E343" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F343" t="s">
         <v>24</v>
@@ -11145,13 +11145,13 @@
         <v>108</v>
       </c>
       <c r="C345" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D345" t="s">
         <v>454</v>
       </c>
       <c r="E345" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F345" t="s">
         <v>16</v>
@@ -11345,13 +11345,13 @@
         <v>7</v>
       </c>
       <c r="C355" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="D355" t="s">
         <v>454</v>
       </c>
       <c r="E355" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="F355" t="s">
         <v>16</v>
@@ -11545,13 +11545,13 @@
         <v>7</v>
       </c>
       <c r="C365" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="D365" t="s">
         <v>454</v>
       </c>
       <c r="E365" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="F365" t="s">
         <v>16</v>
@@ -11565,13 +11565,13 @@
         <v>7</v>
       </c>
       <c r="C366" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D366" t="s">
         <v>454</v>
       </c>
       <c r="E366" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F366" t="s">
         <v>13</v>
@@ -11645,13 +11645,13 @@
         <v>7</v>
       </c>
       <c r="C370" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="D370" t="s">
         <v>454</v>
       </c>
       <c r="E370" t="s">
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="F370" t="s">
         <v>19</v>
@@ -11825,13 +11825,13 @@
         <v>7</v>
       </c>
       <c r="C379" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D379" t="s">
         <v>496</v>
       </c>
       <c r="E379" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="F379" t="s">
         <v>13</v>
@@ -11945,13 +11945,13 @@
         <v>7</v>
       </c>
       <c r="C385" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="D385" t="s">
         <v>496</v>
       </c>
       <c r="E385" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="F385" t="s">
         <v>16</v>
@@ -11965,13 +11965,13 @@
         <v>7</v>
       </c>
       <c r="C386" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="D386" t="s">
         <v>496</v>
       </c>
       <c r="E386" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="F386" t="s">
         <v>19</v>
@@ -12085,13 +12085,13 @@
         <v>7</v>
       </c>
       <c r="C392" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="D392" t="s">
         <v>496</v>
       </c>
       <c r="E392" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="F392" t="s">
         <v>16</v>
@@ -12365,13 +12365,13 @@
         <v>7</v>
       </c>
       <c r="C406" t="s">
-        <v>541</v>
+        <v>495</v>
       </c>
       <c r="D406" t="s">
         <v>496</v>
       </c>
       <c r="E406" t="s">
-        <v>497</v>
+        <v>541</v>
       </c>
       <c r="F406" t="s">
         <v>19</v>
@@ -12605,13 +12605,13 @@
         <v>7</v>
       </c>
       <c r="C418" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D418" t="s">
         <v>553</v>
       </c>
       <c r="E418" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="F418" t="s">
         <v>24</v>
@@ -12645,13 +12645,13 @@
         <v>7</v>
       </c>
       <c r="C420" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="D420" t="s">
         <v>553</v>
       </c>
       <c r="E420" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F420" t="s">
         <v>19</v>
@@ -12885,13 +12885,13 @@
         <v>7</v>
       </c>
       <c r="C432" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
       <c r="D432" t="s">
         <v>553</v>
       </c>
       <c r="E432" t="s">
-        <v>554</v>
+        <v>577</v>
       </c>
       <c r="F432" t="s">
         <v>24</v>
@@ -12945,13 +12945,13 @@
         <v>7</v>
       </c>
       <c r="C435" t="s">
-        <v>581</v>
+        <v>552</v>
       </c>
       <c r="D435" t="s">
         <v>553</v>
       </c>
       <c r="E435" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="F435" t="s">
         <v>24</v>
@@ -12965,13 +12965,13 @@
         <v>7</v>
       </c>
       <c r="C436" t="s">
-        <v>583</v>
+        <v>552</v>
       </c>
       <c r="D436" t="s">
         <v>553</v>
       </c>
       <c r="E436" t="s">
-        <v>554</v>
+        <v>583</v>
       </c>
       <c r="F436" t="s">
         <v>19</v>
@@ -13525,13 +13525,13 @@
         <v>7</v>
       </c>
       <c r="C464" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="D464" t="s">
         <v>607</v>
       </c>
       <c r="E464" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="F464" t="s">
         <v>24</v>
@@ -13545,13 +13545,13 @@
         <v>7</v>
       </c>
       <c r="C465" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D465" t="s">
         <v>607</v>
       </c>
       <c r="E465" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="F465" t="s">
         <v>24</v>
@@ -13685,13 +13685,13 @@
         <v>7</v>
       </c>
       <c r="C472" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
       <c r="D472" t="s">
         <v>607</v>
       </c>
       <c r="E472" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="F472" t="s">
         <v>24</v>
@@ -13985,13 +13985,13 @@
         <v>7</v>
       </c>
       <c r="C487" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D487" t="s">
         <v>652</v>
       </c>
       <c r="E487" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="F487" t="s">
         <v>609</v>
@@ -14065,13 +14065,13 @@
         <v>108</v>
       </c>
       <c r="C491" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="D491" t="s">
         <v>652</v>
       </c>
       <c r="E491" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="F491" t="s">
         <v>19</v>
@@ -14105,13 +14105,13 @@
         <v>7</v>
       </c>
       <c r="C493" t="s">
-        <v>630</v>
+        <v>663</v>
       </c>
       <c r="D493" t="s">
         <v>652</v>
       </c>
       <c r="E493" t="s">
-        <v>663</v>
+        <v>631</v>
       </c>
       <c r="F493" t="s">
         <v>13</v>
@@ -14125,13 +14125,13 @@
         <v>108</v>
       </c>
       <c r="C494" t="s">
-        <v>630</v>
+        <v>663</v>
       </c>
       <c r="D494" t="s">
         <v>652</v>
       </c>
       <c r="E494" t="s">
-        <v>663</v>
+        <v>631</v>
       </c>
       <c r="F494" t="s">
         <v>16</v>
@@ -14185,13 +14185,13 @@
         <v>7</v>
       </c>
       <c r="C497" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="D497" t="s">
         <v>652</v>
       </c>
       <c r="E497" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="F497" t="s">
         <v>609</v>
@@ -14265,13 +14265,13 @@
         <v>108</v>
       </c>
       <c r="C501" t="s">
-        <v>673</v>
+        <v>651</v>
       </c>
       <c r="D501" t="s">
         <v>652</v>
       </c>
       <c r="E501" t="s">
-        <v>653</v>
+        <v>673</v>
       </c>
       <c r="F501" t="s">
         <v>19</v>
@@ -14405,13 +14405,13 @@
         <v>108</v>
       </c>
       <c r="C508" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="D508" t="s">
         <v>652</v>
       </c>
       <c r="E508" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F508" t="s">
         <v>19</v>
@@ -14465,13 +14465,13 @@
         <v>7</v>
       </c>
       <c r="C511" t="s">
-        <v>691</v>
+        <v>651</v>
       </c>
       <c r="D511" t="s">
         <v>652</v>
       </c>
       <c r="E511" t="s">
-        <v>653</v>
+        <v>691</v>
       </c>
       <c r="F511" t="s">
         <v>16</v>
@@ -14485,13 +14485,13 @@
         <v>108</v>
       </c>
       <c r="C512" t="s">
-        <v>651</v>
+        <v>693</v>
       </c>
       <c r="D512" t="s">
         <v>652</v>
       </c>
       <c r="E512" t="s">
-        <v>693</v>
+        <v>653</v>
       </c>
       <c r="F512" t="s">
         <v>19</v>
@@ -14645,13 +14645,13 @@
         <v>108</v>
       </c>
       <c r="C520" t="s">
-        <v>702</v>
+        <v>651</v>
       </c>
       <c r="D520" t="s">
         <v>652</v>
       </c>
       <c r="E520" t="s">
-        <v>653</v>
+        <v>702</v>
       </c>
       <c r="F520" t="s">
         <v>19</v>
@@ -14665,13 +14665,13 @@
         <v>108</v>
       </c>
       <c r="C521" t="s">
-        <v>704</v>
+        <v>651</v>
       </c>
       <c r="D521" t="s">
         <v>652</v>
       </c>
       <c r="E521" t="s">
-        <v>653</v>
+        <v>704</v>
       </c>
       <c r="F521" t="s">
         <v>13</v>
@@ -14685,13 +14685,13 @@
         <v>7</v>
       </c>
       <c r="C522" t="s">
-        <v>706</v>
+        <v>651</v>
       </c>
       <c r="D522" t="s">
         <v>652</v>
       </c>
       <c r="E522" t="s">
-        <v>653</v>
+        <v>706</v>
       </c>
       <c r="F522" t="s">
         <v>24</v>
@@ -14725,13 +14725,13 @@
         <v>7</v>
       </c>
       <c r="C524" t="s">
+        <v>709</v>
+      </c>
+      <c r="D524" t="s">
+        <v>710</v>
+      </c>
+      <c r="E524" t="s">
         <v>655</v>
-      </c>
-      <c r="D524" t="s">
-        <v>709</v>
-      </c>
-      <c r="E524" t="s">
-        <v>710</v>
       </c>
       <c r="F524" t="s">
         <v>711</v>
@@ -14745,13 +14745,13 @@
         <v>7</v>
       </c>
       <c r="C525" t="s">
+        <v>709</v>
+      </c>
+      <c r="D525" t="s">
+        <v>710</v>
+      </c>
+      <c r="E525" t="s">
         <v>655</v>
-      </c>
-      <c r="D525" t="s">
-        <v>709</v>
-      </c>
-      <c r="E525" t="s">
-        <v>710</v>
       </c>
       <c r="F525" t="s">
         <v>711</v>
@@ -14765,13 +14765,13 @@
         <v>7</v>
       </c>
       <c r="C526" t="s">
+        <v>709</v>
+      </c>
+      <c r="D526" t="s">
+        <v>710</v>
+      </c>
+      <c r="E526" t="s">
         <v>655</v>
-      </c>
-      <c r="D526" t="s">
-        <v>709</v>
-      </c>
-      <c r="E526" t="s">
-        <v>710</v>
       </c>
       <c r="F526" t="s">
         <v>711</v>
@@ -14785,13 +14785,13 @@
         <v>7</v>
       </c>
       <c r="C527" t="s">
+        <v>709</v>
+      </c>
+      <c r="D527" t="s">
+        <v>710</v>
+      </c>
+      <c r="E527" t="s">
         <v>655</v>
-      </c>
-      <c r="D527" t="s">
-        <v>709</v>
-      </c>
-      <c r="E527" t="s">
-        <v>710</v>
       </c>
       <c r="F527" t="s">
         <v>711</v>
@@ -14805,13 +14805,13 @@
         <v>7</v>
       </c>
       <c r="C528" t="s">
+        <v>709</v>
+      </c>
+      <c r="D528" t="s">
+        <v>710</v>
+      </c>
+      <c r="E528" t="s">
         <v>716</v>
-      </c>
-      <c r="D528" t="s">
-        <v>709</v>
-      </c>
-      <c r="E528" t="s">
-        <v>710</v>
       </c>
       <c r="F528" t="s">
         <v>16</v>
@@ -14825,13 +14825,13 @@
         <v>7</v>
       </c>
       <c r="C529" t="s">
+        <v>718</v>
+      </c>
+      <c r="D529" t="s">
+        <v>710</v>
+      </c>
+      <c r="E529" t="s">
         <v>655</v>
-      </c>
-      <c r="D529" t="s">
-        <v>709</v>
-      </c>
-      <c r="E529" t="s">
-        <v>718</v>
       </c>
       <c r="F529" t="s">
         <v>711</v>
@@ -14845,13 +14845,13 @@
         <v>7</v>
       </c>
       <c r="C530" t="s">
+        <v>709</v>
+      </c>
+      <c r="D530" t="s">
+        <v>710</v>
+      </c>
+      <c r="E530" t="s">
         <v>655</v>
-      </c>
-      <c r="D530" t="s">
-        <v>709</v>
-      </c>
-      <c r="E530" t="s">
-        <v>710</v>
       </c>
       <c r="F530" t="s">
         <v>711</v>
@@ -14865,13 +14865,13 @@
         <v>7</v>
       </c>
       <c r="C531" t="s">
+        <v>709</v>
+      </c>
+      <c r="D531" t="s">
+        <v>710</v>
+      </c>
+      <c r="E531" t="s">
         <v>655</v>
-      </c>
-      <c r="D531" t="s">
-        <v>709</v>
-      </c>
-      <c r="E531" t="s">
-        <v>710</v>
       </c>
       <c r="F531" t="s">
         <v>711</v>
@@ -14885,13 +14885,13 @@
         <v>7</v>
       </c>
       <c r="C532" t="s">
+        <v>709</v>
+      </c>
+      <c r="D532" t="s">
+        <v>710</v>
+      </c>
+      <c r="E532" t="s">
         <v>655</v>
-      </c>
-      <c r="D532" t="s">
-        <v>709</v>
-      </c>
-      <c r="E532" t="s">
-        <v>710</v>
       </c>
       <c r="F532" t="s">
         <v>711</v>
@@ -14905,13 +14905,13 @@
         <v>7</v>
       </c>
       <c r="C533" t="s">
+        <v>709</v>
+      </c>
+      <c r="D533" t="s">
+        <v>710</v>
+      </c>
+      <c r="E533" t="s">
         <v>655</v>
-      </c>
-      <c r="D533" t="s">
-        <v>709</v>
-      </c>
-      <c r="E533" t="s">
-        <v>710</v>
       </c>
       <c r="F533" t="s">
         <v>711</v>
@@ -14925,13 +14925,13 @@
         <v>7</v>
       </c>
       <c r="C534" t="s">
+        <v>709</v>
+      </c>
+      <c r="D534" t="s">
+        <v>710</v>
+      </c>
+      <c r="E534" t="s">
         <v>655</v>
-      </c>
-      <c r="D534" t="s">
-        <v>709</v>
-      </c>
-      <c r="E534" t="s">
-        <v>710</v>
       </c>
       <c r="F534" t="s">
         <v>711</v>
@@ -14945,13 +14945,13 @@
         <v>7</v>
       </c>
       <c r="C535" t="s">
+        <v>709</v>
+      </c>
+      <c r="D535" t="s">
+        <v>710</v>
+      </c>
+      <c r="E535" t="s">
         <v>725</v>
-      </c>
-      <c r="D535" t="s">
-        <v>709</v>
-      </c>
-      <c r="E535" t="s">
-        <v>710</v>
       </c>
       <c r="F535" t="s">
         <v>16</v>
@@ -14965,13 +14965,13 @@
         <v>7</v>
       </c>
       <c r="C536" t="s">
+        <v>709</v>
+      </c>
+      <c r="D536" t="s">
+        <v>710</v>
+      </c>
+      <c r="E536" t="s">
         <v>727</v>
-      </c>
-      <c r="D536" t="s">
-        <v>709</v>
-      </c>
-      <c r="E536" t="s">
-        <v>710</v>
       </c>
       <c r="F536" t="s">
         <v>16</v>
@@ -14985,13 +14985,13 @@
         <v>7</v>
       </c>
       <c r="C537" t="s">
+        <v>709</v>
+      </c>
+      <c r="D537" t="s">
+        <v>710</v>
+      </c>
+      <c r="E537" t="s">
         <v>655</v>
-      </c>
-      <c r="D537" t="s">
-        <v>709</v>
-      </c>
-      <c r="E537" t="s">
-        <v>710</v>
       </c>
       <c r="F537" t="s">
         <v>711</v>
@@ -15005,13 +15005,13 @@
         <v>7</v>
       </c>
       <c r="C538" t="s">
+        <v>709</v>
+      </c>
+      <c r="D538" t="s">
+        <v>710</v>
+      </c>
+      <c r="E538" t="s">
         <v>655</v>
-      </c>
-      <c r="D538" t="s">
-        <v>709</v>
-      </c>
-      <c r="E538" t="s">
-        <v>710</v>
       </c>
       <c r="F538" t="s">
         <v>711</v>
@@ -15025,13 +15025,13 @@
         <v>7</v>
       </c>
       <c r="C539" t="s">
+        <v>687</v>
+      </c>
+      <c r="D539" t="s">
+        <v>710</v>
+      </c>
+      <c r="E539" t="s">
         <v>655</v>
-      </c>
-      <c r="D539" t="s">
-        <v>709</v>
-      </c>
-      <c r="E539" t="s">
-        <v>688</v>
       </c>
       <c r="F539" t="s">
         <v>711</v>
@@ -15045,13 +15045,13 @@
         <v>7</v>
       </c>
       <c r="C540" t="s">
+        <v>709</v>
+      </c>
+      <c r="D540" t="s">
+        <v>710</v>
+      </c>
+      <c r="E540" t="s">
         <v>655</v>
-      </c>
-      <c r="D540" t="s">
-        <v>709</v>
-      </c>
-      <c r="E540" t="s">
-        <v>710</v>
       </c>
       <c r="F540" t="s">
         <v>711</v>
@@ -15065,13 +15065,13 @@
         <v>7</v>
       </c>
       <c r="C541" t="s">
+        <v>709</v>
+      </c>
+      <c r="D541" t="s">
+        <v>710</v>
+      </c>
+      <c r="E541" t="s">
         <v>655</v>
-      </c>
-      <c r="D541" t="s">
-        <v>709</v>
-      </c>
-      <c r="E541" t="s">
-        <v>710</v>
       </c>
       <c r="F541" t="s">
         <v>711</v>
@@ -15085,13 +15085,13 @@
         <v>7</v>
       </c>
       <c r="C542" t="s">
+        <v>709</v>
+      </c>
+      <c r="D542" t="s">
+        <v>710</v>
+      </c>
+      <c r="E542" t="s">
         <v>655</v>
-      </c>
-      <c r="D542" t="s">
-        <v>709</v>
-      </c>
-      <c r="E542" t="s">
-        <v>710</v>
       </c>
       <c r="F542" t="s">
         <v>711</v>
@@ -15105,13 +15105,13 @@
         <v>7</v>
       </c>
       <c r="C543" t="s">
+        <v>709</v>
+      </c>
+      <c r="D543" t="s">
+        <v>710</v>
+      </c>
+      <c r="E543" t="s">
         <v>655</v>
-      </c>
-      <c r="D543" t="s">
-        <v>709</v>
-      </c>
-      <c r="E543" t="s">
-        <v>710</v>
       </c>
       <c r="F543" t="s">
         <v>711</v>
@@ -15125,13 +15125,13 @@
         <v>7</v>
       </c>
       <c r="C544" t="s">
+        <v>736</v>
+      </c>
+      <c r="D544" t="s">
+        <v>710</v>
+      </c>
+      <c r="E544" t="s">
         <v>655</v>
-      </c>
-      <c r="D544" t="s">
-        <v>709</v>
-      </c>
-      <c r="E544" t="s">
-        <v>736</v>
       </c>
       <c r="F544" t="s">
         <v>13</v>
@@ -15145,13 +15145,13 @@
         <v>7</v>
       </c>
       <c r="C545" t="s">
+        <v>709</v>
+      </c>
+      <c r="D545" t="s">
+        <v>710</v>
+      </c>
+      <c r="E545" t="s">
         <v>655</v>
-      </c>
-      <c r="D545" t="s">
-        <v>709</v>
-      </c>
-      <c r="E545" t="s">
-        <v>710</v>
       </c>
       <c r="F545" t="s">
         <v>711</v>
@@ -15165,13 +15165,13 @@
         <v>7</v>
       </c>
       <c r="C546" t="s">
+        <v>709</v>
+      </c>
+      <c r="D546" t="s">
+        <v>710</v>
+      </c>
+      <c r="E546" t="s">
         <v>655</v>
-      </c>
-      <c r="D546" t="s">
-        <v>709</v>
-      </c>
-      <c r="E546" t="s">
-        <v>710</v>
       </c>
       <c r="F546" t="s">
         <v>16</v>
@@ -15205,13 +15205,13 @@
         <v>7</v>
       </c>
       <c r="C548" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D548" t="s">
         <v>741</v>
       </c>
       <c r="E548" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="F548" t="s">
         <v>711</v>
@@ -15225,13 +15225,13 @@
         <v>7</v>
       </c>
       <c r="C549" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="D549" t="s">
         <v>741</v>
       </c>
       <c r="E549" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="F549" t="s">
         <v>711</v>
@@ -15305,13 +15305,13 @@
         <v>7</v>
       </c>
       <c r="C553" t="s">
-        <v>740</v>
+        <v>751</v>
       </c>
       <c r="D553" t="s">
         <v>741</v>
       </c>
       <c r="E553" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="F553" t="s">
         <v>711</v>
@@ -15425,13 +15425,13 @@
         <v>7</v>
       </c>
       <c r="C559" t="s">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="D559" t="s">
         <v>741</v>
       </c>
       <c r="E559" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
       <c r="F559" t="s">
         <v>711</v>
@@ -15445,13 +15445,13 @@
         <v>7</v>
       </c>
       <c r="C560" t="s">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="D560" t="s">
         <v>741</v>
       </c>
       <c r="E560" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
       <c r="F560" t="s">
         <v>711</v>
@@ -15485,13 +15485,13 @@
         <v>7</v>
       </c>
       <c r="C562" t="s">
-        <v>740</v>
+        <v>764</v>
       </c>
       <c r="D562" t="s">
         <v>741</v>
       </c>
       <c r="E562" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="F562" t="s">
         <v>16</v>
@@ -15685,13 +15685,13 @@
         <v>7</v>
       </c>
       <c r="C572" t="s">
+        <v>709</v>
+      </c>
+      <c r="D572" t="s">
         <v>777</v>
       </c>
-      <c r="D572" t="s">
+      <c r="E572" t="s">
         <v>778</v>
-      </c>
-      <c r="E572" t="s">
-        <v>710</v>
       </c>
       <c r="F572" t="s">
         <v>711</v>
@@ -15705,13 +15705,13 @@
         <v>7</v>
       </c>
       <c r="C573" t="s">
+        <v>780</v>
+      </c>
+      <c r="D573" t="s">
         <v>777</v>
       </c>
-      <c r="D573" t="s">
+      <c r="E573" t="s">
         <v>778</v>
-      </c>
-      <c r="E573" t="s">
-        <v>780</v>
       </c>
       <c r="F573" t="s">
         <v>711</v>
@@ -15725,13 +15725,13 @@
         <v>7</v>
       </c>
       <c r="C574" t="s">
+        <v>780</v>
+      </c>
+      <c r="D574" t="s">
         <v>777</v>
       </c>
-      <c r="D574" t="s">
+      <c r="E574" t="s">
         <v>778</v>
-      </c>
-      <c r="E574" t="s">
-        <v>780</v>
       </c>
       <c r="F574" t="s">
         <v>711</v>
@@ -15745,13 +15745,13 @@
         <v>7</v>
       </c>
       <c r="C575" t="s">
+        <v>780</v>
+      </c>
+      <c r="D575" t="s">
         <v>777</v>
       </c>
-      <c r="D575" t="s">
+      <c r="E575" t="s">
         <v>778</v>
-      </c>
-      <c r="E575" t="s">
-        <v>780</v>
       </c>
       <c r="F575" t="s">
         <v>711</v>
@@ -15765,13 +15765,13 @@
         <v>7</v>
       </c>
       <c r="C576" t="s">
+        <v>740</v>
+      </c>
+      <c r="D576" t="s">
         <v>777</v>
       </c>
-      <c r="D576" t="s">
+      <c r="E576" t="s">
         <v>778</v>
-      </c>
-      <c r="E576" t="s">
-        <v>742</v>
       </c>
       <c r="F576" t="s">
         <v>711</v>
@@ -15785,13 +15785,13 @@
         <v>7</v>
       </c>
       <c r="C577" t="s">
+        <v>780</v>
+      </c>
+      <c r="D577" t="s">
+        <v>777</v>
+      </c>
+      <c r="E577" t="s">
         <v>785</v>
-      </c>
-      <c r="D577" t="s">
-        <v>778</v>
-      </c>
-      <c r="E577" t="s">
-        <v>780</v>
       </c>
       <c r="F577" t="s">
         <v>711</v>
@@ -15808,7 +15808,7 @@
         <v>787</v>
       </c>
       <c r="D578" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E578" t="s">
         <v>788</v>
@@ -15825,13 +15825,13 @@
         <v>7</v>
       </c>
       <c r="C579" t="s">
+        <v>780</v>
+      </c>
+      <c r="D579" t="s">
+        <v>777</v>
+      </c>
+      <c r="E579" t="s">
         <v>790</v>
-      </c>
-      <c r="D579" t="s">
-        <v>778</v>
-      </c>
-      <c r="E579" t="s">
-        <v>780</v>
       </c>
       <c r="F579" t="s">
         <v>711</v>
@@ -15845,13 +15845,13 @@
         <v>7</v>
       </c>
       <c r="C580" t="s">
+        <v>780</v>
+      </c>
+      <c r="D580" t="s">
+        <v>777</v>
+      </c>
+      <c r="E580" t="s">
         <v>792</v>
-      </c>
-      <c r="D580" t="s">
-        <v>778</v>
-      </c>
-      <c r="E580" t="s">
-        <v>780</v>
       </c>
       <c r="F580" t="s">
         <v>16</v>
@@ -15865,13 +15865,13 @@
         <v>7</v>
       </c>
       <c r="C581" t="s">
+        <v>780</v>
+      </c>
+      <c r="D581" t="s">
         <v>777</v>
       </c>
-      <c r="D581" t="s">
+      <c r="E581" t="s">
         <v>778</v>
-      </c>
-      <c r="E581" t="s">
-        <v>780</v>
       </c>
       <c r="F581" t="s">
         <v>16</v>
@@ -15888,7 +15888,7 @@
         <v>795</v>
       </c>
       <c r="D582" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E582" t="s">
         <v>796</v>
@@ -15908,7 +15908,7 @@
         <v>798</v>
       </c>
       <c r="D583" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E583" t="s">
         <v>799</v>
@@ -15925,13 +15925,13 @@
         <v>7</v>
       </c>
       <c r="C584" t="s">
+        <v>780</v>
+      </c>
+      <c r="D584" t="s">
         <v>777</v>
       </c>
-      <c r="D584" t="s">
+      <c r="E584" t="s">
         <v>778</v>
-      </c>
-      <c r="E584" t="s">
-        <v>780</v>
       </c>
       <c r="F584" t="s">
         <v>711</v>
@@ -15948,7 +15948,7 @@
         <v>802</v>
       </c>
       <c r="D585" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E585" t="s">
         <v>803</v>
@@ -15965,13 +15965,13 @@
         <v>7</v>
       </c>
       <c r="C586" t="s">
+        <v>780</v>
+      </c>
+      <c r="D586" t="s">
+        <v>777</v>
+      </c>
+      <c r="E586" t="s">
         <v>805</v>
-      </c>
-      <c r="D586" t="s">
-        <v>778</v>
-      </c>
-      <c r="E586" t="s">
-        <v>780</v>
       </c>
       <c r="F586" t="s">
         <v>13</v>
@@ -15985,13 +15985,13 @@
         <v>7</v>
       </c>
       <c r="C587" t="s">
+        <v>780</v>
+      </c>
+      <c r="D587" t="s">
+        <v>777</v>
+      </c>
+      <c r="E587" t="s">
         <v>807</v>
-      </c>
-      <c r="D587" t="s">
-        <v>778</v>
-      </c>
-      <c r="E587" t="s">
-        <v>780</v>
       </c>
       <c r="F587" t="s">
         <v>711</v>
@@ -16005,13 +16005,13 @@
         <v>7</v>
       </c>
       <c r="C588" t="s">
+        <v>780</v>
+      </c>
+      <c r="D588" t="s">
         <v>777</v>
       </c>
-      <c r="D588" t="s">
+      <c r="E588" t="s">
         <v>778</v>
-      </c>
-      <c r="E588" t="s">
-        <v>780</v>
       </c>
       <c r="F588" t="s">
         <v>711</v>
@@ -16025,13 +16025,13 @@
         <v>7</v>
       </c>
       <c r="C589" t="s">
+        <v>780</v>
+      </c>
+      <c r="D589" t="s">
         <v>777</v>
       </c>
-      <c r="D589" t="s">
+      <c r="E589" t="s">
         <v>778</v>
-      </c>
-      <c r="E589" t="s">
-        <v>780</v>
       </c>
       <c r="F589" t="s">
         <v>24</v>
@@ -16045,13 +16045,13 @@
         <v>7</v>
       </c>
       <c r="C590" t="s">
+        <v>780</v>
+      </c>
+      <c r="D590" t="s">
         <v>777</v>
       </c>
-      <c r="D590" t="s">
+      <c r="E590" t="s">
         <v>778</v>
-      </c>
-      <c r="E590" t="s">
-        <v>780</v>
       </c>
       <c r="F590" t="s">
         <v>16</v>
@@ -16065,13 +16065,13 @@
         <v>7</v>
       </c>
       <c r="C591" t="s">
+        <v>812</v>
+      </c>
+      <c r="D591" t="s">
         <v>777</v>
       </c>
-      <c r="D591" t="s">
+      <c r="E591" t="s">
         <v>778</v>
-      </c>
-      <c r="E591" t="s">
-        <v>812</v>
       </c>
       <c r="F591" t="s">
         <v>711</v>
@@ -16085,13 +16085,13 @@
         <v>7</v>
       </c>
       <c r="C592" t="s">
+        <v>780</v>
+      </c>
+      <c r="D592" t="s">
         <v>777</v>
       </c>
-      <c r="D592" t="s">
+      <c r="E592" t="s">
         <v>778</v>
-      </c>
-      <c r="E592" t="s">
-        <v>780</v>
       </c>
       <c r="F592" t="s">
         <v>13</v>
@@ -16105,13 +16105,13 @@
         <v>7</v>
       </c>
       <c r="C593" t="s">
+        <v>780</v>
+      </c>
+      <c r="D593" t="s">
         <v>777</v>
       </c>
-      <c r="D593" t="s">
+      <c r="E593" t="s">
         <v>778</v>
-      </c>
-      <c r="E593" t="s">
-        <v>780</v>
       </c>
       <c r="F593" t="s">
         <v>711</v>
@@ -16125,13 +16125,13 @@
         <v>7</v>
       </c>
       <c r="C594" t="s">
+        <v>780</v>
+      </c>
+      <c r="D594" t="s">
         <v>777</v>
       </c>
-      <c r="D594" t="s">
+      <c r="E594" t="s">
         <v>778</v>
-      </c>
-      <c r="E594" t="s">
-        <v>780</v>
       </c>
       <c r="F594" t="s">
         <v>711</v>
@@ -16145,13 +16145,13 @@
         <v>7</v>
       </c>
       <c r="C595" t="s">
+        <v>780</v>
+      </c>
+      <c r="D595" t="s">
         <v>777</v>
       </c>
-      <c r="D595" t="s">
+      <c r="E595" t="s">
         <v>778</v>
-      </c>
-      <c r="E595" t="s">
-        <v>780</v>
       </c>
       <c r="F595" t="s">
         <v>711</v>
@@ -16325,13 +16325,13 @@
         <v>7</v>
       </c>
       <c r="C604" t="s">
-        <v>837</v>
+        <v>818</v>
       </c>
       <c r="D604" t="s">
         <v>819</v>
       </c>
       <c r="E604" t="s">
-        <v>820</v>
+        <v>837</v>
       </c>
       <c r="F604" t="s">
         <v>24</v>
@@ -16405,13 +16405,13 @@
         <v>7</v>
       </c>
       <c r="C608" t="s">
-        <v>844</v>
+        <v>805</v>
       </c>
       <c r="D608" t="s">
         <v>819</v>
       </c>
       <c r="E608" t="s">
-        <v>805</v>
+        <v>844</v>
       </c>
       <c r="F608" t="s">
         <v>711</v>
@@ -16445,13 +16445,13 @@
         <v>7</v>
       </c>
       <c r="C610" t="s">
-        <v>822</v>
+        <v>847</v>
       </c>
       <c r="D610" t="s">
         <v>819</v>
       </c>
       <c r="E610" t="s">
-        <v>847</v>
+        <v>823</v>
       </c>
       <c r="F610" t="s">
         <v>24</v>
@@ -16465,13 +16465,13 @@
         <v>7</v>
       </c>
       <c r="C611" t="s">
-        <v>849</v>
+        <v>818</v>
       </c>
       <c r="D611" t="s">
         <v>819</v>
       </c>
       <c r="E611" t="s">
-        <v>820</v>
+        <v>849</v>
       </c>
       <c r="F611" t="s">
         <v>16</v>
@@ -16505,13 +16505,13 @@
         <v>7</v>
       </c>
       <c r="C613" t="s">
-        <v>852</v>
+        <v>818</v>
       </c>
       <c r="D613" t="s">
         <v>819</v>
       </c>
       <c r="E613" t="s">
-        <v>820</v>
+        <v>852</v>
       </c>
       <c r="F613" t="s">
         <v>711</v>
@@ -16785,13 +16785,13 @@
         <v>7</v>
       </c>
       <c r="C627" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="D627" t="s">
         <v>863</v>
       </c>
       <c r="E627" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="F627" t="s">
         <v>711</v>
@@ -16805,13 +16805,13 @@
         <v>7</v>
       </c>
       <c r="C628" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="D628" t="s">
         <v>863</v>
       </c>
       <c r="E628" t="s">
-        <v>864</v>
+        <v>874</v>
       </c>
       <c r="F628" t="s">
         <v>24</v>
@@ -16865,13 +16865,13 @@
         <v>7</v>
       </c>
       <c r="C631" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="D631" t="s">
         <v>863</v>
       </c>
       <c r="E631" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="F631" t="s">
         <v>24</v>
@@ -16945,13 +16945,13 @@
         <v>7</v>
       </c>
       <c r="C635" t="s">
-        <v>887</v>
+        <v>862</v>
       </c>
       <c r="D635" t="s">
         <v>863</v>
       </c>
       <c r="E635" t="s">
-        <v>864</v>
+        <v>887</v>
       </c>
       <c r="F635" t="s">
         <v>711</v>
@@ -17065,13 +17065,13 @@
         <v>7</v>
       </c>
       <c r="C641" t="s">
-        <v>898</v>
+        <v>862</v>
       </c>
       <c r="D641" t="s">
         <v>863</v>
       </c>
       <c r="E641" t="s">
-        <v>864</v>
+        <v>898</v>
       </c>
       <c r="F641" t="s">
         <v>16</v>
@@ -17085,13 +17085,13 @@
         <v>7</v>
       </c>
       <c r="C642" t="s">
-        <v>900</v>
+        <v>862</v>
       </c>
       <c r="D642" t="s">
         <v>863</v>
       </c>
       <c r="E642" t="s">
-        <v>864</v>
+        <v>900</v>
       </c>
       <c r="F642" t="s">
         <v>16</v>
@@ -17145,13 +17145,13 @@
         <v>7</v>
       </c>
       <c r="C645" t="s">
-        <v>904</v>
+        <v>862</v>
       </c>
       <c r="D645" t="s">
         <v>863</v>
       </c>
       <c r="E645" t="s">
-        <v>864</v>
+        <v>904</v>
       </c>
       <c r="F645" t="s">
         <v>24</v>
@@ -17245,13 +17245,13 @@
         <v>7</v>
       </c>
       <c r="C650" t="s">
-        <v>908</v>
+        <v>915</v>
       </c>
       <c r="D650" t="s">
         <v>909</v>
       </c>
       <c r="E650" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="F650" t="s">
         <v>24</v>
@@ -17305,13 +17305,13 @@
         <v>7</v>
       </c>
       <c r="C653" t="s">
-        <v>900</v>
+        <v>862</v>
       </c>
       <c r="D653" t="s">
         <v>909</v>
       </c>
       <c r="E653" t="s">
-        <v>864</v>
+        <v>900</v>
       </c>
       <c r="F653" t="s">
         <v>16</v>
@@ -17405,13 +17405,13 @@
         <v>7</v>
       </c>
       <c r="C658" t="s">
-        <v>887</v>
+        <v>930</v>
       </c>
       <c r="D658" t="s">
         <v>909</v>
       </c>
       <c r="E658" t="s">
-        <v>930</v>
+        <v>887</v>
       </c>
       <c r="F658" t="s">
         <v>24</v>
@@ -17465,13 +17465,13 @@
         <v>7</v>
       </c>
       <c r="C661" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="D661" t="s">
         <v>909</v>
       </c>
       <c r="E661" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="F661" t="s">
         <v>24</v>
@@ -17505,13 +17505,13 @@
         <v>7</v>
       </c>
       <c r="C663" t="s">
-        <v>900</v>
+        <v>940</v>
       </c>
       <c r="D663" t="s">
         <v>909</v>
       </c>
       <c r="E663" t="s">
-        <v>940</v>
+        <v>900</v>
       </c>
       <c r="F663" t="s">
         <v>16</v>
@@ -17525,13 +17525,13 @@
         <v>7</v>
       </c>
       <c r="C664" t="s">
-        <v>942</v>
+        <v>917</v>
       </c>
       <c r="D664" t="s">
         <v>909</v>
       </c>
       <c r="E664" t="s">
-        <v>918</v>
+        <v>942</v>
       </c>
       <c r="F664" t="s">
         <v>711</v>
@@ -17545,13 +17545,13 @@
         <v>7</v>
       </c>
       <c r="C665" t="s">
-        <v>942</v>
+        <v>908</v>
       </c>
       <c r="D665" t="s">
         <v>909</v>
       </c>
       <c r="E665" t="s">
-        <v>910</v>
+        <v>942</v>
       </c>
       <c r="F665" t="s">
         <v>24</v>
@@ -17605,13 +17605,13 @@
         <v>7</v>
       </c>
       <c r="C668" t="s">
-        <v>900</v>
+        <v>930</v>
       </c>
       <c r="D668" t="s">
         <v>909</v>
       </c>
       <c r="E668" t="s">
-        <v>930</v>
+        <v>900</v>
       </c>
       <c r="F668" t="s">
         <v>16</v>
@@ -17645,13 +17645,13 @@
         <v>7</v>
       </c>
       <c r="C670" t="s">
-        <v>908</v>
+        <v>951</v>
       </c>
       <c r="D670" t="s">
         <v>909</v>
       </c>
       <c r="E670" t="s">
-        <v>951</v>
+        <v>910</v>
       </c>
       <c r="F670" t="s">
         <v>24</v>
@@ -17705,13 +17705,13 @@
         <v>7</v>
       </c>
       <c r="C673" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="D673" t="s">
         <v>909</v>
       </c>
       <c r="E673" t="s">
-        <v>933</v>
+        <v>900</v>
       </c>
       <c r="F673" t="s">
         <v>16</v>
@@ -17725,13 +17725,13 @@
         <v>7</v>
       </c>
       <c r="C674" t="s">
-        <v>908</v>
+        <v>915</v>
       </c>
       <c r="D674" t="s">
         <v>909</v>
       </c>
       <c r="E674" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="F674" t="s">
         <v>24</v>
@@ -17745,13 +17745,13 @@
         <v>7</v>
       </c>
       <c r="C675" t="s">
-        <v>957</v>
+        <v>917</v>
       </c>
       <c r="D675" t="s">
         <v>909</v>
       </c>
       <c r="E675" t="s">
-        <v>918</v>
+        <v>957</v>
       </c>
       <c r="F675" t="s">
         <v>16</v>
@@ -18005,13 +18005,13 @@
         <v>7</v>
       </c>
       <c r="C688" t="s">
-        <v>968</v>
+        <v>978</v>
       </c>
       <c r="D688" t="s">
         <v>965</v>
       </c>
       <c r="E688" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="F688" t="s">
         <v>24</v>
@@ -18065,13 +18065,13 @@
         <v>7</v>
       </c>
       <c r="C691" t="s">
-        <v>984</v>
+        <v>917</v>
       </c>
       <c r="D691" t="s">
         <v>965</v>
       </c>
       <c r="E691" t="s">
-        <v>918</v>
+        <v>984</v>
       </c>
       <c r="F691" t="s">
         <v>16</v>
@@ -18285,13 +18285,13 @@
         <v>7</v>
       </c>
       <c r="C702" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="D702" t="s">
         <v>965</v>
       </c>
       <c r="E702" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="F702" t="s">
         <v>24</v>
@@ -18325,13 +18325,13 @@
         <v>7</v>
       </c>
       <c r="C704" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="D704" t="s">
         <v>965</v>
       </c>
       <c r="E704" t="s">
-        <v>1000</v>
+        <v>1013</v>
       </c>
       <c r="F704" t="s">
         <v>16</v>
@@ -18365,13 +18365,13 @@
         <v>7</v>
       </c>
       <c r="C706" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="D706" t="s">
         <v>965</v>
       </c>
       <c r="E706" t="s">
-        <v>1000</v>
+        <v>972</v>
       </c>
       <c r="F706" t="s">
         <v>16</v>
@@ -18385,13 +18385,13 @@
         <v>7</v>
       </c>
       <c r="C707" t="s">
-        <v>1017</v>
+        <v>968</v>
       </c>
       <c r="D707" t="s">
         <v>965</v>
       </c>
       <c r="E707" t="s">
-        <v>969</v>
+        <v>1017</v>
       </c>
       <c r="F707" t="s">
         <v>24</v>
@@ -18445,13 +18445,13 @@
         <v>7</v>
       </c>
       <c r="C710" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="D710" t="s">
         <v>965</v>
       </c>
       <c r="E710" t="s">
-        <v>1000</v>
+        <v>972</v>
       </c>
       <c r="F710" t="s">
         <v>711</v>
@@ -18525,13 +18525,13 @@
         <v>7</v>
       </c>
       <c r="C714" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="D714" t="s">
         <v>965</v>
       </c>
       <c r="E714" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="F714" t="s">
         <v>24</v>
@@ -18605,13 +18605,13 @@
         <v>7</v>
       </c>
       <c r="C718" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D718" t="s">
         <v>1031</v>
       </c>
       <c r="E718" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="F718" t="s">
         <v>711</v>
@@ -18625,13 +18625,13 @@
         <v>7</v>
       </c>
       <c r="C719" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D719" t="s">
         <v>1031</v>
       </c>
       <c r="E719" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="F719" t="s">
         <v>711</v>
@@ -18645,13 +18645,13 @@
         <v>7</v>
       </c>
       <c r="C720" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D720" t="s">
         <v>1031</v>
       </c>
       <c r="E720" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="F720" t="s">
         <v>711</v>
@@ -18665,13 +18665,13 @@
         <v>7</v>
       </c>
       <c r="C721" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D721" t="s">
         <v>1031</v>
       </c>
       <c r="E721" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="F721" t="s">
         <v>711</v>
@@ -18685,13 +18685,13 @@
         <v>7</v>
       </c>
       <c r="C722" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D722" t="s">
         <v>1031</v>
       </c>
       <c r="E722" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="F722" t="s">
         <v>711</v>
@@ -18705,13 +18705,13 @@
         <v>7</v>
       </c>
       <c r="C723" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D723" t="s">
         <v>1031</v>
       </c>
       <c r="E723" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="F723" t="s">
         <v>16</v>
@@ -18765,13 +18765,13 @@
         <v>7</v>
       </c>
       <c r="C726" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D726" t="s">
         <v>1031</v>
       </c>
       <c r="E726" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="F726" t="s">
         <v>711</v>
@@ -18785,13 +18785,13 @@
         <v>7</v>
       </c>
       <c r="C727" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D727" t="s">
         <v>1031</v>
       </c>
       <c r="E727" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="F727" t="s">
         <v>711</v>
@@ -18825,13 +18825,13 @@
         <v>7</v>
       </c>
       <c r="C729" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D729" t="s">
         <v>1031</v>
       </c>
       <c r="E729" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="F729" t="s">
         <v>13</v>
@@ -18885,13 +18885,13 @@
         <v>7</v>
       </c>
       <c r="C732" t="s">
-        <v>1057</v>
+        <v>1030</v>
       </c>
       <c r="D732" t="s">
         <v>1031</v>
       </c>
       <c r="E732" t="s">
-        <v>1032</v>
+        <v>1057</v>
       </c>
       <c r="F732" t="s">
         <v>24</v>
@@ -18925,13 +18925,13 @@
         <v>7</v>
       </c>
       <c r="C734" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D734" t="s">
         <v>1031</v>
       </c>
       <c r="E734" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="F734" t="s">
         <v>711</v>
@@ -18945,13 +18945,13 @@
         <v>7</v>
       </c>
       <c r="C735" t="s">
-        <v>1063</v>
+        <v>1030</v>
       </c>
       <c r="D735" t="s">
         <v>1031</v>
       </c>
       <c r="E735" t="s">
-        <v>1032</v>
+        <v>1063</v>
       </c>
       <c r="F735" t="s">
         <v>711</v>
@@ -18965,13 +18965,13 @@
         <v>7</v>
       </c>
       <c r="C736" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D736" t="s">
         <v>1031</v>
       </c>
       <c r="E736" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="F736" t="s">
         <v>16</v>
@@ -18985,13 +18985,13 @@
         <v>7</v>
       </c>
       <c r="C737" t="s">
-        <v>1066</v>
+        <v>971</v>
       </c>
       <c r="D737" t="s">
         <v>1031</v>
       </c>
       <c r="E737" t="s">
-        <v>972</v>
+        <v>1066</v>
       </c>
       <c r="F737" t="s">
         <v>16</v>
@@ -19005,13 +19005,13 @@
         <v>7</v>
       </c>
       <c r="C738" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D738" t="s">
         <v>1031</v>
       </c>
       <c r="E738" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="F738" t="s">
         <v>711</v>
@@ -19025,13 +19025,13 @@
         <v>7</v>
       </c>
       <c r="C739" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D739" t="s">
         <v>1031</v>
       </c>
       <c r="E739" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="F739" t="s">
         <v>711</v>
@@ -19065,13 +19065,13 @@
         <v>7</v>
       </c>
       <c r="C741" t="s">
-        <v>1073</v>
+        <v>1030</v>
       </c>
       <c r="D741" t="s">
         <v>1031</v>
       </c>
       <c r="E741" t="s">
-        <v>1032</v>
+        <v>1073</v>
       </c>
       <c r="F741" t="s">
         <v>16</v>
@@ -19085,13 +19085,13 @@
         <v>7</v>
       </c>
       <c r="C742" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D742" t="s">
         <v>1031</v>
       </c>
       <c r="E742" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="F742" t="s">
         <v>711</v>
@@ -19125,13 +19125,13 @@
         <v>7</v>
       </c>
       <c r="C744" t="s">
-        <v>1077</v>
+        <v>1030</v>
       </c>
       <c r="D744" t="s">
         <v>1031</v>
       </c>
       <c r="E744" t="s">
-        <v>1032</v>
+        <v>1077</v>
       </c>
       <c r="F744" t="s">
         <v>24</v>
@@ -19145,13 +19145,13 @@
         <v>7</v>
       </c>
       <c r="C745" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D745" t="s">
         <v>1031</v>
       </c>
       <c r="E745" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="F745" t="s">
         <v>711</v>
@@ -19165,13 +19165,13 @@
         <v>7</v>
       </c>
       <c r="C746" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D746" t="s">
         <v>1031</v>
       </c>
       <c r="E746" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="F746" t="s">
         <v>711</v>
@@ -19185,13 +19185,13 @@
         <v>7</v>
       </c>
       <c r="C747" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D747" t="s">
         <v>1031</v>
       </c>
       <c r="E747" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="F747" t="s">
         <v>711</v>
@@ -19205,13 +19205,13 @@
         <v>7</v>
       </c>
       <c r="C748" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D748" t="s">
         <v>1031</v>
       </c>
       <c r="E748" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="F748" t="s">
         <v>711</v>
@@ -19385,13 +19385,13 @@
         <v>7</v>
       </c>
       <c r="C757" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="D757" t="s">
         <v>1084</v>
       </c>
       <c r="E757" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F757" t="s">
         <v>24</v>
@@ -19405,13 +19405,13 @@
         <v>7</v>
       </c>
       <c r="C758" t="s">
-        <v>1063</v>
+        <v>1090</v>
       </c>
       <c r="D758" t="s">
         <v>1084</v>
       </c>
       <c r="E758" t="s">
-        <v>1091</v>
+        <v>1063</v>
       </c>
       <c r="F758" t="s">
         <v>16</v>
@@ -19465,13 +19465,13 @@
         <v>7</v>
       </c>
       <c r="C761" t="s">
-        <v>1063</v>
+        <v>1102</v>
       </c>
       <c r="D761" t="s">
         <v>1084</v>
       </c>
       <c r="E761" t="s">
-        <v>1102</v>
+        <v>1063</v>
       </c>
       <c r="F761" t="s">
         <v>24</v>
@@ -19525,13 +19525,13 @@
         <v>7</v>
       </c>
       <c r="C764" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="D764" t="s">
         <v>1084</v>
       </c>
       <c r="E764" t="s">
-        <v>1085</v>
+        <v>1091</v>
       </c>
       <c r="F764" t="s">
         <v>24</v>
@@ -19545,13 +19545,13 @@
         <v>7</v>
       </c>
       <c r="C765" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="D765" t="s">
         <v>1084</v>
       </c>
       <c r="E765" t="s">
-        <v>1102</v>
+        <v>1109</v>
       </c>
       <c r="F765" t="s">
         <v>24</v>
@@ -19765,13 +19765,13 @@
         <v>7</v>
       </c>
       <c r="C776" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D776" t="s">
         <v>1127</v>
       </c>
       <c r="E776" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="F776" t="s">
         <v>711</v>
@@ -19825,13 +19825,13 @@
         <v>7</v>
       </c>
       <c r="C779" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D779" t="s">
         <v>1127</v>
       </c>
       <c r="E779" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="F779" t="s">
         <v>711</v>
@@ -19845,13 +19845,13 @@
         <v>7</v>
       </c>
       <c r="C780" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D780" t="s">
         <v>1127</v>
       </c>
       <c r="E780" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="F780" t="s">
         <v>711</v>
@@ -19865,13 +19865,13 @@
         <v>7</v>
       </c>
       <c r="C781" t="s">
-        <v>1140</v>
+        <v>1126</v>
       </c>
       <c r="D781" t="s">
         <v>1127</v>
       </c>
       <c r="E781" t="s">
-        <v>1128</v>
+        <v>1140</v>
       </c>
       <c r="F781" t="s">
         <v>711</v>
@@ -19885,13 +19885,13 @@
         <v>7</v>
       </c>
       <c r="C782" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D782" t="s">
         <v>1127</v>
       </c>
       <c r="E782" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="F782" t="s">
         <v>711</v>
@@ -19905,13 +19905,13 @@
         <v>7</v>
       </c>
       <c r="C783" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D783" t="s">
         <v>1127</v>
       </c>
       <c r="E783" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="F783" t="s">
         <v>711</v>
@@ -19925,13 +19925,13 @@
         <v>7</v>
       </c>
       <c r="C784" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D784" t="s">
         <v>1127</v>
       </c>
       <c r="E784" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="F784" t="s">
         <v>711</v>
@@ -19945,13 +19945,13 @@
         <v>7</v>
       </c>
       <c r="C785" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D785" t="s">
         <v>1127</v>
       </c>
       <c r="E785" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="F785" t="s">
         <v>711</v>
@@ -19965,13 +19965,13 @@
         <v>7</v>
       </c>
       <c r="C786" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D786" t="s">
         <v>1127</v>
       </c>
       <c r="E786" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="F786" t="s">
         <v>711</v>
@@ -19985,13 +19985,13 @@
         <v>7</v>
       </c>
       <c r="C787" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D787" t="s">
         <v>1127</v>
       </c>
       <c r="E787" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="F787" t="s">
         <v>711</v>
@@ -20005,13 +20005,13 @@
         <v>7</v>
       </c>
       <c r="C788" t="s">
-        <v>1126</v>
+        <v>1148</v>
       </c>
       <c r="D788" t="s">
         <v>1127</v>
       </c>
       <c r="E788" t="s">
-        <v>1148</v>
+        <v>1128</v>
       </c>
       <c r="F788" t="s">
         <v>24</v>
@@ -20025,13 +20025,13 @@
         <v>7</v>
       </c>
       <c r="C789" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D789" t="s">
         <v>1127</v>
       </c>
       <c r="E789" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="F789" t="s">
         <v>711</v>
@@ -20045,13 +20045,13 @@
         <v>7</v>
       </c>
       <c r="C790" t="s">
-        <v>1140</v>
+        <v>1151</v>
       </c>
       <c r="D790" t="s">
         <v>1127</v>
       </c>
       <c r="E790" t="s">
-        <v>1151</v>
+        <v>1140</v>
       </c>
       <c r="F790" t="s">
         <v>24</v>
@@ -20065,13 +20065,13 @@
         <v>7</v>
       </c>
       <c r="C791" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="D791" t="s">
         <v>1127</v>
       </c>
       <c r="E791" t="s">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="F791" t="s">
         <v>24</v>
@@ -20085,13 +20085,13 @@
         <v>7</v>
       </c>
       <c r="C792" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D792" t="s">
         <v>1127</v>
       </c>
       <c r="E792" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="F792" t="s">
         <v>711</v>
@@ -20105,13 +20105,13 @@
         <v>7</v>
       </c>
       <c r="C793" t="s">
-        <v>1130</v>
+        <v>1156</v>
       </c>
       <c r="D793" t="s">
         <v>1127</v>
       </c>
       <c r="E793" t="s">
-        <v>1156</v>
+        <v>1130</v>
       </c>
       <c r="F793" t="s">
         <v>24</v>
@@ -20125,13 +20125,13 @@
         <v>7</v>
       </c>
       <c r="C794" t="s">
-        <v>1158</v>
+        <v>1126</v>
       </c>
       <c r="D794" t="s">
         <v>1127</v>
       </c>
       <c r="E794" t="s">
-        <v>1128</v>
+        <v>1158</v>
       </c>
       <c r="F794" t="s">
         <v>24</v>
@@ -20145,13 +20145,13 @@
         <v>7</v>
       </c>
       <c r="C795" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D795" t="s">
         <v>1127</v>
       </c>
       <c r="E795" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="F795" t="s">
         <v>711</v>
@@ -20205,13 +20205,13 @@
         <v>7</v>
       </c>
       <c r="C798" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D798" t="s">
         <v>1127</v>
       </c>
       <c r="E798" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="F798" t="s">
         <v>711</v>
@@ -20225,13 +20225,13 @@
         <v>7</v>
       </c>
       <c r="C799" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D799" t="s">
         <v>1127</v>
       </c>
       <c r="E799" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="F799" t="s">
         <v>711</v>
@@ -20245,13 +20245,13 @@
         <v>7</v>
       </c>
       <c r="C800" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D800" t="s">
         <v>1127</v>
       </c>
       <c r="E800" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="F800" t="s">
         <v>711</v>
@@ -20265,13 +20265,13 @@
         <v>7</v>
       </c>
       <c r="C801" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D801" t="s">
         <v>1127</v>
       </c>
       <c r="E801" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="F801" t="s">
         <v>711</v>
@@ -20285,13 +20285,13 @@
         <v>7</v>
       </c>
       <c r="C802" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D802" t="s">
         <v>1127</v>
       </c>
       <c r="E802" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="F802" t="s">
         <v>711</v>
@@ -20305,13 +20305,13 @@
         <v>7</v>
       </c>
       <c r="C803" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D803" t="s">
         <v>1127</v>
       </c>
       <c r="E803" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="F803" t="s">
         <v>711</v>
@@ -20325,13 +20325,13 @@
         <v>7</v>
       </c>
       <c r="C804" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D804" t="s">
         <v>1127</v>
       </c>
       <c r="E804" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="F804" t="s">
         <v>711</v>
@@ -20345,13 +20345,13 @@
         <v>7</v>
       </c>
       <c r="C805" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D805" t="s">
         <v>1127</v>
       </c>
       <c r="E805" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="F805" t="s">
         <v>711</v>
@@ -20365,13 +20365,13 @@
         <v>7</v>
       </c>
       <c r="C806" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D806" t="s">
         <v>1127</v>
       </c>
       <c r="E806" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="F806" t="s">
         <v>711</v>
@@ -20505,13 +20505,13 @@
         <v>7</v>
       </c>
       <c r="C813" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="D813" t="s">
         <v>1177</v>
       </c>
       <c r="E813" t="s">
-        <v>1178</v>
+        <v>1183</v>
       </c>
       <c r="F813" t="s">
         <v>711</v>
@@ -20685,13 +20685,13 @@
         <v>7</v>
       </c>
       <c r="C822" t="s">
-        <v>1199</v>
+        <v>1176</v>
       </c>
       <c r="D822" t="s">
         <v>1177</v>
       </c>
       <c r="E822" t="s">
-        <v>1178</v>
+        <v>1200</v>
       </c>
       <c r="F822" t="s">
         <v>711</v>
@@ -20785,13 +20785,13 @@
         <v>7</v>
       </c>
       <c r="C827" t="s">
-        <v>1199</v>
+        <v>1176</v>
       </c>
       <c r="D827" t="s">
         <v>1177</v>
       </c>
       <c r="E827" t="s">
-        <v>1178</v>
+        <v>1200</v>
       </c>
       <c r="F827" t="s">
         <v>711</v>
@@ -20825,13 +20825,13 @@
         <v>7</v>
       </c>
       <c r="C829" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="D829" t="s">
         <v>1177</v>
       </c>
       <c r="E829" t="s">
-        <v>1178</v>
+        <v>1183</v>
       </c>
       <c r="F829" t="s">
         <v>711</v>
@@ -21025,13 +21025,13 @@
         <v>7</v>
       </c>
       <c r="C839" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D839" t="s">
         <v>1219</v>
       </c>
       <c r="E839" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F839" t="s">
         <v>711</v>
@@ -21045,13 +21045,13 @@
         <v>7</v>
       </c>
       <c r="C840" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D840" t="s">
         <v>1219</v>
       </c>
       <c r="E840" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F840" t="s">
         <v>711</v>
@@ -21065,13 +21065,13 @@
         <v>7</v>
       </c>
       <c r="C841" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D841" t="s">
         <v>1219</v>
       </c>
       <c r="E841" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F841" t="s">
         <v>711</v>
@@ -21085,13 +21085,13 @@
         <v>7</v>
       </c>
       <c r="C842" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D842" t="s">
         <v>1219</v>
       </c>
       <c r="E842" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F842" t="s">
         <v>711</v>
@@ -21105,13 +21105,13 @@
         <v>7</v>
       </c>
       <c r="C843" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D843" t="s">
         <v>1219</v>
       </c>
       <c r="E843" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F843" t="s">
         <v>711</v>
@@ -21125,13 +21125,13 @@
         <v>7</v>
       </c>
       <c r="C844" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D844" t="s">
         <v>1219</v>
       </c>
       <c r="E844" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F844" t="s">
         <v>711</v>
@@ -21145,13 +21145,13 @@
         <v>7</v>
       </c>
       <c r="C845" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D845" t="s">
         <v>1219</v>
       </c>
       <c r="E845" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F845" t="s">
         <v>711</v>
@@ -21165,13 +21165,13 @@
         <v>7</v>
       </c>
       <c r="C846" t="s">
-        <v>1230</v>
+        <v>1182</v>
       </c>
       <c r="D846" t="s">
         <v>1219</v>
       </c>
       <c r="E846" t="s">
-        <v>1183</v>
+        <v>1230</v>
       </c>
       <c r="F846" t="s">
         <v>711</v>
@@ -21185,13 +21185,13 @@
         <v>7</v>
       </c>
       <c r="C847" t="s">
-        <v>1230</v>
+        <v>1182</v>
       </c>
       <c r="D847" t="s">
         <v>1219</v>
       </c>
       <c r="E847" t="s">
-        <v>1183</v>
+        <v>1230</v>
       </c>
       <c r="F847" t="s">
         <v>711</v>
@@ -21205,13 +21205,13 @@
         <v>7</v>
       </c>
       <c r="C848" t="s">
-        <v>1230</v>
+        <v>1182</v>
       </c>
       <c r="D848" t="s">
         <v>1219</v>
       </c>
       <c r="E848" t="s">
-        <v>1183</v>
+        <v>1230</v>
       </c>
       <c r="F848" t="s">
         <v>711</v>
@@ -21225,13 +21225,13 @@
         <v>7</v>
       </c>
       <c r="C849" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="D849" t="s">
         <v>1219</v>
       </c>
       <c r="E849" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="F849" t="s">
         <v>711</v>
@@ -21245,13 +21245,13 @@
         <v>7</v>
       </c>
       <c r="C850" t="s">
-        <v>1230</v>
+        <v>1182</v>
       </c>
       <c r="D850" t="s">
         <v>1219</v>
       </c>
       <c r="E850" t="s">
-        <v>1183</v>
+        <v>1230</v>
       </c>
       <c r="F850" t="s">
         <v>711</v>
@@ -21265,13 +21265,13 @@
         <v>7</v>
       </c>
       <c r="C851" t="s">
-        <v>1230</v>
+        <v>1182</v>
       </c>
       <c r="D851" t="s">
         <v>1219</v>
       </c>
       <c r="E851" t="s">
-        <v>1183</v>
+        <v>1230</v>
       </c>
       <c r="F851" t="s">
         <v>711</v>
@@ -21285,13 +21285,13 @@
         <v>7</v>
       </c>
       <c r="C852" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D852" t="s">
         <v>1219</v>
       </c>
       <c r="E852" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F852" t="s">
         <v>711</v>
@@ -21305,13 +21305,13 @@
         <v>7</v>
       </c>
       <c r="C853" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D853" t="s">
         <v>1219</v>
       </c>
       <c r="E853" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F853" t="s">
         <v>16</v>
@@ -21325,13 +21325,13 @@
         <v>7</v>
       </c>
       <c r="C854" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D854" t="s">
         <v>1219</v>
       </c>
       <c r="E854" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F854" t="s">
         <v>16</v>
@@ -21345,13 +21345,13 @@
         <v>7</v>
       </c>
       <c r="C855" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D855" t="s">
         <v>1219</v>
       </c>
       <c r="E855" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F855" t="s">
         <v>16</v>
@@ -21365,13 +21365,13 @@
         <v>7</v>
       </c>
       <c r="C856" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D856" t="s">
         <v>1219</v>
       </c>
       <c r="E856" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F856" t="s">
         <v>711</v>
@@ -21385,13 +21385,13 @@
         <v>7</v>
       </c>
       <c r="C857" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D857" t="s">
         <v>1219</v>
       </c>
       <c r="E857" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F857" t="s">
         <v>711</v>
@@ -21405,13 +21405,13 @@
         <v>7</v>
       </c>
       <c r="C858" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D858" t="s">
         <v>1219</v>
       </c>
       <c r="E858" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F858" t="s">
         <v>16</v>
@@ -21425,13 +21425,13 @@
         <v>7</v>
       </c>
       <c r="C859" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D859" t="s">
         <v>1219</v>
       </c>
       <c r="E859" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F859" t="s">
         <v>711</v>
@@ -21445,13 +21445,13 @@
         <v>7</v>
       </c>
       <c r="C860" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D860" t="s">
         <v>1219</v>
       </c>
       <c r="E860" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F860" t="s">
         <v>711</v>
@@ -21465,13 +21465,13 @@
         <v>7</v>
       </c>
       <c r="C861" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D861" t="s">
         <v>1219</v>
       </c>
       <c r="E861" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F861" t="s">
         <v>711</v>
@@ -21485,13 +21485,13 @@
         <v>7</v>
       </c>
       <c r="C862" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D862" t="s">
         <v>1219</v>
       </c>
       <c r="E862" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F862" t="s">
         <v>711</v>
@@ -21505,13 +21505,13 @@
         <v>7</v>
       </c>
       <c r="C863" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D863" t="s">
         <v>1219</v>
       </c>
       <c r="E863" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F863" t="s">
         <v>711</v>
@@ -21525,13 +21525,13 @@
         <v>7</v>
       </c>
       <c r="C864" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D864" t="s">
         <v>1219</v>
       </c>
       <c r="E864" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F864" t="s">
         <v>711</v>
@@ -21545,13 +21545,13 @@
         <v>7</v>
       </c>
       <c r="C865" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D865" t="s">
         <v>1219</v>
       </c>
       <c r="E865" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F865" t="s">
         <v>711</v>
@@ -21585,13 +21585,13 @@
         <v>7</v>
       </c>
       <c r="C867" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="D867" t="s">
         <v>1253</v>
       </c>
       <c r="E867" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F867" t="s">
         <v>711</v>
@@ -21605,13 +21605,13 @@
         <v>7</v>
       </c>
       <c r="C868" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="D868" t="s">
         <v>1253</v>
       </c>
       <c r="E868" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F868" t="s">
         <v>711</v>
@@ -21625,13 +21625,13 @@
         <v>7</v>
       </c>
       <c r="C869" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="D869" t="s">
         <v>1253</v>
       </c>
       <c r="E869" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F869" t="s">
         <v>711</v>
@@ -21645,13 +21645,13 @@
         <v>7</v>
       </c>
       <c r="C870" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="D870" t="s">
         <v>1253</v>
       </c>
       <c r="E870" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F870" t="s">
         <v>711</v>
@@ -21665,13 +21665,13 @@
         <v>7</v>
       </c>
       <c r="C871" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="D871" t="s">
         <v>1253</v>
       </c>
       <c r="E871" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F871" t="s">
         <v>16</v>
@@ -21685,13 +21685,13 @@
         <v>7</v>
       </c>
       <c r="C872" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="D872" t="s">
         <v>1253</v>
       </c>
       <c r="E872" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F872" t="s">
         <v>16</v>
@@ -21705,13 +21705,13 @@
         <v>7</v>
       </c>
       <c r="C873" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="D873" t="s">
         <v>1253</v>
       </c>
       <c r="E873" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F873" t="s">
         <v>711</v>
@@ -21725,13 +21725,13 @@
         <v>7</v>
       </c>
       <c r="C874" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="D874" t="s">
         <v>1253</v>
       </c>
       <c r="E874" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F874" t="s">
         <v>711</v>
@@ -21745,13 +21745,13 @@
         <v>7</v>
       </c>
       <c r="C875" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="D875" t="s">
         <v>1253</v>
       </c>
       <c r="E875" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F875" t="s">
         <v>711</v>
@@ -21765,13 +21765,13 @@
         <v>7</v>
       </c>
       <c r="C876" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="D876" t="s">
         <v>1253</v>
       </c>
       <c r="E876" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F876" t="s">
         <v>16</v>
@@ -21785,13 +21785,13 @@
         <v>7</v>
       </c>
       <c r="C877" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="D877" t="s">
         <v>1253</v>
       </c>
       <c r="E877" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F877" t="s">
         <v>711</v>
@@ -21805,13 +21805,13 @@
         <v>7</v>
       </c>
       <c r="C878" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="D878" t="s">
         <v>1253</v>
       </c>
       <c r="E878" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F878" t="s">
         <v>711</v>
@@ -21825,13 +21825,13 @@
         <v>7</v>
       </c>
       <c r="C879" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="D879" t="s">
         <v>1253</v>
       </c>
       <c r="E879" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F879" t="s">
         <v>711</v>
@@ -21845,13 +21845,13 @@
         <v>7</v>
       </c>
       <c r="C880" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="D880" t="s">
         <v>1253</v>
       </c>
       <c r="E880" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F880" t="s">
         <v>711</v>
@@ -21865,13 +21865,13 @@
         <v>7</v>
       </c>
       <c r="C881" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="D881" t="s">
         <v>1253</v>
       </c>
       <c r="E881" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F881" t="s">
         <v>711</v>
@@ -21885,13 +21885,13 @@
         <v>7</v>
       </c>
       <c r="C882" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="D882" t="s">
         <v>1253</v>
       </c>
       <c r="E882" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F882" t="s">
         <v>711</v>
@@ -21905,13 +21905,13 @@
         <v>7</v>
       </c>
       <c r="C883" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="D883" t="s">
         <v>1253</v>
       </c>
       <c r="E883" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F883" t="s">
         <v>711</v>
@@ -21925,13 +21925,13 @@
         <v>7</v>
       </c>
       <c r="C884" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="D884" t="s">
         <v>1253</v>
       </c>
       <c r="E884" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F884" t="s">
         <v>711</v>
@@ -21945,13 +21945,13 @@
         <v>7</v>
       </c>
       <c r="C885" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="D885" t="s">
         <v>1253</v>
       </c>
       <c r="E885" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F885" t="s">
         <v>711</v>
@@ -21965,13 +21965,13 @@
         <v>7</v>
       </c>
       <c r="C886" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="D886" t="s">
         <v>1253</v>
       </c>
       <c r="E886" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F886" t="s">
         <v>16</v>
@@ -21985,13 +21985,13 @@
         <v>7</v>
       </c>
       <c r="C887" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="D887" t="s">
         <v>1253</v>
       </c>
       <c r="E887" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F887" t="s">
         <v>711</v>
@@ -22005,13 +22005,13 @@
         <v>7</v>
       </c>
       <c r="C888" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="D888" t="s">
         <v>1253</v>
       </c>
       <c r="E888" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F888" t="s">
         <v>711</v>
@@ -22125,13 +22125,13 @@
         <v>7</v>
       </c>
       <c r="C894" t="s">
-        <v>1287</v>
+        <v>1279</v>
       </c>
       <c r="D894" t="s">
         <v>1280</v>
       </c>
       <c r="E894" t="s">
-        <v>1281</v>
+        <v>1287</v>
       </c>
       <c r="F894" t="s">
         <v>711</v>
@@ -22305,13 +22305,13 @@
         <v>7</v>
       </c>
       <c r="C903" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D903" t="s">
         <v>1297</v>
       </c>
-      <c r="D903" t="s">
+      <c r="E903" t="s">
         <v>1298</v>
-      </c>
-      <c r="E903" t="s">
-        <v>1281</v>
       </c>
       <c r="F903" t="s">
         <v>711</v>
@@ -22325,13 +22325,13 @@
         <v>7</v>
       </c>
       <c r="C904" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D904" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E904" t="s">
         <v>1300</v>
-      </c>
-      <c r="D904" t="s">
-        <v>1298</v>
-      </c>
-      <c r="E904" t="s">
-        <v>1281</v>
       </c>
       <c r="F904" t="s">
         <v>711</v>
@@ -22345,13 +22345,13 @@
         <v>7</v>
       </c>
       <c r="C905" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D905" t="s">
         <v>1297</v>
       </c>
-      <c r="D905" t="s">
+      <c r="E905" t="s">
         <v>1298</v>
-      </c>
-      <c r="E905" t="s">
-        <v>1281</v>
       </c>
       <c r="F905" t="s">
         <v>711</v>
